--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
@@ -1812,7 +1812,7 @@
         <v>3.6</v>
       </c>
       <c r="K2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L2">
         <v>1.71</v>
@@ -1881,7 +1881,7 @@
         <v>11.5</v>
       </c>
       <c r="AH2">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AI2">
         <v>21</v>
@@ -1893,13 +1893,13 @@
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AM2">
         <v>30</v>
       </c>
       <c r="AN2">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AO2">
         <v>30</v>
@@ -1994,16 +1994,16 @@
         <v>157</v>
       </c>
       <c r="F3">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G3">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
         <v>3.75</v>
       </c>
       <c r="I3">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -2015,25 +2015,25 @@
         <v>1.46</v>
       </c>
       <c r="M3">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="N3">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="O3">
         <v>3.15</v>
       </c>
       <c r="P3">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="Q3">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="R3">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="S3">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="T3">
         <v>6.8</v>
@@ -2048,13 +2048,13 @@
         <v>12.5</v>
       </c>
       <c r="X3">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="Y3">
         <v>32</v>
       </c>
       <c r="Z3">
-        <v>3.7</v>
+        <v>1.03</v>
       </c>
       <c r="AA3">
         <v>1000</v>
@@ -2072,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="AF3">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AG3">
         <v>21</v>
       </c>
       <c r="AH3">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AI3">
         <v>1000</v>
@@ -2191,22 +2191,22 @@
         <v>158</v>
       </c>
       <c r="F4">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="H4">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J4">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L4">
         <v>1.2</v>
@@ -2215,7 +2215,7 @@
         <v>1000</v>
       </c>
       <c r="N4">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="O4">
         <v>6.4</v>
@@ -2341,7 +2341,7 @@
         <v>1000</v>
       </c>
       <c r="BD4">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2391,16 +2391,16 @@
         <v>2.16</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H5">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I5">
         <v>3.7</v>
       </c>
       <c r="J5">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K5">
         <v>4.2</v>
@@ -2418,16 +2418,16 @@
         <v>1.99</v>
       </c>
       <c r="P5">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q5">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R5">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="S5">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="T5">
         <v>4.9</v>
@@ -2472,7 +2472,7 @@
         <v>15.5</v>
       </c>
       <c r="AH5">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AI5">
         <v>40</v>
@@ -2585,10 +2585,10 @@
         <v>160</v>
       </c>
       <c r="F6">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G6">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H6">
         <v>4.6</v>
@@ -2600,67 +2600,67 @@
         <v>3.15</v>
       </c>
       <c r="K6">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="M6">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="O6">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="P6">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S6">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>11</v>
       </c>
       <c r="V6">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W6">
         <v>16</v>
       </c>
       <c r="X6">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y6">
         <v>40</v>
       </c>
       <c r="Z6">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AA6">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB6">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AC6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD6">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AE6">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AF6">
         <v>17.5</v>
@@ -2669,13 +2669,13 @@
         <v>24</v>
       </c>
       <c r="AH6">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI6">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ6">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AK6">
         <v>11.5</v>
@@ -2687,55 +2687,55 @@
         <v>12</v>
       </c>
       <c r="AN6">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP6">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="AQ6">
         <v>110</v>
       </c>
       <c r="AR6">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AS6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT6">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AU6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV6">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AW6">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AX6">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AY6">
         <v>190</v>
       </c>
       <c r="AZ6">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="BA6">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="BB6">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="BC6">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="BD6">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2782,22 +2782,22 @@
         <v>161</v>
       </c>
       <c r="F7">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="G7">
         <v>1000</v>
       </c>
       <c r="H7">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>1.75</v>
       </c>
       <c r="J7">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L7">
         <v>1.07</v>
@@ -2997,7 +2997,7 @@
         <v>200</v>
       </c>
       <c r="L8">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="M8">
         <v>2.7</v>
@@ -3006,7 +3006,7 @@
         <v>1.59</v>
       </c>
       <c r="O8">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="P8">
         <v>1.01</v>
@@ -3176,7 +3176,7 @@
         <v>163</v>
       </c>
       <c r="F9">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="G9">
         <v>1.27</v>
@@ -3185,22 +3185,22 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J9">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="L9">
         <v>2.26</v>
       </c>
       <c r="M9">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="N9">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="O9">
         <v>1.79</v>
@@ -3209,40 +3209,40 @@
         <v>1.99</v>
       </c>
       <c r="Q9">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="R9">
         <v>1.59</v>
       </c>
       <c r="S9">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="T9">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="U9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V9">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
       <c r="W9">
         <v>1000</v>
       </c>
       <c r="X9">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Y9">
         <v>1000</v>
       </c>
       <c r="Z9">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AA9">
         <v>1000</v>
       </c>
       <c r="AB9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AC9">
         <v>12</v>
@@ -3251,82 +3251,82 @@
         <v>3.65</v>
       </c>
       <c r="AE9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF9">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="AG9">
         <v>1000</v>
       </c>
       <c r="AH9">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AK9">
         <v>9.4</v>
       </c>
       <c r="AL9">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AM9">
         <v>14</v>
       </c>
       <c r="AN9">
-        <v>4</v>
+        <v>2.14</v>
       </c>
       <c r="AO9">
         <v>1000</v>
       </c>
       <c r="AP9">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
       </c>
       <c r="AR9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AS9">
         <v>11.5</v>
       </c>
       <c r="AT9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AU9">
         <v>17.5</v>
       </c>
       <c r="AV9">
-        <v>1.44</v>
+        <v>4</v>
       </c>
       <c r="AW9">
         <v>55</v>
       </c>
       <c r="AX9">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="BA9">
         <v>4.9</v>
       </c>
       <c r="BB9">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BC9">
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -3394,10 +3394,10 @@
         <v>1.54</v>
       </c>
       <c r="M10">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O10">
         <v>2.84</v>
@@ -3406,13 +3406,13 @@
         <v>1.83</v>
       </c>
       <c r="Q10">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="R10">
         <v>1.71</v>
       </c>
       <c r="S10">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="T10">
         <v>3.25</v>
@@ -3570,7 +3570,7 @@
         <v>165</v>
       </c>
       <c r="F11">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G11">
         <v>2.28</v>
@@ -3600,16 +3600,16 @@
         <v>2.66</v>
       </c>
       <c r="P11">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q11">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R11">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S11">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T11">
         <v>2.92</v>
@@ -3618,19 +3618,19 @@
         <v>11.5</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="W11">
         <v>13</v>
       </c>
       <c r="X11">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="Y11">
         <v>29</v>
       </c>
       <c r="Z11">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="AA11">
         <v>1000</v>
@@ -3648,13 +3648,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF11">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="AG11">
         <v>18.5</v>
       </c>
       <c r="AH11">
-        <v>3.7</v>
+        <v>2.56</v>
       </c>
       <c r="AI11">
         <v>65</v>
@@ -3666,61 +3666,61 @@
         <v>13.5</v>
       </c>
       <c r="AL11">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="AM11">
         <v>12.5</v>
       </c>
       <c r="AN11">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="AO11">
         <v>25</v>
       </c>
       <c r="AP11">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="AQ11">
         <v>1000</v>
       </c>
       <c r="AR11">
-        <v>3.5</v>
+        <v>2.46</v>
       </c>
       <c r="AS11">
         <v>32</v>
       </c>
       <c r="AT11">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="AU11">
         <v>30</v>
       </c>
       <c r="AV11">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="AW11">
         <v>1000</v>
       </c>
       <c r="AX11">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>1.61</v>
+        <v>2.04</v>
       </c>
       <c r="BA11">
         <v>26</v>
       </c>
       <c r="BB11">
-        <v>1.38</v>
+        <v>1.87</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3842,10 +3842,10 @@
         <v>6.8</v>
       </c>
       <c r="AE12">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF12">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG12">
         <v>15.5</v>
@@ -3869,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="AN12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12">
         <v>23</v>
@@ -3893,7 +3893,7 @@
         <v>32</v>
       </c>
       <c r="AV12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AW12">
         <v>60</v>
@@ -3917,7 +3917,7 @@
         <v>70</v>
       </c>
       <c r="BD12">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3964,7 +3964,7 @@
         <v>167</v>
       </c>
       <c r="F13">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G13">
         <v>1.67</v>
@@ -3997,13 +3997,13 @@
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="R13">
         <v>1.87</v>
       </c>
       <c r="S13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>10.5</v>
@@ -4191,16 +4191,16 @@
         <v>3.05</v>
       </c>
       <c r="P14">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="Q14">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="R14">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="S14">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="T14">
         <v>6.4</v>
@@ -4215,7 +4215,7 @@
         <v>12.5</v>
       </c>
       <c r="X14">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y14">
         <v>32</v>
@@ -4275,13 +4275,13 @@
         <v>130</v>
       </c>
       <c r="AR14">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AS14">
         <v>32</v>
       </c>
       <c r="AT14">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AU14">
         <v>36</v>
@@ -4302,7 +4302,7 @@
         <v>5.8</v>
       </c>
       <c r="BA14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB14">
         <v>6.6</v>
@@ -4376,28 +4376,28 @@
         <v>4.7</v>
       </c>
       <c r="L15">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="N15">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="O15">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P15">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q15">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="R15">
         <v>1.95</v>
       </c>
       <c r="S15">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T15">
         <v>12.5</v>
@@ -4558,7 +4558,7 @@
         <v>2.56</v>
       </c>
       <c r="G16">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H16">
         <v>2.8</v>
@@ -4567,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K16">
         <v>3.65</v>
@@ -4588,13 +4588,13 @@
         <v>1.82</v>
       </c>
       <c r="Q16">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R16">
         <v>1.99</v>
       </c>
       <c r="S16">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="T16">
         <v>9.800000000000001</v>
@@ -4755,28 +4755,28 @@
         <v>7.8</v>
       </c>
       <c r="G17">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H17">
         <v>1.43</v>
       </c>
       <c r="I17">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J17">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K17">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L17">
         <v>2.34</v>
       </c>
       <c r="M17">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O17">
         <v>1.75</v>
@@ -4788,7 +4788,7 @@
         <v>2.06</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S17">
         <v>2.08</v>
@@ -4803,7 +4803,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="W17">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X17">
         <v>8.199999999999999</v>
@@ -4821,28 +4821,28 @@
         <v>26</v>
       </c>
       <c r="AC17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD17">
         <v>11</v>
       </c>
       <c r="AE17">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF17">
         <v>9.199999999999999</v>
       </c>
       <c r="AG17">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH17">
         <v>13</v>
       </c>
       <c r="AI17">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ17">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AK17">
         <v>80</v>
@@ -4860,49 +4860,49 @@
         <v>25</v>
       </c>
       <c r="AP17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ17">
         <v>34</v>
       </c>
       <c r="AR17">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS17">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AT17">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AU17">
         <v>120</v>
       </c>
       <c r="AV17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW17">
         <v>110</v>
       </c>
       <c r="AX17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY17">
         <v>140</v>
       </c>
       <c r="AZ17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA17">
         <v>140</v>
       </c>
       <c r="BB17">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BC17">
         <v>6.4</v>
       </c>
       <c r="BD17">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4952,19 +4952,19 @@
         <v>2.56</v>
       </c>
       <c r="G18">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="H18">
         <v>2.92</v>
       </c>
       <c r="I18">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J18">
         <v>2.88</v>
       </c>
       <c r="K18">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
         <v>1.62</v>
@@ -4982,13 +4982,13 @@
         <v>1.89</v>
       </c>
       <c r="Q18">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="R18">
         <v>1.82</v>
       </c>
       <c r="S18">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="T18">
         <v>7.2</v>
@@ -5179,16 +5179,16 @@
         <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="R19">
         <v>1.53</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="T19">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="U19">
         <v>9.4</v>
@@ -5376,13 +5376,13 @@
         <v>1.64</v>
       </c>
       <c r="Q20">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="R20">
         <v>1.92</v>
       </c>
       <c r="S20">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="T20">
         <v>3.6</v>
@@ -5549,10 +5549,10 @@
         <v>2.22</v>
       </c>
       <c r="I21">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J21">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K21">
         <v>330</v>
@@ -5561,25 +5561,25 @@
         <v>1.8</v>
       </c>
       <c r="M21">
-        <v>2.1</v>
+        <v>2.74</v>
       </c>
       <c r="N21">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="P21">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="Q21">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="R21">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="S21">
-        <v>2.38</v>
+        <v>110</v>
       </c>
       <c r="T21">
         <v>1.01</v>
@@ -5606,7 +5606,7 @@
         <v>1000</v>
       </c>
       <c r="AB21">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AC21">
         <v>14</v>
@@ -5636,13 +5636,13 @@
         <v>1000</v>
       </c>
       <c r="AL21">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM21">
         <v>15.5</v>
       </c>
       <c r="AN21">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AO21">
         <v>1000</v>
@@ -5666,13 +5666,13 @@
         <v>1000</v>
       </c>
       <c r="AV21">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AW21">
         <v>1000</v>
       </c>
       <c r="AX21">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY21">
         <v>1000</v>
@@ -5690,7 +5690,7 @@
         <v>1000</v>
       </c>
       <c r="BD21">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -5770,13 +5770,13 @@
         <v>1.52</v>
       </c>
       <c r="Q22">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="R22">
         <v>2.18</v>
       </c>
       <c r="S22">
-        <v>2.92</v>
+        <v>1000</v>
       </c>
       <c r="T22">
         <v>3.95</v>
@@ -5934,13 +5934,13 @@
         <v>177</v>
       </c>
       <c r="F23">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G23">
         <v>2.2</v>
       </c>
       <c r="H23">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I23">
         <v>3.75</v>
@@ -5949,28 +5949,28 @@
         <v>3.9</v>
       </c>
       <c r="K23">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L23">
         <v>2.34</v>
       </c>
       <c r="M23">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="N23">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O23">
         <v>1.75</v>
       </c>
       <c r="P23">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q23">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="R23">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="S23">
         <v>2.64</v>
@@ -5985,7 +5985,7 @@
         <v>14.5</v>
       </c>
       <c r="W23">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X23">
         <v>5.5</v>
@@ -6042,7 +6042,7 @@
         <v>18</v>
       </c>
       <c r="AP23">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AQ23">
         <v>44</v>
@@ -6069,7 +6069,7 @@
         <v>6</v>
       </c>
       <c r="AY23">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ23">
         <v>4.3</v>
@@ -6084,7 +6084,7 @@
         <v>29</v>
       </c>
       <c r="BD23">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -6263,7 +6263,7 @@
         <v>42</v>
       </c>
       <c r="AX24">
-        <v>21</v>
+        <v>2.68</v>
       </c>
       <c r="AY24">
         <v>1000</v>
@@ -6328,40 +6328,40 @@
         <v>179</v>
       </c>
       <c r="F25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G25">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H25">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I25">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J25">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K25">
         <v>3.2</v>
       </c>
       <c r="L25">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M25">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="N25">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="P25">
         <v>2.12</v>
       </c>
       <c r="Q25">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R25">
         <v>1.74</v>
@@ -6388,10 +6388,10 @@
         <v>15</v>
       </c>
       <c r="Z25">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AA25">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB25">
         <v>8.199999999999999</v>
@@ -6409,13 +6409,13 @@
         <v>10</v>
       </c>
       <c r="AG25">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH25">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AI25">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ25">
         <v>16</v>
@@ -6433,52 +6433,52 @@
         <v>19.5</v>
       </c>
       <c r="AO25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP25">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AQ25">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR25">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AS25">
         <v>85</v>
       </c>
       <c r="AT25">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AU25">
         <v>65</v>
       </c>
       <c r="AV25">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AW25">
         <v>95</v>
       </c>
       <c r="AX25">
+        <v>7.4</v>
+      </c>
+      <c r="AY25">
+        <v>210</v>
+      </c>
+      <c r="AZ25">
         <v>7</v>
-      </c>
-      <c r="AY25">
-        <v>220</v>
-      </c>
-      <c r="AZ25">
-        <v>6.6</v>
       </c>
       <c r="BA25">
         <v>85</v>
       </c>
       <c r="BB25">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BC25">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BD25">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -6525,22 +6525,22 @@
         <v>180</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G26">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H26">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I26">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="J26">
         <v>2.98</v>
       </c>
       <c r="K26">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L26">
         <v>1.51</v>
@@ -6573,7 +6573,7 @@
         <v>9</v>
       </c>
       <c r="V26">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="W26">
         <v>9.199999999999999</v>
@@ -6582,13 +6582,13 @@
         <v>13.5</v>
       </c>
       <c r="Y26">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z26">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA26">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB26">
         <v>7.6</v>
@@ -6606,10 +6606,10 @@
         <v>11.5</v>
       </c>
       <c r="AG26">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH26">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI26">
         <v>44</v>
@@ -6633,49 +6633,49 @@
         <v>26</v>
       </c>
       <c r="AP26">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ26">
         <v>75</v>
       </c>
       <c r="AR26">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS26">
         <v>65</v>
       </c>
       <c r="AT26">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AU26">
         <v>55</v>
       </c>
       <c r="AV26">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AW26">
         <v>85</v>
       </c>
       <c r="AX26">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AY26">
         <v>1000</v>
       </c>
       <c r="AZ26">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="BA26">
         <v>60</v>
       </c>
       <c r="BB26">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BC26">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD26">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6722,10 +6722,10 @@
         <v>181</v>
       </c>
       <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
         <v>4.1</v>
-      </c>
-      <c r="G27">
-        <v>4.2</v>
       </c>
       <c r="H27">
         <v>2.04</v>
@@ -6734,10 +6734,10 @@
         <v>2.06</v>
       </c>
       <c r="J27">
+        <v>3.65</v>
+      </c>
+      <c r="K27">
         <v>3.75</v>
-      </c>
-      <c r="K27">
-        <v>3.8</v>
       </c>
       <c r="L27">
         <v>2.22</v>
@@ -6752,7 +6752,7 @@
         <v>1.82</v>
       </c>
       <c r="P27">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6761,10 +6761,10 @@
         <v>2.4</v>
       </c>
       <c r="S27">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T27">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="U27">
         <v>17.5</v>
@@ -6779,7 +6779,7 @@
         <v>12.5</v>
       </c>
       <c r="Y27">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z27">
         <v>22</v>
@@ -6791,7 +6791,7 @@
         <v>16.5</v>
       </c>
       <c r="AC27">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD27">
         <v>8</v>
@@ -6803,7 +6803,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG27">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH27">
         <v>18</v>
@@ -6815,7 +6815,7 @@
         <v>28</v>
       </c>
       <c r="AK27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL27">
         <v>15</v>
@@ -6833,7 +6833,7 @@
         <v>28</v>
       </c>
       <c r="AQ27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR27">
         <v>70</v>
@@ -6863,7 +6863,7 @@
         <v>32</v>
       </c>
       <c r="BA27">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BB27">
         <v>11</v>
@@ -6934,7 +6934,7 @@
         <v>3.2</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L28">
         <v>1.57</v>
@@ -6952,13 +6952,13 @@
         <v>1.94</v>
       </c>
       <c r="Q28">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="R28">
         <v>1.78</v>
       </c>
       <c r="S28">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T28">
         <v>8</v>
@@ -6994,7 +6994,7 @@
         <v>6.8</v>
       </c>
       <c r="AE28">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF28">
         <v>10.5</v>
@@ -7003,13 +7003,13 @@
         <v>12</v>
       </c>
       <c r="AH28">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AI28">
         <v>30</v>
       </c>
       <c r="AJ28">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AK28">
         <v>28</v>
@@ -7018,7 +7018,7 @@
         <v>15.5</v>
       </c>
       <c r="AM28">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN28">
         <v>21</v>
@@ -7027,49 +7027,49 @@
         <v>26</v>
       </c>
       <c r="AP28">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ28">
         <v>60</v>
       </c>
       <c r="AR28">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AS28">
         <v>110</v>
       </c>
       <c r="AT28">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AU28">
         <v>75</v>
       </c>
       <c r="AV28">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AW28">
         <v>90</v>
       </c>
       <c r="AX28">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="AY28">
         <v>200</v>
       </c>
       <c r="AZ28">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BA28">
         <v>110</v>
       </c>
       <c r="BB28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BD28">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -7122,7 +7122,7 @@
         <v>1.83</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I29">
         <v>6.8</v>
@@ -7149,22 +7149,22 @@
         <v>1.98</v>
       </c>
       <c r="Q29">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="R29">
         <v>1.74</v>
       </c>
       <c r="S29">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T29">
-        <v>4.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U29">
         <v>12.5</v>
       </c>
       <c r="V29">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W29">
         <v>18</v>
@@ -7194,7 +7194,7 @@
         <v>9.4</v>
       </c>
       <c r="AF29">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG29">
         <v>25</v>
@@ -7212,13 +7212,13 @@
         <v>10.5</v>
       </c>
       <c r="AL29">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="AM29">
         <v>11.5</v>
       </c>
       <c r="AN29">
-        <v>5.6</v>
+        <v>19.5</v>
       </c>
       <c r="AO29">
         <v>27</v>
@@ -7230,13 +7230,13 @@
         <v>120</v>
       </c>
       <c r="AR29">
-        <v>5.2</v>
+        <v>14.5</v>
       </c>
       <c r="AS29">
         <v>20</v>
       </c>
       <c r="AT29">
-        <v>5.4</v>
+        <v>17</v>
       </c>
       <c r="AU29">
         <v>23</v>
@@ -7313,10 +7313,10 @@
         <v>184</v>
       </c>
       <c r="F30">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G30">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="H30">
         <v>2.98</v>
@@ -7391,7 +7391,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AF30">
-        <v>11</v>
+        <v>4.7</v>
       </c>
       <c r="AG30">
         <v>15.5</v>
@@ -7403,7 +7403,7 @@
         <v>42</v>
       </c>
       <c r="AJ30">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="AK30">
         <v>16.5</v>
@@ -7510,34 +7510,34 @@
         <v>185</v>
       </c>
       <c r="F31">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G31">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I31">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="J31">
         <v>3.05</v>
       </c>
       <c r="K31">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="L31">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N31">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="O31">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="P31">
         <v>1.01</v>
@@ -7552,7 +7552,7 @@
         <v>1000</v>
       </c>
       <c r="T31">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U31">
         <v>1000</v>
@@ -7713,7 +7713,7 @@
         <v>2.78</v>
       </c>
       <c r="H32">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I32">
         <v>3.45</v>
@@ -7722,16 +7722,16 @@
         <v>3.1</v>
       </c>
       <c r="K32">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L32">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="M32">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="N32">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O32">
         <v>2.2</v>
@@ -7746,7 +7746,7 @@
         <v>2.02</v>
       </c>
       <c r="S32">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="T32">
         <v>9.800000000000001</v>
@@ -7761,7 +7761,7 @@
         <v>13.5</v>
       </c>
       <c r="X32">
-        <v>3</v>
+        <v>1.18</v>
       </c>
       <c r="Y32">
         <v>1000</v>
@@ -7797,13 +7797,13 @@
         <v>1000</v>
       </c>
       <c r="AJ32">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="AK32">
         <v>17.5</v>
       </c>
       <c r="AL32">
-        <v>2.7</v>
+        <v>1.21</v>
       </c>
       <c r="AM32">
         <v>13</v>
@@ -7833,7 +7833,7 @@
         <v>30</v>
       </c>
       <c r="AV32">
-        <v>15.5</v>
+        <v>1.17</v>
       </c>
       <c r="AW32">
         <v>1000</v>
@@ -7910,10 +7910,10 @@
         <v>4.4</v>
       </c>
       <c r="H33">
+        <v>1.87</v>
+      </c>
+      <c r="I33">
         <v>1.88</v>
-      </c>
-      <c r="I33">
-        <v>1.89</v>
       </c>
       <c r="J33">
         <v>4.2</v>
@@ -7925,10 +7925,10 @@
         <v>2.2</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="N33">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O33">
         <v>1.83</v>
@@ -8036,7 +8036,7 @@
         <v>55</v>
       </c>
       <c r="AX33">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AY33">
         <v>90</v>
@@ -8048,7 +8048,7 @@
         <v>48</v>
       </c>
       <c r="BB33">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC33">
         <v>11</v>
@@ -8131,7 +8131,7 @@
         <v>2.94</v>
       </c>
       <c r="P34">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q34">
         <v>2.42</v>
@@ -8140,7 +8140,7 @@
         <v>1.71</v>
       </c>
       <c r="S34">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="T34">
         <v>7.6</v>
@@ -8212,7 +8212,7 @@
         <v>90</v>
       </c>
       <c r="AQ34">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AR34">
         <v>22</v>
@@ -8236,7 +8236,7 @@
         <v>48</v>
       </c>
       <c r="AY34">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AZ34">
         <v>21</v>
@@ -8248,10 +8248,10 @@
         <v>42</v>
       </c>
       <c r="BC34">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="BD34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -8301,13 +8301,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="H35">
         <v>1.39</v>
       </c>
       <c r="I35">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J35">
         <v>5.8</v>
@@ -8316,16 +8316,16 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="M35">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="N35">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O35">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P35">
         <v>1.86</v>
@@ -8346,13 +8346,13 @@
         <v>25</v>
       </c>
       <c r="V35">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="W35">
         <v>11</v>
       </c>
       <c r="X35">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y35">
         <v>9.6</v>
@@ -8388,7 +8388,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ35">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK35">
         <v>85</v>
@@ -8421,13 +8421,13 @@
         <v>14</v>
       </c>
       <c r="AU35">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AV35">
         <v>13.5</v>
       </c>
       <c r="AW35">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AX35">
         <v>14</v>
@@ -8451,7 +8451,7 @@
         <v>15.5</v>
       </c>
       <c r="BE35">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="BF35" t="s">
         <v>230</v>
@@ -8495,7 +8495,7 @@
         <v>190</v>
       </c>
       <c r="F36">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G36">
         <v>1.89</v>
@@ -8510,7 +8510,7 @@
         <v>3.35</v>
       </c>
       <c r="K36">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L36">
         <v>1.37</v>
@@ -8519,7 +8519,7 @@
         <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O36">
         <v>4.1</v>
@@ -8528,16 +8528,16 @@
         <v>1.01</v>
       </c>
       <c r="Q36">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="R36">
         <v>1.86</v>
       </c>
       <c r="S36">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="T36">
-        <v>1.23</v>
+        <v>11</v>
       </c>
       <c r="U36">
         <v>18</v>
@@ -8555,19 +8555,19 @@
         <v>1000</v>
       </c>
       <c r="Z36">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AA36">
         <v>1000</v>
       </c>
       <c r="AB36">
-        <v>1.67</v>
+        <v>6.8</v>
       </c>
       <c r="AC36">
         <v>11</v>
       </c>
       <c r="AD36">
-        <v>1.67</v>
+        <v>6.8</v>
       </c>
       <c r="AE36">
         <v>11</v>
@@ -8591,19 +8591,19 @@
         <v>13</v>
       </c>
       <c r="AL36">
-        <v>3.45</v>
+        <v>8.6</v>
       </c>
       <c r="AM36">
         <v>12.5</v>
       </c>
       <c r="AN36">
-        <v>1.11</v>
+        <v>4</v>
       </c>
       <c r="AO36">
         <v>1000</v>
       </c>
       <c r="AP36">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AQ36">
         <v>1000</v>
@@ -8627,7 +8627,7 @@
         <v>1000</v>
       </c>
       <c r="AX36">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="AY36">
         <v>1000</v>
@@ -8701,22 +8701,22 @@
         <v>5</v>
       </c>
       <c r="I37">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J37">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K37">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L37">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M37">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="N37">
-        <v>1.47</v>
+        <v>2.44</v>
       </c>
       <c r="O37">
         <v>6</v>
@@ -8725,16 +8725,16 @@
         <v>1.98</v>
       </c>
       <c r="Q37">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="R37">
         <v>1.6</v>
       </c>
       <c r="S37">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="T37">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="U37">
         <v>11.5</v>
@@ -8743,7 +8743,7 @@
         <v>5.4</v>
       </c>
       <c r="W37">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="X37">
         <v>11.5</v>
@@ -8752,7 +8752,7 @@
         <v>40</v>
       </c>
       <c r="Z37">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AA37">
         <v>160</v>
@@ -8770,16 +8770,16 @@
         <v>8</v>
       </c>
       <c r="AF37">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="AG37">
         <v>23</v>
       </c>
       <c r="AH37">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI37">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ37">
         <v>8.6</v>
@@ -8788,7 +8788,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AL37">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AM37">
         <v>11</v>
@@ -8800,7 +8800,7 @@
         <v>100</v>
       </c>
       <c r="AP37">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AQ37">
         <v>850</v>
@@ -8818,31 +8818,31 @@
         <v>25</v>
       </c>
       <c r="AV37">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW37">
         <v>60</v>
       </c>
       <c r="AX37">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AY37">
         <v>220</v>
       </c>
       <c r="AZ37">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BA37">
         <v>25</v>
       </c>
       <c r="BB37">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="BC37">
         <v>190</v>
       </c>
       <c r="BD37">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="BE37">
         <v>1000</v>
@@ -8895,13 +8895,13 @@
         <v>980</v>
       </c>
       <c r="H38">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="I38">
         <v>980</v>
       </c>
       <c r="J38">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="K38">
         <v>980</v>
@@ -8943,13 +8943,13 @@
         <v>1000</v>
       </c>
       <c r="X38">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="Y38">
         <v>1000</v>
       </c>
       <c r="Z38">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="AA38">
         <v>1000</v>
@@ -8973,7 +8973,7 @@
         <v>1000</v>
       </c>
       <c r="AH38">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="AI38">
         <v>1000</v>
@@ -8991,37 +8991,37 @@
         <v>1000</v>
       </c>
       <c r="AN38">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="AO38">
         <v>1000</v>
       </c>
       <c r="AP38">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AQ38">
         <v>1000</v>
       </c>
       <c r="AR38">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="AS38">
         <v>1000</v>
       </c>
       <c r="AT38">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="AU38">
         <v>1000</v>
       </c>
       <c r="AV38">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW38">
         <v>1000</v>
       </c>
       <c r="AX38">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="AY38">
         <v>1000</v>
@@ -9086,19 +9086,19 @@
         <v>193</v>
       </c>
       <c r="F39">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="G39">
         <v>980</v>
       </c>
       <c r="H39">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="I39">
         <v>980</v>
       </c>
       <c r="J39">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="K39">
         <v>980</v>
@@ -9304,10 +9304,10 @@
         <v>1.54</v>
       </c>
       <c r="M40">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="N40">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O40">
         <v>2.86</v>
@@ -9325,19 +9325,19 @@
         <v>2.04</v>
       </c>
       <c r="T40">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="U40">
         <v>9.800000000000001</v>
       </c>
       <c r="V40">
-        <v>1.2</v>
+        <v>7.8</v>
       </c>
       <c r="W40">
         <v>10.5</v>
       </c>
       <c r="X40">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="Y40">
         <v>22</v>
@@ -9349,19 +9349,19 @@
         <v>1000</v>
       </c>
       <c r="AB40">
-        <v>1.21</v>
+        <v>7</v>
       </c>
       <c r="AC40">
         <v>9.4</v>
       </c>
       <c r="AD40">
-        <v>1.39</v>
+        <v>6</v>
       </c>
       <c r="AE40">
         <v>8</v>
       </c>
       <c r="AF40">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="AG40">
         <v>16</v>
@@ -9373,19 +9373,19 @@
         <v>1000</v>
       </c>
       <c r="AJ40">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="AK40">
         <v>17.5</v>
       </c>
       <c r="AL40">
-        <v>1.06</v>
+        <v>4.7</v>
       </c>
       <c r="AM40">
         <v>14.5</v>
       </c>
       <c r="AN40">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="AO40">
         <v>25</v>
@@ -9397,25 +9397,25 @@
         <v>1000</v>
       </c>
       <c r="AR40">
+        <v>1.11</v>
+      </c>
+      <c r="AS40">
+        <v>1000</v>
+      </c>
+      <c r="AT40">
+        <v>1.11</v>
+      </c>
+      <c r="AU40">
+        <v>1000</v>
+      </c>
+      <c r="AV40">
         <v>1.04</v>
       </c>
-      <c r="AS40">
-        <v>1000</v>
-      </c>
-      <c r="AT40">
+      <c r="AW40">
+        <v>1000</v>
+      </c>
+      <c r="AX40">
         <v>1.04</v>
-      </c>
-      <c r="AU40">
-        <v>1000</v>
-      </c>
-      <c r="AV40">
-        <v>1.03</v>
-      </c>
-      <c r="AW40">
-        <v>1000</v>
-      </c>
-      <c r="AX40">
-        <v>1.03</v>
       </c>
       <c r="AY40">
         <v>1000</v>
@@ -9480,10 +9480,10 @@
         <v>195</v>
       </c>
       <c r="F41">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G41">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H41">
         <v>4.4</v>
@@ -9495,7 +9495,7 @@
         <v>3.05</v>
       </c>
       <c r="K41">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L41">
         <v>1.53</v>
@@ -9698,13 +9698,13 @@
         <v>1.46</v>
       </c>
       <c r="M42">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="N42">
         <v>2.56</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="P42">
         <v>2.06</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="302">
   <si>
     <t>League</t>
   </si>
@@ -607,66 +607,6 @@
     <t>La Equidad</t>
   </si>
   <si>
-    <t>33200814</t>
-  </si>
-  <si>
-    <t>33201182</t>
-  </si>
-  <si>
-    <t>33211652</t>
-  </si>
-  <si>
-    <t>33205685</t>
-  </si>
-  <si>
-    <t>33204270</t>
-  </si>
-  <si>
-    <t>33211419</t>
-  </si>
-  <si>
-    <t>33201070</t>
-  </si>
-  <si>
-    <t>33203597</t>
-  </si>
-  <si>
-    <t>33195807</t>
-  </si>
-  <si>
-    <t>33205682</t>
-  </si>
-  <si>
-    <t>33174529</t>
-  </si>
-  <si>
-    <t>33193679</t>
-  </si>
-  <si>
-    <t>33196028</t>
-  </si>
-  <si>
-    <t>33195431</t>
-  </si>
-  <si>
-    <t>33200251</t>
-  </si>
-  <si>
-    <t>33196003</t>
-  </si>
-  <si>
-    <t>33204272</t>
-  </si>
-  <si>
-    <t>33204273</t>
-  </si>
-  <si>
-    <t>33196045</t>
-  </si>
-  <si>
-    <t>33196042</t>
-  </si>
-  <si>
     <t>33196397</t>
   </si>
   <si>
@@ -730,66 +670,6 @@
     <t>33205260</t>
   </si>
   <si>
-    <t>1.227750660</t>
-  </si>
-  <si>
-    <t>1.227755653</t>
-  </si>
-  <si>
-    <t>1.227924835</t>
-  </si>
-  <si>
-    <t>1.227831569</t>
-  </si>
-  <si>
-    <t>1.227809953</t>
-  </si>
-  <si>
-    <t>1.227921959</t>
-  </si>
-  <si>
-    <t>1.227754073</t>
-  </si>
-  <si>
-    <t>1.227799816</t>
-  </si>
-  <si>
-    <t>1.227673763</t>
-  </si>
-  <si>
-    <t>1.227831659</t>
-  </si>
-  <si>
-    <t>1.227302135</t>
-  </si>
-  <si>
-    <t>1.227627686</t>
-  </si>
-  <si>
-    <t>1.227675975</t>
-  </si>
-  <si>
-    <t>1.227658678</t>
-  </si>
-  <si>
-    <t>1.227738113</t>
-  </si>
-  <si>
-    <t>1.227676629</t>
-  </si>
-  <si>
-    <t>1.227809863</t>
-  </si>
-  <si>
-    <t>1.227809773</t>
-  </si>
-  <si>
-    <t>1.227676948</t>
-  </si>
-  <si>
-    <t>1.227675885</t>
-  </si>
-  <si>
     <t>1.227682919</t>
   </si>
   <si>
@@ -853,66 +733,6 @@
     <t>1.227826247</t>
   </si>
   <si>
-    <t>1.227750705</t>
-  </si>
-  <si>
-    <t>1.227755698</t>
-  </si>
-  <si>
-    <t>1.227924880</t>
-  </si>
-  <si>
-    <t>1.227831614</t>
-  </si>
-  <si>
-    <t>1.227809998</t>
-  </si>
-  <si>
-    <t>1.227922004</t>
-  </si>
-  <si>
-    <t>1.227754118</t>
-  </si>
-  <si>
-    <t>1.227799861</t>
-  </si>
-  <si>
-    <t>1.227673808</t>
-  </si>
-  <si>
-    <t>1.227831704</t>
-  </si>
-  <si>
-    <t>1.227302119</t>
-  </si>
-  <si>
-    <t>1.227627696</t>
-  </si>
-  <si>
-    <t>1.227676020</t>
-  </si>
-  <si>
-    <t>1.227658688</t>
-  </si>
-  <si>
-    <t>1.227738158</t>
-  </si>
-  <si>
-    <t>1.227676639</t>
-  </si>
-  <si>
-    <t>1.227809908</t>
-  </si>
-  <si>
-    <t>1.227809818</t>
-  </si>
-  <si>
-    <t>1.227676994</t>
-  </si>
-  <si>
-    <t>1.227675930</t>
-  </si>
-  <si>
     <t>1.227682964</t>
   </si>
   <si>
@@ -976,66 +796,6 @@
     <t>1.227826292</t>
   </si>
   <si>
-    <t>1.227750744</t>
-  </si>
-  <si>
-    <t>1.227755737</t>
-  </si>
-  <si>
-    <t>1.227924919</t>
-  </si>
-  <si>
-    <t>1.227831653</t>
-  </si>
-  <si>
-    <t>1.227810037</t>
-  </si>
-  <si>
-    <t>1.227922043</t>
-  </si>
-  <si>
-    <t>1.227754157</t>
-  </si>
-  <si>
-    <t>1.227799900</t>
-  </si>
-  <si>
-    <t>1.227673847</t>
-  </si>
-  <si>
-    <t>1.227831743</t>
-  </si>
-  <si>
-    <t>1.227302134</t>
-  </si>
-  <si>
-    <t>1.227627685</t>
-  </si>
-  <si>
-    <t>1.227676059</t>
-  </si>
-  <si>
-    <t>1.227658677</t>
-  </si>
-  <si>
-    <t>1.227738197</t>
-  </si>
-  <si>
-    <t>1.227676628</t>
-  </si>
-  <si>
-    <t>1.227809947</t>
-  </si>
-  <si>
-    <t>1.227809857</t>
-  </si>
-  <si>
-    <t>1.227677035</t>
-  </si>
-  <si>
-    <t>1.227675969</t>
-  </si>
-  <si>
     <t>1.227683003</t>
   </si>
   <si>
@@ -1097,66 +857,6 @@
   </si>
   <si>
     <t>1.227826331</t>
-  </si>
-  <si>
-    <t>1.227750669</t>
-  </si>
-  <si>
-    <t>1.227755662</t>
-  </si>
-  <si>
-    <t>1.227924844</t>
-  </si>
-  <si>
-    <t>1.227831578</t>
-  </si>
-  <si>
-    <t>1.227809962</t>
-  </si>
-  <si>
-    <t>1.227921968</t>
-  </si>
-  <si>
-    <t>1.227754082</t>
-  </si>
-  <si>
-    <t>1.227799825</t>
-  </si>
-  <si>
-    <t>1.227673772</t>
-  </si>
-  <si>
-    <t>1.227831668</t>
-  </si>
-  <si>
-    <t>1.227302144</t>
-  </si>
-  <si>
-    <t>1.227627695</t>
-  </si>
-  <si>
-    <t>1.227675984</t>
-  </si>
-  <si>
-    <t>1.227658687</t>
-  </si>
-  <si>
-    <t>1.227738122</t>
-  </si>
-  <si>
-    <t>1.227676638</t>
-  </si>
-  <si>
-    <t>1.227809872</t>
-  </si>
-  <si>
-    <t>1.227809782</t>
-  </si>
-  <si>
-    <t>1.227676957</t>
-  </si>
-  <si>
-    <t>1.227675894</t>
   </si>
   <si>
     <t>1.227682928</t>
@@ -1952,8 +1652,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>197</v>
+      <c r="BF2">
+        <v>33200814</v>
       </c>
       <c r="BG2">
         <v>20830749</v>
@@ -1964,17 +1664,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>279</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>320</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>361</v>
+      <c r="BJ2">
+        <v>1.22775066</v>
+      </c>
+      <c r="BK2">
+        <v>1.227750705</v>
+      </c>
+      <c r="BL2">
+        <v>1.227750744</v>
+      </c>
+      <c r="BM2">
+        <v>1.227750669</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -2149,8 +1849,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>198</v>
+      <c r="BF3">
+        <v>33201182</v>
       </c>
       <c r="BG3">
         <v>13177944</v>
@@ -2161,17 +1861,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>239</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>280</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>321</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>362</v>
+      <c r="BJ3">
+        <v>1.227755653</v>
+      </c>
+      <c r="BK3">
+        <v>1.227755698</v>
+      </c>
+      <c r="BL3">
+        <v>1.227755737</v>
+      </c>
+      <c r="BM3">
+        <v>1.227755662</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2346,8 +2046,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>199</v>
+      <c r="BF4">
+        <v>33211652</v>
       </c>
       <c r="BG4">
         <v>25189384</v>
@@ -2358,17 +2058,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>240</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>281</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>322</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>363</v>
+      <c r="BJ4">
+        <v>1.227924835</v>
+      </c>
+      <c r="BK4">
+        <v>1.22792488</v>
+      </c>
+      <c r="BL4">
+        <v>1.227924919</v>
+      </c>
+      <c r="BM4">
+        <v>1.227924844</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2543,8 +2243,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>200</v>
+      <c r="BF5">
+        <v>33205685</v>
       </c>
       <c r="BG5">
         <v>17203916</v>
@@ -2555,17 +2255,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>241</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>323</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>364</v>
+      <c r="BJ5">
+        <v>1.227831569</v>
+      </c>
+      <c r="BK5">
+        <v>1.227831614</v>
+      </c>
+      <c r="BL5">
+        <v>1.227831653</v>
+      </c>
+      <c r="BM5">
+        <v>1.227831578</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2740,8 +2440,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>201</v>
+      <c r="BF6">
+        <v>33204270</v>
       </c>
       <c r="BG6">
         <v>38208152</v>
@@ -2752,17 +2452,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>242</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>283</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>365</v>
+      <c r="BJ6">
+        <v>1.227809953</v>
+      </c>
+      <c r="BK6">
+        <v>1.227809998</v>
+      </c>
+      <c r="BL6">
+        <v>1.227810037</v>
+      </c>
+      <c r="BM6">
+        <v>1.227809962</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2937,8 +2637,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>202</v>
+      <c r="BF7">
+        <v>33211419</v>
       </c>
       <c r="BG7">
         <v>13082362</v>
@@ -2949,17 +2649,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>243</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>284</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>325</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>366</v>
+      <c r="BJ7">
+        <v>1.227921959</v>
+      </c>
+      <c r="BK7">
+        <v>1.227922004</v>
+      </c>
+      <c r="BL7">
+        <v>1.227922043</v>
+      </c>
+      <c r="BM7">
+        <v>1.227921968</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3134,8 +2834,8 @@
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>203</v>
+      <c r="BF8">
+        <v>33201070</v>
       </c>
       <c r="BG8">
         <v>4940512</v>
@@ -3146,17 +2846,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>326</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>367</v>
+      <c r="BJ8">
+        <v>1.227754073</v>
+      </c>
+      <c r="BK8">
+        <v>1.227754118</v>
+      </c>
+      <c r="BL8">
+        <v>1.227754157</v>
+      </c>
+      <c r="BM8">
+        <v>1.227754082</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3331,8 +3031,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>204</v>
+      <c r="BF9">
+        <v>33203597</v>
       </c>
       <c r="BG9">
         <v>52495027</v>
@@ -3343,17 +3043,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>245</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>327</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>368</v>
+      <c r="BJ9">
+        <v>1.227799816</v>
+      </c>
+      <c r="BK9">
+        <v>1.227799861</v>
+      </c>
+      <c r="BL9">
+        <v>1.2277999</v>
+      </c>
+      <c r="BM9">
+        <v>1.227799825</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3528,8 +3228,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>205</v>
+      <c r="BF10">
+        <v>33195807</v>
       </c>
       <c r="BG10">
         <v>14299496</v>
@@ -3540,17 +3240,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>246</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>328</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>369</v>
+      <c r="BJ10">
+        <v>1.227673763</v>
+      </c>
+      <c r="BK10">
+        <v>1.227673808</v>
+      </c>
+      <c r="BL10">
+        <v>1.227673847</v>
+      </c>
+      <c r="BM10">
+        <v>1.227673772</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3725,8 +3425,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>206</v>
+      <c r="BF11">
+        <v>33205682</v>
       </c>
       <c r="BG11">
         <v>2503610</v>
@@ -3737,17 +3437,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>329</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>370</v>
+      <c r="BJ11">
+        <v>1.227831659</v>
+      </c>
+      <c r="BK11">
+        <v>1.227831704</v>
+      </c>
+      <c r="BL11">
+        <v>1.227831743</v>
+      </c>
+      <c r="BM11">
+        <v>1.227831668</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3922,8 +3622,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>207</v>
+      <c r="BF12">
+        <v>33174529</v>
       </c>
       <c r="BG12">
         <v>56967</v>
@@ -3934,17 +3634,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>248</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>371</v>
+      <c r="BJ12">
+        <v>1.227302135</v>
+      </c>
+      <c r="BK12">
+        <v>1.227302119</v>
+      </c>
+      <c r="BL12">
+        <v>1.227302134</v>
+      </c>
+      <c r="BM12">
+        <v>1.227302144</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4119,8 +3819,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>208</v>
+      <c r="BF13">
+        <v>33193679</v>
       </c>
       <c r="BG13">
         <v>466299</v>
@@ -4131,17 +3831,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>372</v>
+      <c r="BJ13">
+        <v>1.227627686</v>
+      </c>
+      <c r="BK13">
+        <v>1.227627696</v>
+      </c>
+      <c r="BL13">
+        <v>1.227627685</v>
+      </c>
+      <c r="BM13">
+        <v>1.227627695</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4316,8 +4016,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>209</v>
+      <c r="BF14">
+        <v>33196028</v>
       </c>
       <c r="BG14">
         <v>3348521</v>
@@ -4328,17 +4028,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>332</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>373</v>
+      <c r="BJ14">
+        <v>1.227675975</v>
+      </c>
+      <c r="BK14">
+        <v>1.22767602</v>
+      </c>
+      <c r="BL14">
+        <v>1.227676059</v>
+      </c>
+      <c r="BM14">
+        <v>1.227675984</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4513,8 +4213,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>210</v>
+      <c r="BF15">
+        <v>33195431</v>
       </c>
       <c r="BG15">
         <v>30684</v>
@@ -4525,17 +4225,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>374</v>
+      <c r="BJ15">
+        <v>1.227658678</v>
+      </c>
+      <c r="BK15">
+        <v>1.227658688</v>
+      </c>
+      <c r="BL15">
+        <v>1.227658677</v>
+      </c>
+      <c r="BM15">
+        <v>1.227658687</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4710,8 +4410,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>211</v>
+      <c r="BF16">
+        <v>33200251</v>
       </c>
       <c r="BG16">
         <v>42617</v>
@@ -4722,17 +4422,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>252</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>293</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>375</v>
+      <c r="BJ16">
+        <v>1.227738113</v>
+      </c>
+      <c r="BK16">
+        <v>1.227738158</v>
+      </c>
+      <c r="BL16">
+        <v>1.227738197</v>
+      </c>
+      <c r="BM16">
+        <v>1.227738122</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4907,8 +4607,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>212</v>
+      <c r="BF17">
+        <v>33196003</v>
       </c>
       <c r="BG17">
         <v>508773</v>
@@ -4919,17 +4619,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>335</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>376</v>
+      <c r="BJ17">
+        <v>1.227676629</v>
+      </c>
+      <c r="BK17">
+        <v>1.227676639</v>
+      </c>
+      <c r="BL17">
+        <v>1.227676628</v>
+      </c>
+      <c r="BM17">
+        <v>1.227676638</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -5104,8 +4804,8 @@
       <c r="BE18">
         <v>1000</v>
       </c>
-      <c r="BF18" t="s">
-        <v>213</v>
+      <c r="BF18">
+        <v>33204272</v>
       </c>
       <c r="BG18">
         <v>7023879</v>
@@ -5116,17 +4816,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>254</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>295</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>336</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>377</v>
+      <c r="BJ18">
+        <v>1.227809863</v>
+      </c>
+      <c r="BK18">
+        <v>1.227809908</v>
+      </c>
+      <c r="BL18">
+        <v>1.227809947</v>
+      </c>
+      <c r="BM18">
+        <v>1.227809872</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5301,8 +5001,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>214</v>
+      <c r="BF19">
+        <v>33204273</v>
       </c>
       <c r="BG19">
         <v>5907009</v>
@@ -5313,17 +5013,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>296</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>337</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>378</v>
+      <c r="BJ19">
+        <v>1.227809773</v>
+      </c>
+      <c r="BK19">
+        <v>1.227809818</v>
+      </c>
+      <c r="BL19">
+        <v>1.227809857</v>
+      </c>
+      <c r="BM19">
+        <v>1.227809782</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5498,8 +5198,8 @@
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>215</v>
+      <c r="BF20">
+        <v>33196045</v>
       </c>
       <c r="BG20">
         <v>22012893</v>
@@ -5510,17 +5210,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>297</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>379</v>
+      <c r="BJ20">
+        <v>1.227676948</v>
+      </c>
+      <c r="BK20">
+        <v>1.227676994</v>
+      </c>
+      <c r="BL20">
+        <v>1.227677035</v>
+      </c>
+      <c r="BM20">
+        <v>1.227676957</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5695,8 +5395,8 @@
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>216</v>
+      <c r="BF21">
+        <v>33196042</v>
       </c>
       <c r="BG21">
         <v>6250160</v>
@@ -5707,17 +5407,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>298</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>339</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>380</v>
+      <c r="BJ21">
+        <v>1.227675885</v>
+      </c>
+      <c r="BK21">
+        <v>1.22767593</v>
+      </c>
+      <c r="BL21">
+        <v>1.227675969</v>
+      </c>
+      <c r="BM21">
+        <v>1.227675894</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5740,160 +5440,160 @@
         <v>1.81</v>
       </c>
       <c r="G22">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H22">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I22">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="J22">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="K22">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L22">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="N22">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="O22">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="P22">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q22">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="R22">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="S22">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>3.95</v>
+        <v>27</v>
       </c>
       <c r="U22">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="V22">
-        <v>3.9</v>
+        <v>21</v>
       </c>
       <c r="W22">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X22">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="Y22">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z22">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AA22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB22">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="AC22">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AD22">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AE22">
+        <v>14</v>
+      </c>
+      <c r="AF22">
         <v>12.5</v>
-      </c>
-      <c r="AF22">
-        <v>3.8</v>
       </c>
       <c r="AG22">
         <v>21</v>
       </c>
       <c r="AH22">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AI22">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ22">
-        <v>3.55</v>
+        <v>14</v>
       </c>
       <c r="AK22">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AL22">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM22">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN22">
-        <v>3.8</v>
+        <v>13.5</v>
       </c>
       <c r="AO22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP22">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AQ22">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AR22">
-        <v>3.9</v>
+        <v>16.5</v>
       </c>
       <c r="AS22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT22">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="AU22">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AV22">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AW22">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AX22">
+        <v>38</v>
+      </c>
+      <c r="AY22">
+        <v>65</v>
+      </c>
+      <c r="AZ22">
+        <v>2.98</v>
+      </c>
+      <c r="BA22">
+        <v>6.8</v>
+      </c>
+      <c r="BB22">
         <v>4.4</v>
       </c>
-      <c r="AY22">
-        <v>85</v>
-      </c>
-      <c r="AZ22">
-        <v>3.15</v>
-      </c>
-      <c r="BA22">
-        <v>10</v>
-      </c>
-      <c r="BB22">
-        <v>4.1</v>
-      </c>
       <c r="BC22">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="BD22">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="BE22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="BF22" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="BG22">
         <v>7976153</v>
@@ -5905,16 +5605,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="BK22" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="BL22" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="BM22" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5934,7 +5634,7 @@
         <v>177</v>
       </c>
       <c r="F23">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G23">
         <v>2.2</v>
@@ -5943,154 +5643,154 @@
         <v>3.4</v>
       </c>
       <c r="I23">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J23">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K23">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L23">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="M23">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O23">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P23">
         <v>1.6</v>
       </c>
       <c r="Q23">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R23">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S23">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T23">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="U23">
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <v>16</v>
+      </c>
+      <c r="W23">
+        <v>19.5</v>
+      </c>
+      <c r="X23">
         <v>23</v>
       </c>
-      <c r="V23">
-        <v>14.5</v>
-      </c>
-      <c r="W23">
-        <v>20</v>
-      </c>
-      <c r="X23">
-        <v>5.5</v>
-      </c>
       <c r="Y23">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AA23">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB23">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC23">
         <v>14.5</v>
       </c>
       <c r="AD23">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE23">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF23">
         <v>13</v>
       </c>
       <c r="AG23">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH23">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="AI23">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ23">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK23">
         <v>17</v>
       </c>
       <c r="AL23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM23">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP23">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="AQ23">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AR23">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="AS23">
         <v>29</v>
       </c>
       <c r="AT23">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AU23">
         <v>22</v>
       </c>
       <c r="AV23">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="AW23">
         <v>32</v>
       </c>
       <c r="AX23">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AY23">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AZ23">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="BA23">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BB23">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="BC23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD23">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="BE23">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="BF23" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="BG23">
         <v>5320893</v>
@@ -6102,16 +5802,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="BK23" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="BL23" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="BM23" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6131,163 +5831,163 @@
         <v>178</v>
       </c>
       <c r="F24">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="G24">
         <v>3.05</v>
       </c>
       <c r="H24">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="I24">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="J24">
         <v>3.35</v>
       </c>
       <c r="K24">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
+        <v>1.94</v>
+      </c>
+      <c r="M24">
         <v>2</v>
       </c>
-      <c r="M24">
-        <v>2.38</v>
-      </c>
       <c r="N24">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="P24">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="Q24">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R24">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S24">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U24">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>12.5</v>
+      </c>
+      <c r="X24">
+        <v>15.5</v>
+      </c>
+      <c r="Y24">
+        <v>19</v>
+      </c>
+      <c r="Z24">
+        <v>7.4</v>
+      </c>
+      <c r="AA24">
+        <v>42</v>
+      </c>
+      <c r="AB24">
         <v>10.5</v>
       </c>
-      <c r="W24">
-        <v>14.5</v>
-      </c>
-      <c r="X24">
-        <v>5.1</v>
-      </c>
-      <c r="Y24">
-        <v>21</v>
-      </c>
-      <c r="Z24">
-        <v>5.9</v>
-      </c>
-      <c r="AA24">
-        <v>44</v>
-      </c>
-      <c r="AB24">
-        <v>10</v>
-      </c>
       <c r="AC24">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD24">
         <v>6.8</v>
       </c>
       <c r="AE24">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF24">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG24">
         <v>13.5</v>
       </c>
       <c r="AH24">
-        <v>5.6</v>
+        <v>20</v>
       </c>
       <c r="AI24">
         <v>30</v>
       </c>
       <c r="AJ24">
-        <v>1.32</v>
+        <v>16.5</v>
       </c>
       <c r="AK24">
         <v>21</v>
       </c>
       <c r="AL24">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AM24">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AO24">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP24">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="AQ24">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AR24">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AS24">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT24">
-        <v>5.6</v>
+        <v>20</v>
       </c>
       <c r="AU24">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AV24">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="AW24">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AX24">
-        <v>2.68</v>
+        <v>7.8</v>
       </c>
       <c r="AY24">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AZ24">
-        <v>1.11</v>
+        <v>6.6</v>
       </c>
       <c r="BA24">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="BB24">
-        <v>1.11</v>
+        <v>6.4</v>
       </c>
       <c r="BC24">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BD24">
-        <v>1.17</v>
+        <v>8.4</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="BG24">
         <v>176184</v>
@@ -6299,16 +5999,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="BK24" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="BL24" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="BM24" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6328,163 +6028,163 @@
         <v>179</v>
       </c>
       <c r="F25">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="G25">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H25">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="I25">
+        <v>2.54</v>
+      </c>
+      <c r="J25">
+        <v>3.1</v>
+      </c>
+      <c r="K25">
+        <v>3.15</v>
+      </c>
+      <c r="L25">
+        <v>1.67</v>
+      </c>
+      <c r="M25">
+        <v>1.7</v>
+      </c>
+      <c r="N25">
+        <v>2.42</v>
+      </c>
+      <c r="O25">
         <v>2.5</v>
       </c>
-      <c r="J25">
-        <v>3.05</v>
-      </c>
-      <c r="K25">
-        <v>3.2</v>
-      </c>
-      <c r="L25">
-        <v>1.53</v>
-      </c>
-      <c r="M25">
-        <v>1.67</v>
-      </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>2.9</v>
-      </c>
       <c r="P25">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q25">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R25">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="U25">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W25">
         <v>9</v>
       </c>
-      <c r="V25">
-        <v>6.4</v>
-      </c>
-      <c r="W25">
-        <v>8.4</v>
-      </c>
       <c r="X25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z25">
-        <v>6.4</v>
+        <v>30</v>
       </c>
       <c r="AA25">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB25">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC25">
         <v>11</v>
       </c>
       <c r="AD25">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AE25">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AF25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG25">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH25">
-        <v>6.4</v>
+        <v>27</v>
       </c>
       <c r="AI25">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ25">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AK25">
+        <v>21</v>
+      </c>
+      <c r="AL25">
+        <v>13</v>
+      </c>
+      <c r="AM25">
+        <v>15</v>
+      </c>
+      <c r="AN25">
+        <v>19</v>
+      </c>
+      <c r="AO25">
+        <v>21</v>
+      </c>
+      <c r="AP25">
+        <v>46</v>
+      </c>
+      <c r="AQ25">
+        <v>55</v>
+      </c>
+      <c r="AR25">
+        <v>46</v>
+      </c>
+      <c r="AS25">
+        <v>65</v>
+      </c>
+      <c r="AT25">
+        <v>40</v>
+      </c>
+      <c r="AU25">
+        <v>46</v>
+      </c>
+      <c r="AV25">
+        <v>55</v>
+      </c>
+      <c r="AW25">
+        <v>65</v>
+      </c>
+      <c r="AX25">
+        <v>100</v>
+      </c>
+      <c r="AY25">
+        <v>140</v>
+      </c>
+      <c r="AZ25">
+        <v>44</v>
+      </c>
+      <c r="BA25">
+        <v>55</v>
+      </c>
+      <c r="BB25">
         <v>26</v>
       </c>
-      <c r="AL25">
-        <v>13.5</v>
-      </c>
-      <c r="AM25">
-        <v>18</v>
-      </c>
-      <c r="AN25">
-        <v>19.5</v>
-      </c>
-      <c r="AO25">
-        <v>26</v>
-      </c>
-      <c r="AP25">
-        <v>7</v>
-      </c>
-      <c r="AQ25">
-        <v>70</v>
-      </c>
-      <c r="AR25">
-        <v>7</v>
-      </c>
-      <c r="AS25">
-        <v>85</v>
-      </c>
-      <c r="AT25">
-        <v>7</v>
-      </c>
-      <c r="AU25">
-        <v>65</v>
-      </c>
-      <c r="AV25">
-        <v>7.2</v>
-      </c>
-      <c r="AW25">
-        <v>95</v>
-      </c>
-      <c r="AX25">
-        <v>7.4</v>
-      </c>
-      <c r="AY25">
-        <v>210</v>
-      </c>
-      <c r="AZ25">
-        <v>7</v>
-      </c>
-      <c r="BA25">
-        <v>85</v>
-      </c>
-      <c r="BB25">
-        <v>6.4</v>
-      </c>
       <c r="BC25">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="BD25">
-        <v>7.8</v>
+        <v>22</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="BG25">
         <v>5740008</v>
@@ -6496,16 +6196,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="BK25" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="BL25" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="BM25" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6525,43 +6225,43 @@
         <v>180</v>
       </c>
       <c r="F26">
+        <v>3.15</v>
+      </c>
+      <c r="G26">
+        <v>3.25</v>
+      </c>
+      <c r="H26">
+        <v>2.7</v>
+      </c>
+      <c r="I26">
+        <v>2.78</v>
+      </c>
+      <c r="J26">
+        <v>3.05</v>
+      </c>
+      <c r="K26">
         <v>3.1</v>
       </c>
-      <c r="G26">
-        <v>3.5</v>
-      </c>
-      <c r="H26">
-        <v>2.58</v>
-      </c>
-      <c r="I26">
-        <v>2.86</v>
-      </c>
-      <c r="J26">
-        <v>2.98</v>
-      </c>
-      <c r="K26">
-        <v>3.15</v>
-      </c>
       <c r="L26">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="M26">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O26">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="P26">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q26">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="R26">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="S26">
         <v>1.97</v>
@@ -6570,118 +6270,118 @@
         <v>7.6</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V26">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="W26">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X26">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y26">
+        <v>15.5</v>
+      </c>
+      <c r="Z26">
+        <v>36</v>
+      </c>
+      <c r="AA26">
+        <v>46</v>
+      </c>
+      <c r="AB26">
+        <v>8.4</v>
+      </c>
+      <c r="AC26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD26">
+        <v>6.6</v>
+      </c>
+      <c r="AE26">
+        <v>7.2</v>
+      </c>
+      <c r="AF26">
+        <v>12</v>
+      </c>
+      <c r="AG26">
+        <v>13</v>
+      </c>
+      <c r="AH26">
+        <v>32</v>
+      </c>
+      <c r="AI26">
+        <v>40</v>
+      </c>
+      <c r="AJ26">
         <v>17.5</v>
       </c>
-      <c r="Z26">
-        <v>6.4</v>
-      </c>
-      <c r="AA26">
+      <c r="AK26">
+        <v>19.5</v>
+      </c>
+      <c r="AL26">
+        <v>13</v>
+      </c>
+      <c r="AM26">
+        <v>14.5</v>
+      </c>
+      <c r="AN26">
+        <v>21</v>
+      </c>
+      <c r="AO26">
+        <v>24</v>
+      </c>
+      <c r="AP26">
+        <v>50</v>
+      </c>
+      <c r="AQ26">
+        <v>70</v>
+      </c>
+      <c r="AR26">
+        <v>42</v>
+      </c>
+      <c r="AS26">
+        <v>60</v>
+      </c>
+      <c r="AT26">
+        <v>38</v>
+      </c>
+      <c r="AU26">
         <v>48</v>
       </c>
-      <c r="AB26">
-        <v>7.6</v>
-      </c>
-      <c r="AC26">
-        <v>10</v>
-      </c>
-      <c r="AD26">
-        <v>6.2</v>
-      </c>
-      <c r="AE26">
-        <v>7.8</v>
-      </c>
-      <c r="AF26">
-        <v>11.5</v>
-      </c>
-      <c r="AG26">
-        <v>14.5</v>
-      </c>
-      <c r="AH26">
-        <v>6.4</v>
-      </c>
-      <c r="AI26">
-        <v>44</v>
-      </c>
-      <c r="AJ26">
-        <v>16</v>
-      </c>
-      <c r="AK26">
-        <v>21</v>
-      </c>
-      <c r="AL26">
-        <v>12.5</v>
-      </c>
-      <c r="AM26">
-        <v>16</v>
-      </c>
-      <c r="AN26">
-        <v>18.5</v>
-      </c>
-      <c r="AO26">
-        <v>26</v>
-      </c>
-      <c r="AP26">
-        <v>6.8</v>
-      </c>
-      <c r="AQ26">
-        <v>75</v>
-      </c>
-      <c r="AR26">
-        <v>6.6</v>
-      </c>
-      <c r="AS26">
-        <v>65</v>
-      </c>
-      <c r="AT26">
-        <v>6.6</v>
-      </c>
-      <c r="AU26">
-        <v>55</v>
-      </c>
       <c r="AV26">
-        <v>6.8</v>
+        <v>60</v>
       </c>
       <c r="AW26">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AX26">
-        <v>7.2</v>
+        <v>100</v>
       </c>
       <c r="AY26">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AZ26">
-        <v>3.8</v>
+        <v>40</v>
       </c>
       <c r="BA26">
         <v>60</v>
       </c>
       <c r="BB26">
-        <v>6.4</v>
+        <v>27</v>
       </c>
       <c r="BC26">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="BD26">
-        <v>3.05</v>
+        <v>17.5</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="BG26">
         <v>387040</v>
@@ -6693,16 +6393,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="BK26" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="BL26" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="BM26" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6722,103 +6422,103 @@
         <v>181</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G27">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H27">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="I27">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="J27">
+        <v>3.6</v>
+      </c>
+      <c r="K27">
         <v>3.65</v>
       </c>
-      <c r="K27">
-        <v>3.75</v>
-      </c>
       <c r="L27">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="M27">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="N27">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="O27">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="P27">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="Q27">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="S27">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="T27">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U27">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
         <v>10.5</v>
       </c>
-      <c r="W27">
-        <v>11.5</v>
-      </c>
       <c r="X27">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y27">
         <v>13.5</v>
       </c>
       <c r="Z27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA27">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB27">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC27">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD27">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AE27">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF27">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG27">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH27">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27">
+        <v>27</v>
+      </c>
+      <c r="AK27">
         <v>28</v>
       </c>
-      <c r="AK27">
-        <v>30</v>
-      </c>
       <c r="AL27">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM27">
         <v>15.5</v>
@@ -6830,28 +6530,28 @@
         <v>16.5</v>
       </c>
       <c r="AP27">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ27">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AR27">
         <v>70</v>
       </c>
       <c r="AS27">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AT27">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AU27">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AV27">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AW27">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX27">
         <v>65</v>
@@ -6860,25 +6560,25 @@
         <v>80</v>
       </c>
       <c r="AZ27">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BA27">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BB27">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="BC27">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="BD27">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="BE27">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="BF27" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="BG27">
         <v>127991</v>
@@ -6890,16 +6590,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="BK27" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="BL27" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="BM27" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6919,163 +6619,163 @@
         <v>182</v>
       </c>
       <c r="F28">
+        <v>3.9</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="G28">
-        <v>4.4</v>
-      </c>
       <c r="H28">
+        <v>2.18</v>
+      </c>
+      <c r="I28">
+        <v>2.22</v>
+      </c>
+      <c r="J28">
+        <v>3.4</v>
+      </c>
+      <c r="K28">
+        <v>3.45</v>
+      </c>
+      <c r="L28">
+        <v>1.7</v>
+      </c>
+      <c r="M28">
+        <v>1.73</v>
+      </c>
+      <c r="N28">
+        <v>2.36</v>
+      </c>
+      <c r="O28">
+        <v>2.44</v>
+      </c>
+      <c r="P28">
+        <v>2.1</v>
+      </c>
+      <c r="Q28">
         <v>2.14</v>
       </c>
-      <c r="I28">
-        <v>2.24</v>
-      </c>
-      <c r="J28">
-        <v>3.2</v>
-      </c>
-      <c r="K28">
-        <v>3.35</v>
-      </c>
-      <c r="L28">
-        <v>1.57</v>
-      </c>
-      <c r="M28">
-        <v>1.61</v>
-      </c>
-      <c r="N28">
-        <v>2.62</v>
-      </c>
-      <c r="O28">
-        <v>2.76</v>
-      </c>
-      <c r="P28">
-        <v>1.94</v>
-      </c>
-      <c r="Q28">
-        <v>2.32</v>
-      </c>
       <c r="R28">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S28">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T28">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U28">
+        <v>10.5</v>
+      </c>
+      <c r="V28">
+        <v>7.4</v>
+      </c>
+      <c r="W28">
         <v>8</v>
       </c>
-      <c r="U28">
-        <v>9</v>
-      </c>
-      <c r="V28">
-        <v>6.6</v>
-      </c>
-      <c r="W28">
-        <v>7.4</v>
-      </c>
       <c r="X28">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y28">
         <v>12</v>
       </c>
       <c r="Z28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA28">
         <v>28</v>
       </c>
       <c r="AB28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC28">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD28">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE28">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF28">
         <v>10.5</v>
       </c>
       <c r="AG28">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH28">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI28">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AJ28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL28">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM28">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AP28">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AQ28">
+        <v>50</v>
+      </c>
+      <c r="AR28">
+        <v>50</v>
+      </c>
+      <c r="AS28">
+        <v>120</v>
+      </c>
+      <c r="AT28">
+        <v>40</v>
+      </c>
+      <c r="AU28">
         <v>60</v>
       </c>
-      <c r="AR28">
-        <v>14.5</v>
-      </c>
-      <c r="AS28">
-        <v>110</v>
-      </c>
-      <c r="AT28">
-        <v>13.5</v>
-      </c>
-      <c r="AU28">
+      <c r="AV28">
+        <v>50</v>
+      </c>
+      <c r="AW28">
+        <v>100</v>
+      </c>
+      <c r="AX28">
+        <v>19</v>
+      </c>
+      <c r="AY28">
+        <v>150</v>
+      </c>
+      <c r="AZ28">
+        <v>16.5</v>
+      </c>
+      <c r="BA28">
         <v>75</v>
       </c>
-      <c r="AV28">
-        <v>14.5</v>
-      </c>
-      <c r="AW28">
-        <v>90</v>
-      </c>
-      <c r="AX28">
-        <v>15.5</v>
-      </c>
-      <c r="AY28">
-        <v>200</v>
-      </c>
-      <c r="AZ28">
-        <v>14.5</v>
-      </c>
-      <c r="BA28">
-        <v>110</v>
-      </c>
       <c r="BB28">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="BC28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BD28">
-        <v>4.9</v>
+        <v>16</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="BG28">
         <v>46928</v>
@@ -7087,16 +6787,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="BK28" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="BL28" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="BM28" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7116,163 +6816,163 @@
         <v>183</v>
       </c>
       <c r="F29">
+        <v>1.76</v>
+      </c>
+      <c r="G29">
+        <v>1.8</v>
+      </c>
+      <c r="H29">
+        <v>5.8</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>3.7</v>
+      </c>
+      <c r="K29">
+        <v>3.85</v>
+      </c>
+      <c r="L29">
         <v>1.73</v>
       </c>
-      <c r="G29">
-        <v>1.83</v>
-      </c>
-      <c r="H29">
-        <v>5.5</v>
-      </c>
-      <c r="I29">
-        <v>6.8</v>
-      </c>
-      <c r="J29">
-        <v>3.4</v>
-      </c>
-      <c r="K29">
-        <v>4.1</v>
-      </c>
-      <c r="L29">
-        <v>1.71</v>
-      </c>
       <c r="M29">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="N29">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="P29">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="Q29">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R29">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S29">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U29">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X29">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Y29">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Z29">
-        <v>6.8</v>
+        <v>19.5</v>
       </c>
       <c r="AA29">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB29">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD29">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE29">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AF29">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29">
-        <v>6.6</v>
+        <v>65</v>
       </c>
       <c r="AI29">
         <v>100</v>
       </c>
       <c r="AJ29">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AK29">
+        <v>9.4</v>
+      </c>
+      <c r="AL29">
+        <v>9.6</v>
+      </c>
+      <c r="AM29">
         <v>10.5</v>
       </c>
-      <c r="AL29">
-        <v>8.6</v>
-      </c>
-      <c r="AM29">
-        <v>11.5</v>
-      </c>
       <c r="AN29">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP29">
-        <v>6.6</v>
+        <v>18.5</v>
       </c>
       <c r="AQ29">
         <v>120</v>
       </c>
       <c r="AR29">
+        <v>15.5</v>
+      </c>
+      <c r="AS29">
+        <v>17.5</v>
+      </c>
+      <c r="AT29">
+        <v>19</v>
+      </c>
+      <c r="AU29">
+        <v>21</v>
+      </c>
+      <c r="AV29">
+        <v>36</v>
+      </c>
+      <c r="AW29">
+        <v>50</v>
+      </c>
+      <c r="AX29">
+        <v>19.5</v>
+      </c>
+      <c r="AY29">
+        <v>190</v>
+      </c>
+      <c r="AZ29">
+        <v>13</v>
+      </c>
+      <c r="BA29">
         <v>14.5</v>
       </c>
-      <c r="AS29">
+      <c r="BB29">
+        <v>17.5</v>
+      </c>
+      <c r="BC29">
+        <v>150</v>
+      </c>
+      <c r="BD29">
         <v>20</v>
       </c>
-      <c r="AT29">
-        <v>17</v>
-      </c>
-      <c r="AU29">
-        <v>23</v>
-      </c>
-      <c r="AV29">
-        <v>6.2</v>
-      </c>
-      <c r="AW29">
-        <v>55</v>
-      </c>
-      <c r="AX29">
-        <v>6.8</v>
-      </c>
-      <c r="AY29">
-        <v>1000</v>
-      </c>
-      <c r="AZ29">
-        <v>4.8</v>
-      </c>
-      <c r="BA29">
-        <v>15.5</v>
-      </c>
-      <c r="BB29">
-        <v>6.6</v>
-      </c>
-      <c r="BC29">
-        <v>1000</v>
-      </c>
-      <c r="BD29">
-        <v>7</v>
-      </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="BG29">
         <v>298592</v>
@@ -7284,16 +6984,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="BK29" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="BL29" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="BM29" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7313,163 +7013,163 @@
         <v>184</v>
       </c>
       <c r="F30">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="G30">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H30">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="I30">
+        <v>3.3</v>
+      </c>
+      <c r="J30">
+        <v>3.4</v>
+      </c>
+      <c r="K30">
         <v>3.5</v>
       </c>
-      <c r="J30">
-        <v>3.35</v>
-      </c>
-      <c r="K30">
-        <v>3.95</v>
-      </c>
       <c r="L30">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M30">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="N30">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="P30">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Q30">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R30">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S30">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="T30">
+        <v>11.5</v>
+      </c>
+      <c r="U30">
+        <v>14.5</v>
+      </c>
+      <c r="V30">
         <v>11</v>
       </c>
-      <c r="U30">
-        <v>15.5</v>
-      </c>
-      <c r="V30">
-        <v>10.5</v>
-      </c>
       <c r="W30">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X30">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y30">
         <v>25</v>
       </c>
       <c r="Z30">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AA30">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB30">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD30">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE30">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AF30">
-        <v>4.7</v>
+        <v>12</v>
       </c>
       <c r="AG30">
         <v>15.5</v>
       </c>
       <c r="AH30">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AI30">
         <v>42</v>
       </c>
       <c r="AJ30">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK30">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL30">
-        <v>4.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM30">
         <v>12.5</v>
       </c>
       <c r="AN30">
-        <v>5.1</v>
+        <v>15</v>
       </c>
       <c r="AO30">
         <v>20</v>
       </c>
       <c r="AP30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ30">
         <v>55</v>
       </c>
       <c r="AR30">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AS30">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AT30">
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="AU30">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV30">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="AW30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX30">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY30">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="AZ30">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="BA30">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="BB30">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="BC30">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BD30">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE30">
         <v>1000</v>
       </c>
       <c r="BF30" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="BG30">
         <v>44330</v>
@@ -7481,16 +7181,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="BK30" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="BL30" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="BM30" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7510,163 +7210,163 @@
         <v>185</v>
       </c>
       <c r="F31">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="G31">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="H31">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="I31">
+        <v>5.5</v>
+      </c>
+      <c r="J31">
+        <v>3.8</v>
+      </c>
+      <c r="K31">
+        <v>4.4</v>
+      </c>
+      <c r="L31">
+        <v>2.02</v>
+      </c>
+      <c r="M31">
+        <v>2.14</v>
+      </c>
+      <c r="N31">
+        <v>1.89</v>
+      </c>
+      <c r="O31">
+        <v>1.99</v>
+      </c>
+      <c r="P31">
+        <v>1.82</v>
+      </c>
+      <c r="Q31">
+        <v>1.97</v>
+      </c>
+      <c r="R31">
+        <v>2.02</v>
+      </c>
+      <c r="S31">
+        <v>2.22</v>
+      </c>
+      <c r="T31">
+        <v>13.5</v>
+      </c>
+      <c r="U31">
+        <v>17</v>
+      </c>
+      <c r="V31">
+        <v>15</v>
+      </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>44</v>
+      </c>
+      <c r="Z31">
+        <v>6.6</v>
+      </c>
+      <c r="AA31">
+        <v>130</v>
+      </c>
+      <c r="AB31">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC31">
+        <v>980</v>
+      </c>
+      <c r="AD31">
+        <v>8</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>16</v>
+      </c>
+      <c r="AG31">
+        <v>22</v>
+      </c>
+      <c r="AH31">
+        <v>6.2</v>
+      </c>
+      <c r="AI31">
+        <v>70</v>
+      </c>
+      <c r="AJ31">
+        <v>9.4</v>
+      </c>
+      <c r="AK31">
         <v>12</v>
       </c>
-      <c r="J31">
-        <v>3.05</v>
-      </c>
-      <c r="K31">
-        <v>8.4</v>
-      </c>
-      <c r="L31">
-        <v>1.75</v>
-      </c>
-      <c r="M31">
-        <v>3.2</v>
-      </c>
-      <c r="N31">
-        <v>1.46</v>
-      </c>
-      <c r="O31">
-        <v>2.34</v>
-      </c>
-      <c r="P31">
-        <v>1.01</v>
-      </c>
-      <c r="Q31">
-        <v>1000</v>
-      </c>
-      <c r="R31">
-        <v>1.01</v>
-      </c>
-      <c r="S31">
-        <v>1000</v>
-      </c>
-      <c r="T31">
-        <v>1.01</v>
-      </c>
-      <c r="U31">
-        <v>1000</v>
-      </c>
-      <c r="V31">
-        <v>1.01</v>
-      </c>
-      <c r="W31">
-        <v>1000</v>
-      </c>
-      <c r="X31">
-        <v>1.01</v>
-      </c>
-      <c r="Y31">
-        <v>1000</v>
-      </c>
-      <c r="Z31">
-        <v>1.01</v>
-      </c>
-      <c r="AA31">
-        <v>1000</v>
-      </c>
-      <c r="AB31">
-        <v>1.01</v>
-      </c>
-      <c r="AC31">
-        <v>1000</v>
-      </c>
-      <c r="AD31">
-        <v>1.01</v>
-      </c>
-      <c r="AE31">
-        <v>1000</v>
-      </c>
-      <c r="AF31">
-        <v>1.01</v>
-      </c>
-      <c r="AG31">
-        <v>1000</v>
-      </c>
-      <c r="AH31">
-        <v>1.01</v>
-      </c>
-      <c r="AI31">
-        <v>1000</v>
-      </c>
-      <c r="AJ31">
-        <v>1.01</v>
-      </c>
-      <c r="AK31">
-        <v>1000</v>
-      </c>
       <c r="AL31">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AM31">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AN31">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AO31">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AP31">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AQ31">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AR31">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AS31">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AT31">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AU31">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AV31">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AW31">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AX31">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AY31">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AZ31">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BA31">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="BB31">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BC31">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="BD31">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="BG31">
         <v>10992747</v>
@@ -7678,16 +7378,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="BK31" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="BL31" t="s">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="BM31" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7707,163 +7407,163 @@
         <v>186</v>
       </c>
       <c r="F32">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G32">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="H32">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I32">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J32">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K32">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L32">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="M32">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="N32">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="O32">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="P32">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="Q32">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R32">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S32">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="T32">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="U32">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V32">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="W32">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X32">
-        <v>1.18</v>
+        <v>17</v>
       </c>
       <c r="Y32">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z32">
-        <v>1.18</v>
+        <v>7</v>
       </c>
       <c r="AA32">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB32">
-        <v>1.18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32">
         <v>12</v>
       </c>
       <c r="AD32">
-        <v>2.04</v>
+        <v>6.6</v>
       </c>
       <c r="AE32">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF32">
-        <v>1.18</v>
+        <v>11.5</v>
       </c>
       <c r="AG32">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH32">
-        <v>1.18</v>
+        <v>6.6</v>
       </c>
       <c r="AI32">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ32">
-        <v>1.18</v>
+        <v>13.5</v>
       </c>
       <c r="AK32">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL32">
-        <v>1.21</v>
+        <v>10</v>
       </c>
       <c r="AM32">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AN32">
-        <v>1.18</v>
+        <v>14.5</v>
       </c>
       <c r="AO32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>7</v>
       </c>
       <c r="AQ32">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR32">
-        <v>1.18</v>
+        <v>6.8</v>
       </c>
       <c r="AS32">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AT32">
-        <v>1.14</v>
+        <v>23</v>
       </c>
       <c r="AU32">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AV32">
-        <v>1.17</v>
+        <v>6.8</v>
       </c>
       <c r="AW32">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AX32">
-        <v>1.17</v>
+        <v>7.6</v>
       </c>
       <c r="AY32">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AZ32">
-        <v>1.17</v>
+        <v>6.2</v>
       </c>
       <c r="BA32">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="BB32">
-        <v>1.17</v>
+        <v>6.4</v>
       </c>
       <c r="BC32">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="BD32">
-        <v>1.17</v>
+        <v>8</v>
       </c>
       <c r="BE32">
         <v>1000</v>
       </c>
       <c r="BF32" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="BG32">
         <v>44796</v>
@@ -7875,16 +7575,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="BK32" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="BL32" t="s">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="BM32" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7904,16 +7604,16 @@
         <v>187</v>
       </c>
       <c r="F33">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="G33">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="I33">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="J33">
         <v>4.2</v>
@@ -7922,145 +7622,145 @@
         <v>4.3</v>
       </c>
       <c r="L33">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M33">
+        <v>2.42</v>
+      </c>
+      <c r="N33">
+        <v>1.7</v>
+      </c>
+      <c r="O33">
+        <v>1.71</v>
+      </c>
+      <c r="P33">
+        <v>1.75</v>
+      </c>
+      <c r="Q33">
+        <v>1.76</v>
+      </c>
+      <c r="R33">
+        <v>2.3</v>
+      </c>
+      <c r="S33">
         <v>2.32</v>
       </c>
-      <c r="N33">
-        <v>1.76</v>
-      </c>
-      <c r="O33">
-        <v>1.83</v>
-      </c>
-      <c r="P33">
-        <v>1.74</v>
-      </c>
-      <c r="Q33">
-        <v>1.84</v>
-      </c>
-      <c r="R33">
-        <v>2.2</v>
-      </c>
-      <c r="S33">
-        <v>2.36</v>
-      </c>
       <c r="T33">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="U33">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="V33">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W33">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X33">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y33">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB33">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC33">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AD33">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE33">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AF33">
         <v>9.6</v>
       </c>
       <c r="AG33">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH33">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI33">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AJ33">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK33">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL33">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN33">
         <v>16.5</v>
       </c>
       <c r="AO33">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ33">
         <v>30</v>
       </c>
       <c r="AR33">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AS33">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AT33">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AU33">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AV33">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AW33">
         <v>55</v>
       </c>
       <c r="AX33">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AY33">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ33">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="BA33">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BB33">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="BC33">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD33">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="BE33">
-        <v>980</v>
+        <v>430</v>
       </c>
       <c r="BF33" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="BG33">
         <v>74303</v>
@@ -8072,16 +7772,16 @@
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="BK33" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="BL33" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="BM33" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8101,16 +7801,16 @@
         <v>188</v>
       </c>
       <c r="F34">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G34">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H34">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I34">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J34">
         <v>3.2</v>
@@ -8119,34 +7819,34 @@
         <v>3.25</v>
       </c>
       <c r="L34">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M34">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="N34">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="O34">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="P34">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="R34">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="S34">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="T34">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U34">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="V34">
         <v>11</v>
@@ -8155,46 +7855,46 @@
         <v>12</v>
       </c>
       <c r="X34">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y34">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z34">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA34">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB34">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC34">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD34">
+        <v>6.8</v>
+      </c>
+      <c r="AE34">
         <v>7.2</v>
       </c>
-      <c r="AE34">
-        <v>7.4</v>
-      </c>
       <c r="AF34">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG34">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AH34">
+        <v>65</v>
+      </c>
+      <c r="AI34">
         <v>75</v>
       </c>
-      <c r="AI34">
-        <v>90</v>
-      </c>
       <c r="AJ34">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AK34">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL34">
         <v>11</v>
@@ -8203,22 +7903,22 @@
         <v>11.5</v>
       </c>
       <c r="AN34">
+        <v>22</v>
+      </c>
+      <c r="AO34">
         <v>25</v>
       </c>
-      <c r="AO34">
-        <v>28</v>
-      </c>
       <c r="AP34">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ34">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AR34">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AS34">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT34">
         <v>26</v>
@@ -8230,34 +7930,34 @@
         <v>55</v>
       </c>
       <c r="AW34">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AX34">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AY34">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AZ34">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA34">
         <v>26</v>
       </c>
       <c r="BB34">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="BC34">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BD34">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="BE34">
         <v>1000</v>
       </c>
       <c r="BF34" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="BG34">
         <v>52480974</v>
@@ -8269,16 +7969,16 @@
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="BK34" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="BL34" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="BM34" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8298,7 +7998,7 @@
         <v>189</v>
       </c>
       <c r="F35">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G35">
         <v>9.4</v>
@@ -8310,61 +8010,61 @@
         <v>1.4</v>
       </c>
       <c r="J35">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L35">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="M35">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="N35">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="O35">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P35">
         <v>1.86</v>
       </c>
       <c r="Q35">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R35">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="S35">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V35">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="W35">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X35">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Y35">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z35">
         <v>11</v>
       </c>
       <c r="AA35">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB35">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC35">
         <v>36</v>
@@ -8373,7 +8073,7 @@
         <v>11.5</v>
       </c>
       <c r="AE35">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF35">
         <v>9.6</v>
@@ -8382,19 +8082,19 @@
         <v>10.5</v>
       </c>
       <c r="AH35">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI35">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ35">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AK35">
         <v>85</v>
       </c>
       <c r="AL35">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM35">
         <v>32</v>
@@ -8403,58 +8103,58 @@
         <v>21</v>
       </c>
       <c r="AO35">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR35">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AS35">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AT35">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AU35">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AV35">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AW35">
         <v>95</v>
       </c>
       <c r="AX35">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="AY35">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ35">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="BA35">
         <v>120</v>
       </c>
       <c r="BB35">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC35">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="BD35">
-        <v>15.5</v>
+        <v>180</v>
       </c>
       <c r="BE35">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="BF35" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="BG35">
         <v>48788</v>
@@ -8466,16 +8166,16 @@
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="BK35" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="BL35" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="BM35" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8495,163 +8195,163 @@
         <v>190</v>
       </c>
       <c r="F36">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="G36">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="H36">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="J36">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K36">
-        <v>330</v>
+        <v>3.75</v>
       </c>
       <c r="L36">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="M36">
+        <v>1.84</v>
+      </c>
+      <c r="N36">
         <v>2.2</v>
       </c>
-      <c r="N36">
-        <v>1.84</v>
-      </c>
       <c r="O36">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="P36">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="Q36">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="R36">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="S36">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="T36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V36">
-        <v>1.23</v>
+        <v>12.5</v>
       </c>
       <c r="W36">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="X36">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="Y36">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z36">
-        <v>1.25</v>
+        <v>5.3</v>
       </c>
       <c r="AA36">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB36">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC36">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD36">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE36">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF36">
-        <v>1.12</v>
+        <v>15.5</v>
       </c>
       <c r="AG36">
         <v>23</v>
       </c>
       <c r="AH36">
-        <v>1.24</v>
+        <v>5.2</v>
       </c>
       <c r="AI36">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ36">
-        <v>1.48</v>
+        <v>10</v>
       </c>
       <c r="AK36">
+        <v>14</v>
+      </c>
+      <c r="AL36">
+        <v>9.4</v>
+      </c>
+      <c r="AM36">
         <v>13</v>
       </c>
-      <c r="AL36">
-        <v>8.6</v>
-      </c>
-      <c r="AM36">
-        <v>12.5</v>
-      </c>
       <c r="AN36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO36">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AP36">
-        <v>1.34</v>
+        <v>5.2</v>
       </c>
       <c r="AQ36">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AR36">
-        <v>1.23</v>
+        <v>5.2</v>
       </c>
       <c r="AS36">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AT36">
-        <v>1.26</v>
+        <v>18.5</v>
       </c>
       <c r="AU36">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AV36">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AW36">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX36">
-        <v>1.11</v>
+        <v>5.4</v>
       </c>
       <c r="AY36">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AZ36">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="BA36">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="BB36">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BC36">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="BD36">
-        <v>1.03</v>
+        <v>5.6</v>
       </c>
       <c r="BE36">
         <v>1000</v>
       </c>
       <c r="BF36" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="BG36">
         <v>10778457</v>
@@ -8663,16 +8363,16 @@
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="BK36" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="BL36" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="BM36" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8692,163 +8392,163 @@
         <v>191</v>
       </c>
       <c r="F37">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G37">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H37">
         <v>5</v>
       </c>
       <c r="I37">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J37">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K37">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="M37">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="N37">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>2.68</v>
       </c>
       <c r="P37">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="Q37">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="R37">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="S37">
         <v>1.84</v>
       </c>
       <c r="T37">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U37">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="V37">
-        <v>5.4</v>
+        <v>12</v>
       </c>
       <c r="W37">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="X37">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y37">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z37">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA37">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB37">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC37">
         <v>7</v>
       </c>
       <c r="AD37">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE37">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF37">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AG37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH37">
-        <v>6.8</v>
+        <v>48</v>
       </c>
       <c r="AI37">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ37">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK37">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AL37">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="AM37">
         <v>11</v>
       </c>
       <c r="AN37">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AO37">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AP37">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="AQ37">
-        <v>850</v>
+        <v>120</v>
       </c>
       <c r="AR37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV37">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AW37">
         <v>60</v>
       </c>
       <c r="AX37">
-        <v>3.55</v>
+        <v>26</v>
       </c>
       <c r="AY37">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AZ37">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="BA37">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BB37">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="BC37">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="BD37">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="BE37">
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="BG37">
         <v>8220578</v>
@@ -8860,16 +8560,16 @@
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="BK37" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="BL37" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="BM37" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8889,163 +8589,163 @@
         <v>192</v>
       </c>
       <c r="F38">
-        <v>1.07</v>
+        <v>1.91</v>
       </c>
       <c r="G38">
+        <v>2.06</v>
+      </c>
+      <c r="H38">
+        <v>4.6</v>
+      </c>
+      <c r="I38">
+        <v>5.2</v>
+      </c>
+      <c r="J38">
+        <v>3.25</v>
+      </c>
+      <c r="K38">
+        <v>3.65</v>
+      </c>
+      <c r="L38">
+        <v>1.62</v>
+      </c>
+      <c r="M38">
+        <v>1.73</v>
+      </c>
+      <c r="N38">
+        <v>2.34</v>
+      </c>
+      <c r="O38">
+        <v>2.62</v>
+      </c>
+      <c r="P38">
+        <v>2.1</v>
+      </c>
+      <c r="Q38">
+        <v>2.3</v>
+      </c>
+      <c r="R38">
+        <v>1.77</v>
+      </c>
+      <c r="S38">
+        <v>1.91</v>
+      </c>
+      <c r="T38">
+        <v>4.7</v>
+      </c>
+      <c r="U38">
+        <v>10.5</v>
+      </c>
+      <c r="V38">
+        <v>10.5</v>
+      </c>
+      <c r="W38">
+        <v>15</v>
+      </c>
+      <c r="X38">
+        <v>6.6</v>
+      </c>
+      <c r="Y38">
+        <v>36</v>
+      </c>
+      <c r="Z38">
+        <v>7.8</v>
+      </c>
+      <c r="AA38">
+        <v>130</v>
+      </c>
+      <c r="AB38">
+        <v>6.2</v>
+      </c>
+      <c r="AC38">
+        <v>7.8</v>
+      </c>
+      <c r="AD38">
+        <v>6.8</v>
+      </c>
+      <c r="AE38">
         <v>980</v>
       </c>
-      <c r="H38">
-        <v>1.55</v>
-      </c>
-      <c r="I38">
+      <c r="AF38">
+        <v>5.9</v>
+      </c>
+      <c r="AG38">
         <v>980</v>
       </c>
-      <c r="J38">
-        <v>1.23</v>
-      </c>
-      <c r="K38">
+      <c r="AH38">
+        <v>7.6</v>
+      </c>
+      <c r="AI38">
+        <v>85</v>
+      </c>
+      <c r="AJ38">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK38">
+        <v>11.5</v>
+      </c>
+      <c r="AL38">
+        <v>4.9</v>
+      </c>
+      <c r="AM38">
+        <v>12</v>
+      </c>
+      <c r="AN38">
+        <v>6.2</v>
+      </c>
+      <c r="AO38">
         <v>980</v>
       </c>
-      <c r="L38">
-        <v>1.27</v>
-      </c>
-      <c r="M38">
-        <v>970</v>
-      </c>
-      <c r="N38">
-        <v>1.04</v>
-      </c>
-      <c r="O38">
-        <v>4.6</v>
-      </c>
-      <c r="P38">
-        <v>1.01</v>
-      </c>
-      <c r="Q38">
-        <v>1000</v>
-      </c>
-      <c r="R38">
-        <v>1.01</v>
-      </c>
-      <c r="S38">
-        <v>1000</v>
-      </c>
-      <c r="T38">
-        <v>1.01</v>
-      </c>
-      <c r="U38">
-        <v>1000</v>
-      </c>
-      <c r="V38">
-        <v>1.01</v>
-      </c>
-      <c r="W38">
-        <v>1000</v>
-      </c>
-      <c r="X38">
-        <v>1.01</v>
-      </c>
-      <c r="Y38">
-        <v>1000</v>
-      </c>
-      <c r="Z38">
-        <v>1.01</v>
-      </c>
-      <c r="AA38">
-        <v>1000</v>
-      </c>
-      <c r="AB38">
-        <v>1.01</v>
-      </c>
-      <c r="AC38">
-        <v>1000</v>
-      </c>
-      <c r="AD38">
-        <v>1.01</v>
-      </c>
-      <c r="AE38">
-        <v>1000</v>
-      </c>
-      <c r="AF38">
-        <v>1.01</v>
-      </c>
-      <c r="AG38">
-        <v>1000</v>
-      </c>
-      <c r="AH38">
-        <v>1.01</v>
-      </c>
-      <c r="AI38">
-        <v>1000</v>
-      </c>
-      <c r="AJ38">
-        <v>1.01</v>
-      </c>
-      <c r="AK38">
-        <v>1000</v>
-      </c>
-      <c r="AL38">
-        <v>1.01</v>
-      </c>
-      <c r="AM38">
-        <v>1000</v>
-      </c>
-      <c r="AN38">
-        <v>1.01</v>
-      </c>
-      <c r="AO38">
-        <v>1000</v>
-      </c>
       <c r="AP38">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AQ38">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AR38">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AS38">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AT38">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AU38">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AV38">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AW38">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX38">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AY38">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AZ38">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BA38">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="BB38">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BC38">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="BD38">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="BE38">
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="BG38">
         <v>6987860</v>
@@ -9057,16 +8757,16 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="BK38" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="BL38" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="BM38" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9086,163 +8786,163 @@
         <v>193</v>
       </c>
       <c r="F39">
-        <v>1.24</v>
+        <v>2.6</v>
       </c>
       <c r="G39">
+        <v>2.72</v>
+      </c>
+      <c r="H39">
+        <v>2.84</v>
+      </c>
+      <c r="I39">
+        <v>3.2</v>
+      </c>
+      <c r="J39">
+        <v>3.3</v>
+      </c>
+      <c r="K39">
+        <v>3.75</v>
+      </c>
+      <c r="L39">
+        <v>1.84</v>
+      </c>
+      <c r="M39">
+        <v>2.04</v>
+      </c>
+      <c r="N39">
+        <v>1.96</v>
+      </c>
+      <c r="O39">
+        <v>2.2</v>
+      </c>
+      <c r="P39">
+        <v>1.81</v>
+      </c>
+      <c r="Q39">
+        <v>1.92</v>
+      </c>
+      <c r="R39">
+        <v>2.08</v>
+      </c>
+      <c r="S39">
+        <v>2.22</v>
+      </c>
+      <c r="T39">
+        <v>3.95</v>
+      </c>
+      <c r="U39">
+        <v>16</v>
+      </c>
+      <c r="V39">
+        <v>3.85</v>
+      </c>
+      <c r="W39">
+        <v>14.5</v>
+      </c>
+      <c r="X39">
+        <v>4.2</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>4.7</v>
+      </c>
+      <c r="AA39">
+        <v>60</v>
+      </c>
+      <c r="AB39">
+        <v>3.8</v>
+      </c>
+      <c r="AC39">
+        <v>13</v>
+      </c>
+      <c r="AD39">
+        <v>6.4</v>
+      </c>
+      <c r="AE39">
         <v>980</v>
       </c>
-      <c r="H39">
-        <v>1.44</v>
-      </c>
-      <c r="I39">
-        <v>980</v>
-      </c>
-      <c r="J39">
-        <v>2.8</v>
-      </c>
-      <c r="K39">
-        <v>980</v>
-      </c>
-      <c r="L39">
-        <v>1.27</v>
-      </c>
-      <c r="M39">
-        <v>970</v>
-      </c>
-      <c r="N39">
-        <v>1.03</v>
-      </c>
-      <c r="O39">
+      <c r="AF39">
+        <v>3.95</v>
+      </c>
+      <c r="AG39">
+        <v>16</v>
+      </c>
+      <c r="AH39">
+        <v>4.4</v>
+      </c>
+      <c r="AI39">
+        <v>40</v>
+      </c>
+      <c r="AJ39">
+        <v>4.1</v>
+      </c>
+      <c r="AK39">
+        <v>20</v>
+      </c>
+      <c r="AL39">
+        <v>3.85</v>
+      </c>
+      <c r="AM39">
+        <v>14.5</v>
+      </c>
+      <c r="AN39">
+        <v>4.1</v>
+      </c>
+      <c r="AO39">
+        <v>22</v>
+      </c>
+      <c r="AP39">
         <v>4.6</v>
       </c>
-      <c r="P39">
-        <v>1.01</v>
-      </c>
-      <c r="Q39">
-        <v>1000</v>
-      </c>
-      <c r="R39">
-        <v>1.01</v>
-      </c>
-      <c r="S39">
-        <v>1000</v>
-      </c>
-      <c r="T39">
-        <v>1.01</v>
-      </c>
-      <c r="U39">
-        <v>1000</v>
-      </c>
-      <c r="V39">
-        <v>1.01</v>
-      </c>
-      <c r="W39">
-        <v>1000</v>
-      </c>
-      <c r="X39">
-        <v>1.01</v>
-      </c>
-      <c r="Y39">
-        <v>1000</v>
-      </c>
-      <c r="Z39">
-        <v>1.01</v>
-      </c>
-      <c r="AA39">
-        <v>1000</v>
-      </c>
-      <c r="AB39">
-        <v>1.01</v>
-      </c>
-      <c r="AC39">
-        <v>1000</v>
-      </c>
-      <c r="AD39">
-        <v>1.01</v>
-      </c>
-      <c r="AE39">
-        <v>1000</v>
-      </c>
-      <c r="AF39">
-        <v>1.01</v>
-      </c>
-      <c r="AG39">
-        <v>1000</v>
-      </c>
-      <c r="AH39">
-        <v>1.01</v>
-      </c>
-      <c r="AI39">
-        <v>1000</v>
-      </c>
-      <c r="AJ39">
-        <v>1.01</v>
-      </c>
-      <c r="AK39">
-        <v>1000</v>
-      </c>
-      <c r="AL39">
-        <v>1.01</v>
-      </c>
-      <c r="AM39">
-        <v>1000</v>
-      </c>
-      <c r="AN39">
-        <v>1.01</v>
-      </c>
-      <c r="AO39">
-        <v>1000</v>
-      </c>
-      <c r="AP39">
-        <v>1.01</v>
-      </c>
       <c r="AQ39">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR39">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AS39">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AT39">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AU39">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AV39">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AW39">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AX39">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AY39">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AZ39">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BA39">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="BB39">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BC39">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="BD39">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="BE39">
         <v>1000</v>
       </c>
       <c r="BF39" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="BG39">
         <v>3806543</v>
@@ -9254,16 +8954,16 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="BK39" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="BL39" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="BM39" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9283,163 +8983,163 @@
         <v>194</v>
       </c>
       <c r="F40">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="G40">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="H40">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="I40">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J40">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K40">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L40">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M40">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="N40">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="O40">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="P40">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="Q40">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R40">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="S40">
         <v>2.04</v>
       </c>
       <c r="T40">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U40">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V40">
-        <v>7.8</v>
+        <v>2.64</v>
       </c>
       <c r="W40">
         <v>10.5</v>
       </c>
       <c r="X40">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z40">
-        <v>1.03</v>
+        <v>2.44</v>
       </c>
       <c r="AA40">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB40">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC40">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD40">
+        <v>6.2</v>
+      </c>
+      <c r="AE40">
+        <v>7.4</v>
+      </c>
+      <c r="AF40">
         <v>6</v>
-      </c>
-      <c r="AE40">
-        <v>8</v>
-      </c>
-      <c r="AF40">
-        <v>4.8</v>
       </c>
       <c r="AG40">
         <v>16</v>
       </c>
       <c r="AH40">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="AI40">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ40">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="AK40">
         <v>17.5</v>
       </c>
       <c r="AL40">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="AM40">
         <v>14.5</v>
       </c>
       <c r="AN40">
-        <v>1.21</v>
+        <v>6.6</v>
       </c>
       <c r="AO40">
         <v>25</v>
       </c>
       <c r="AP40">
-        <v>1.03</v>
+        <v>2.46</v>
       </c>
       <c r="AQ40">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AR40">
-        <v>1.11</v>
+        <v>3.5</v>
       </c>
       <c r="AS40">
         <v>1000</v>
       </c>
       <c r="AT40">
-        <v>1.11</v>
+        <v>3.5</v>
       </c>
       <c r="AU40">
         <v>1000</v>
       </c>
       <c r="AV40">
-        <v>1.04</v>
+        <v>6.2</v>
       </c>
       <c r="AW40">
         <v>1000</v>
       </c>
       <c r="AX40">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="AY40">
         <v>1000</v>
       </c>
       <c r="AZ40">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="BA40">
         <v>1000</v>
       </c>
       <c r="BB40">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="BC40">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD40">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="BE40">
         <v>1000</v>
       </c>
       <c r="BF40" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="BG40">
         <v>3636902</v>
@@ -9451,16 +9151,16 @@
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="BK40" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="BL40" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="BM40" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9480,37 +9180,37 @@
         <v>195</v>
       </c>
       <c r="F41">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G41">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H41">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I41">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J41">
         <v>3.05</v>
       </c>
       <c r="K41">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L41">
         <v>1.53</v>
       </c>
       <c r="M41">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="N41">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="O41">
         <v>2.88</v>
       </c>
       <c r="P41">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9519,124 +9219,124 @@
         <v>1.72</v>
       </c>
       <c r="S41">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T41">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="U41">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V41">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="W41">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="X41">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="Y41">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z41">
-        <v>5.3</v>
+        <v>14</v>
       </c>
       <c r="AA41">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB41">
         <v>6.2</v>
       </c>
       <c r="AC41">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD41">
         <v>6.6</v>
       </c>
       <c r="AE41">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AF41">
-        <v>4.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG41">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AH41">
-        <v>5.2</v>
+        <v>15</v>
       </c>
       <c r="AI41">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AJ41">
-        <v>3.95</v>
+        <v>10</v>
       </c>
       <c r="AK41">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL41">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="AM41">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AN41">
-        <v>4.7</v>
+        <v>23</v>
       </c>
       <c r="AO41">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AP41">
-        <v>5.3</v>
+        <v>14</v>
       </c>
       <c r="AQ41">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AR41">
-        <v>4.7</v>
+        <v>24</v>
       </c>
       <c r="AS41">
         <v>980</v>
       </c>
       <c r="AT41">
-        <v>4.8</v>
+        <v>26</v>
       </c>
       <c r="AU41">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AV41">
-        <v>5.2</v>
+        <v>44</v>
       </c>
       <c r="AW41">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX41">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="AY41">
-        <v>980</v>
+        <v>360</v>
       </c>
       <c r="AZ41">
-        <v>4.7</v>
+        <v>20</v>
       </c>
       <c r="BA41">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="BB41">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC41">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="BD41">
-        <v>3.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE41">
         <v>1000</v>
       </c>
       <c r="BF41" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="BG41">
         <v>376829</v>
@@ -9648,16 +9348,16 @@
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="BK41" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="BL41" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="BM41" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9677,163 +9377,163 @@
         <v>196</v>
       </c>
       <c r="F42">
+        <v>3.3</v>
+      </c>
+      <c r="G42">
+        <v>3.7</v>
+      </c>
+      <c r="H42">
+        <v>2.52</v>
+      </c>
+      <c r="I42">
+        <v>2.76</v>
+      </c>
+      <c r="J42">
+        <v>2.9</v>
+      </c>
+      <c r="K42">
         <v>3.2</v>
       </c>
-      <c r="G42">
-        <v>3.8</v>
-      </c>
-      <c r="H42">
-        <v>2.54</v>
-      </c>
-      <c r="I42">
+      <c r="L42">
+        <v>1.55</v>
+      </c>
+      <c r="M42">
+        <v>1.62</v>
+      </c>
+      <c r="N42">
+        <v>2.6</v>
+      </c>
+      <c r="O42">
         <v>2.8</v>
       </c>
-      <c r="J42">
-        <v>2.88</v>
-      </c>
-      <c r="K42">
-        <v>3.4</v>
-      </c>
-      <c r="L42">
-        <v>1.46</v>
-      </c>
-      <c r="M42">
-        <v>1.64</v>
-      </c>
-      <c r="N42">
-        <v>2.56</v>
-      </c>
-      <c r="O42">
-        <v>3.45</v>
-      </c>
       <c r="P42">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q42">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="R42">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T42">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="U42">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="V42">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="W42">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X42">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="Y42">
         <v>16.5</v>
       </c>
       <c r="Z42">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AA42">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB42">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AC42">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD42">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="AE42">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF42">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AG42">
         <v>14.5</v>
       </c>
       <c r="AH42">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI42">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ42">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AK42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL42">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AM42">
         <v>17.5</v>
       </c>
       <c r="AN42">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP42">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="AQ42">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR42">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="AS42">
         <v>75</v>
       </c>
       <c r="AT42">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AU42">
         <v>60</v>
       </c>
       <c r="AV42">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="AW42">
         <v>90</v>
       </c>
       <c r="AX42">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY42">
         <v>1000</v>
       </c>
       <c r="AZ42">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="BA42">
         <v>75</v>
       </c>
       <c r="BB42">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="BC42">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BD42">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE42">
         <v>1000</v>
       </c>
       <c r="BF42" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="BG42">
         <v>478919</v>
@@ -9845,16 +9545,16 @@
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="BK42" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="BL42" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="BM42" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
@@ -5473,10 +5473,10 @@
         <v>1.56</v>
       </c>
       <c r="R22">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T22">
         <v>27</v>
@@ -5634,16 +5634,16 @@
         <v>177</v>
       </c>
       <c r="F23">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G23">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H23">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I23">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J23">
         <v>3.85</v>
@@ -5655,13 +5655,13 @@
         <v>2.42</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N23">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O23">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P23">
         <v>1.6</v>
@@ -5727,7 +5727,7 @@
         <v>13</v>
       </c>
       <c r="AK23">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL23">
         <v>10</v>
@@ -5772,7 +5772,7 @@
         <v>200</v>
       </c>
       <c r="AZ23">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BA23">
         <v>11.5</v>
@@ -5781,10 +5781,10 @@
         <v>6.6</v>
       </c>
       <c r="BC23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD23">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE23">
         <v>850</v>
@@ -5843,7 +5843,7 @@
         <v>2.8</v>
       </c>
       <c r="J24">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -5852,7 +5852,7 @@
         <v>1.94</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -6037,7 +6037,7 @@
         <v>2.52</v>
       </c>
       <c r="I25">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J25">
         <v>3.1</v>
@@ -6055,13 +6055,13 @@
         <v>2.42</v>
       </c>
       <c r="O25">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R25">
         <v>1.92</v>
@@ -6148,7 +6148,7 @@
         <v>65</v>
       </c>
       <c r="AT25">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AU25">
         <v>46</v>
@@ -6172,7 +6172,7 @@
         <v>55</v>
       </c>
       <c r="BB25">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="BC25">
         <v>29</v>
@@ -6422,10 +6422,10 @@
         <v>181</v>
       </c>
       <c r="F27">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G27">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H27">
         <v>2.14</v>
@@ -6452,7 +6452,7 @@
         <v>1.9</v>
       </c>
       <c r="P27">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q27">
         <v>1.75</v>
@@ -6461,7 +6461,7 @@
         <v>2.34</v>
       </c>
       <c r="S27">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -6503,7 +6503,7 @@
         <v>10</v>
       </c>
       <c r="AG27">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH27">
         <v>19.5</v>
@@ -6512,10 +6512,10 @@
         <v>21</v>
       </c>
       <c r="AJ27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL27">
         <v>14.5</v>
@@ -6545,7 +6545,7 @@
         <v>42</v>
       </c>
       <c r="AU27">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV27">
         <v>44</v>
@@ -6619,16 +6619,16 @@
         <v>182</v>
       </c>
       <c r="F28">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H28">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I28">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J28">
         <v>3.4</v>
@@ -6649,16 +6649,16 @@
         <v>2.44</v>
       </c>
       <c r="P28">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q28">
         <v>2.14</v>
       </c>
       <c r="R28">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S28">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T28">
         <v>9.199999999999999</v>
@@ -6670,13 +6670,13 @@
         <v>7.4</v>
       </c>
       <c r="W28">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="X28">
         <v>11</v>
       </c>
       <c r="Y28">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z28">
         <v>25</v>
@@ -6736,13 +6736,13 @@
         <v>50</v>
       </c>
       <c r="AS28">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AT28">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AU28">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AV28">
         <v>50</v>
@@ -6751,16 +6751,16 @@
         <v>100</v>
       </c>
       <c r="AX28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY28">
         <v>150</v>
       </c>
       <c r="AZ28">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="BA28">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB28">
         <v>17.5</v>
@@ -6769,7 +6769,7 @@
         <v>23</v>
       </c>
       <c r="BD28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -6816,16 +6816,16 @@
         <v>183</v>
       </c>
       <c r="F29">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G29">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H29">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J29">
         <v>3.7</v>
@@ -6849,7 +6849,7 @@
         <v>2.18</v>
       </c>
       <c r="Q29">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R29">
         <v>1.76</v>
@@ -6864,7 +6864,7 @@
         <v>11</v>
       </c>
       <c r="V29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W29">
         <v>16</v>
@@ -6876,13 +6876,13 @@
         <v>44</v>
       </c>
       <c r="Z29">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA29">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB29">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC29">
         <v>7</v>
@@ -6900,7 +6900,7 @@
         <v>24</v>
       </c>
       <c r="AH29">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="AI29">
         <v>100</v>
@@ -6909,7 +6909,7 @@
         <v>8.4</v>
       </c>
       <c r="AK29">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL29">
         <v>9.6</v>
@@ -6924,31 +6924,31 @@
         <v>26</v>
       </c>
       <c r="AP29">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ29">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR29">
         <v>15.5</v>
       </c>
       <c r="AS29">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AT29">
         <v>19</v>
       </c>
       <c r="AU29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV29">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AW29">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX29">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY29">
         <v>190</v>
@@ -6957,7 +6957,7 @@
         <v>13</v>
       </c>
       <c r="BA29">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BB29">
         <v>17.5</v>
@@ -6966,7 +6966,7 @@
         <v>150</v>
       </c>
       <c r="BD29">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BE29">
         <v>1000</v>
@@ -7210,7 +7210,7 @@
         <v>185</v>
       </c>
       <c r="F31">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G31">
         <v>1.84</v>
@@ -7231,7 +7231,7 @@
         <v>2.02</v>
       </c>
       <c r="M31">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="N31">
         <v>1.89</v>
@@ -7246,7 +7246,7 @@
         <v>1.97</v>
       </c>
       <c r="R31">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S31">
         <v>2.22</v>
@@ -7264,13 +7264,13 @@
         <v>20</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y31">
         <v>44</v>
       </c>
       <c r="Z31">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA31">
         <v>130</v>
@@ -7279,7 +7279,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC31">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD31">
         <v>8</v>
@@ -7294,7 +7294,7 @@
         <v>22</v>
       </c>
       <c r="AH31">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI31">
         <v>70</v>
@@ -7318,7 +7318,7 @@
         <v>23</v>
       </c>
       <c r="AP31">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ31">
         <v>75</v>
@@ -7330,37 +7330,37 @@
         <v>21</v>
       </c>
       <c r="AT31">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AU31">
         <v>20</v>
       </c>
       <c r="AV31">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AW31">
         <v>40</v>
       </c>
       <c r="AX31">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY31">
         <v>240</v>
       </c>
       <c r="AZ31">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BA31">
         <v>11</v>
       </c>
       <c r="BB31">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BC31">
         <v>75</v>
       </c>
       <c r="BD31">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7410,22 +7410,22 @@
         <v>2.6</v>
       </c>
       <c r="G32">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H32">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I32">
         <v>3.15</v>
       </c>
       <c r="J32">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K32">
         <v>3.4</v>
       </c>
       <c r="L32">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M32">
         <v>1.96</v>
@@ -7509,7 +7509,7 @@
         <v>980</v>
       </c>
       <c r="AN32">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO32">
         <v>980</v>
@@ -7604,22 +7604,22 @@
         <v>187</v>
       </c>
       <c r="F33">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="I33">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="J33">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K33">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L33">
         <v>2.4</v>
@@ -7634,19 +7634,19 @@
         <v>1.71</v>
       </c>
       <c r="P33">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q33">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R33">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="S33">
         <v>2.32</v>
       </c>
       <c r="T33">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="U33">
         <v>20</v>
@@ -7664,7 +7664,7 @@
         <v>11.5</v>
       </c>
       <c r="Z33">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA33">
         <v>17</v>
@@ -7673,10 +7673,10 @@
         <v>19.5</v>
       </c>
       <c r="AC33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD33">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE33">
         <v>9.6</v>
@@ -7721,7 +7721,7 @@
         <v>95</v>
       </c>
       <c r="AS33">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT33">
         <v>50</v>
@@ -7748,16 +7748,16 @@
         <v>55</v>
       </c>
       <c r="BB33">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BC33">
         <v>8.199999999999999</v>
       </c>
       <c r="BD33">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="BE33">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="BF33" t="s">
         <v>208</v>
@@ -7831,16 +7831,16 @@
         <v>2.74</v>
       </c>
       <c r="P34">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q34">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R34">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="S34">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="T34">
         <v>8.199999999999999</v>
@@ -7861,7 +7861,7 @@
         <v>28</v>
       </c>
       <c r="Z34">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA34">
         <v>110</v>
@@ -8031,19 +8031,19 @@
         <v>1.86</v>
       </c>
       <c r="Q35">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R35">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="S35">
         <v>2.16</v>
       </c>
       <c r="T35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U35">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V35">
         <v>10.5</v>
@@ -8064,19 +8064,19 @@
         <v>12</v>
       </c>
       <c r="AB35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC35">
         <v>36</v>
       </c>
       <c r="AD35">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE35">
         <v>13</v>
       </c>
       <c r="AF35">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG35">
         <v>10.5</v>
@@ -8088,7 +8088,7 @@
         <v>13</v>
       </c>
       <c r="AJ35">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AK35">
         <v>85</v>
@@ -8100,31 +8100,31 @@
         <v>32</v>
       </c>
       <c r="AN35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO35">
         <v>23</v>
       </c>
       <c r="AP35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ35">
         <v>29</v>
       </c>
       <c r="AR35">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS35">
         <v>290</v>
       </c>
       <c r="AT35">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AU35">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AV35">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW35">
         <v>95</v>
@@ -8789,7 +8789,7 @@
         <v>2.6</v>
       </c>
       <c r="G39">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H39">
         <v>2.84</v>
@@ -8804,7 +8804,7 @@
         <v>3.75</v>
       </c>
       <c r="L39">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="M39">
         <v>2.04</v>
@@ -8843,7 +8843,7 @@
         <v>4.2</v>
       </c>
       <c r="Y39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z39">
         <v>4.7</v>
@@ -8870,7 +8870,7 @@
         <v>16</v>
       </c>
       <c r="AH39">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AI39">
         <v>40</v>
@@ -8888,13 +8888,13 @@
         <v>14.5</v>
       </c>
       <c r="AN39">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO39">
         <v>22</v>
       </c>
       <c r="AP39">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AQ39">
         <v>55</v>
@@ -8983,16 +8983,16 @@
         <v>194</v>
       </c>
       <c r="F40">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="G40">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H40">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="I40">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J40">
         <v>3.1</v>
@@ -9234,13 +9234,13 @@
         <v>12</v>
       </c>
       <c r="X41">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y41">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z41">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AA41">
         <v>120</v>
@@ -9249,7 +9249,7 @@
         <v>6.2</v>
       </c>
       <c r="AC41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD41">
         <v>6.6</v>
@@ -9258,13 +9258,13 @@
         <v>7.6</v>
       </c>
       <c r="AF41">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="AG41">
         <v>19.5</v>
       </c>
       <c r="AH41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI41">
         <v>90</v>
@@ -9288,7 +9288,7 @@
         <v>29</v>
       </c>
       <c r="AP41">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AQ41">
         <v>120</v>
@@ -9297,7 +9297,7 @@
         <v>24</v>
       </c>
       <c r="AS41">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AT41">
         <v>26</v>
@@ -9312,7 +9312,7 @@
         <v>65</v>
       </c>
       <c r="AX41">
-        <v>9</v>
+        <v>4.7</v>
       </c>
       <c r="AY41">
         <v>360</v>
@@ -9330,7 +9330,7 @@
         <v>130</v>
       </c>
       <c r="BD41">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="BE41">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="218">
   <si>
     <t>League</t>
   </si>
@@ -235,27 +235,27 @@
     <t>Italian Serie A</t>
   </si>
   <si>
+    <t>Portuguese Segunda Liga</t>
+  </si>
+  <si>
+    <t>Turkish Super League</t>
+  </si>
+  <si>
+    <t>Turkish 1 Lig</t>
+  </si>
+  <si>
+    <t>Swedish Allsvenskan</t>
+  </si>
+  <si>
+    <t>Polish Ekstraklasa</t>
+  </si>
+  <si>
     <t>Danish Superliga</t>
   </si>
   <si>
-    <t>Polish Ekstraklasa</t>
-  </si>
-  <si>
-    <t>Swedish Allsvenskan</t>
-  </si>
-  <si>
     <t>Swedish Superettan</t>
   </si>
   <si>
-    <t>Turkish Super League</t>
-  </si>
-  <si>
-    <t>Portuguese Segunda Liga</t>
-  </si>
-  <si>
-    <t>Turkish 1 Lig</t>
-  </si>
-  <si>
     <t>Dutch Eerste Divisie</t>
   </si>
   <si>
@@ -265,30 +265,27 @@
     <t>Spanish Segunda Division</t>
   </si>
   <si>
+    <t>Northern Irish Premiership</t>
+  </si>
+  <si>
     <t>Irish Premier Division</t>
   </si>
   <si>
-    <t>Northern Irish Premiership</t>
+    <t>English Championship</t>
+  </si>
+  <si>
+    <t>Spanish La Liga</t>
+  </si>
+  <si>
+    <t>French National</t>
   </si>
   <si>
     <t>Bolivian Liga de Futbol Profesional</t>
   </si>
   <si>
-    <t>French National</t>
-  </si>
-  <si>
-    <t>English Championship</t>
-  </si>
-  <si>
-    <t>Spanish La Liga</t>
-  </si>
-  <si>
     <t>Portuguese Primeira Liga</t>
   </si>
   <si>
-    <t>Peruvian Primera Division</t>
-  </si>
-  <si>
     <t>Colombian Primera A</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>16:15:00</t>
   </si>
   <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
     <t>18:00:00</t>
   </si>
   <si>
@@ -394,78 +388,75 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>CD Nacional Funchal</t>
+  </si>
+  <si>
+    <t>El Daklyeh</t>
+  </si>
+  <si>
+    <t>Al Ittihad (EGY)</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Umraniyespor</t>
+  </si>
+  <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
+    <t>Warta Poznan</t>
+  </si>
+  <si>
     <t>FC Nordsjaelland</t>
   </si>
   <si>
-    <t>Warta Poznan</t>
-  </si>
-  <si>
-    <t>Elfsborg</t>
-  </si>
-  <si>
     <t>Orebro</t>
   </si>
   <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Al Ittihad (EGY)</t>
-  </si>
-  <si>
-    <t>El Daklyeh</t>
-  </si>
-  <si>
-    <t>CD Nacional Funchal</t>
-  </si>
-  <si>
-    <t>Umraniyespor</t>
+    <t>Jong AZ Alkmaar</t>
   </si>
   <si>
     <t>Jong PSV Eindhoven</t>
   </si>
   <si>
-    <t>Jong AZ Alkmaar</t>
-  </si>
-  <si>
     <t>Thun</t>
   </si>
   <si>
     <t>FC Cartagena</t>
   </si>
   <si>
+    <t>Linfield</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Derry City</t>
+  </si>
+  <si>
     <t>Sligo Rovers</t>
   </si>
   <si>
     <t>AC Milan</t>
   </si>
   <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>Linfield</t>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
   </si>
   <si>
     <t>San Antonio FC</t>
   </si>
   <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>Farense</t>
   </si>
   <si>
-    <t>Comerciantes Unidos</t>
-  </si>
-  <si>
     <t>Fortaleza FC</t>
   </si>
   <si>
@@ -517,78 +508,75 @@
     <t>Bologna</t>
   </si>
   <si>
+    <t>Benfica B</t>
+  </si>
+  <si>
+    <t>Future FC</t>
+  </si>
+  <si>
+    <t>Ismaily</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Kocaelispor</t>
+  </si>
+  <si>
+    <t>Kalmar FF</t>
+  </si>
+  <si>
+    <t>Stal Mielec</t>
+  </si>
+  <si>
     <t>AGF</t>
   </si>
   <si>
-    <t>Stal Mielec</t>
-  </si>
-  <si>
-    <t>Kalmar FF</t>
-  </si>
-  <si>
     <t>Varbergs BoIS</t>
   </si>
   <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
-    <t>Ismaily</t>
-  </si>
-  <si>
-    <t>Future FC</t>
-  </si>
-  <si>
-    <t>Benfica B</t>
-  </si>
-  <si>
-    <t>Kocaelispor</t>
+    <t>VVV Venlo</t>
   </si>
   <si>
     <t>Jong FC Utrecht</t>
   </si>
   <si>
-    <t>VVV Venlo</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
     <t>Oviedo</t>
   </si>
   <si>
+    <t>Larne</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>St Patricks</t>
+  </si>
+  <si>
     <t>Galway Utd</t>
   </si>
   <si>
     <t>Inter</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>St Patricks</t>
-  </si>
-  <si>
-    <t>Larne</t>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Niort</t>
   </si>
   <si>
     <t>Club Ind Petrolero</t>
   </si>
   <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
     <t>Benfica</t>
   </si>
   <si>
-    <t>Alianza Atletico</t>
-  </si>
-  <si>
     <t>Atletico Bucaramanga</t>
   </si>
   <si>
@@ -607,54 +595,6 @@
     <t>La Equidad</t>
   </si>
   <si>
-    <t>33196397</t>
-  </si>
-  <si>
-    <t>33196216</t>
-  </si>
-  <si>
-    <t>33207664</t>
-  </si>
-  <si>
-    <t>33195284</t>
-  </si>
-  <si>
-    <t>33209548</t>
-  </si>
-  <si>
-    <t>33174539</t>
-  </si>
-  <si>
-    <t>33195181</t>
-  </si>
-  <si>
-    <t>33195187</t>
-  </si>
-  <si>
-    <t>33199379</t>
-  </si>
-  <si>
-    <t>33211130</t>
-  </si>
-  <si>
-    <t>33196059</t>
-  </si>
-  <si>
-    <t>33192139</t>
-  </si>
-  <si>
-    <t>33155834</t>
-  </si>
-  <si>
-    <t>33195250</t>
-  </si>
-  <si>
-    <t>33196246</t>
-  </si>
-  <si>
-    <t>33208255</t>
-  </si>
-  <si>
     <t>33188684</t>
   </si>
   <si>
@@ -670,54 +610,6 @@
     <t>33205260</t>
   </si>
   <si>
-    <t>1.227682919</t>
-  </si>
-  <si>
-    <t>1.227681197</t>
-  </si>
-  <si>
-    <t>1.227855422</t>
-  </si>
-  <si>
-    <t>1.227658354</t>
-  </si>
-  <si>
-    <t>1.227884616</t>
-  </si>
-  <si>
-    <t>1.227302255</t>
-  </si>
-  <si>
-    <t>1.227653061</t>
-  </si>
-  <si>
-    <t>1.227652881</t>
-  </si>
-  <si>
-    <t>1.227731543</t>
-  </si>
-  <si>
-    <t>1.227914548</t>
-  </si>
-  <si>
-    <t>1.227676065</t>
-  </si>
-  <si>
-    <t>1.227593380</t>
-  </si>
-  <si>
-    <t>1.226953330</t>
-  </si>
-  <si>
-    <t>1.227659508</t>
-  </si>
-  <si>
-    <t>1.227679845</t>
-  </si>
-  <si>
-    <t>1.227865579</t>
-  </si>
-  <si>
     <t>1.227536067</t>
   </si>
   <si>
@@ -733,54 +625,6 @@
     <t>1.227826247</t>
   </si>
   <si>
-    <t>1.227682964</t>
-  </si>
-  <si>
-    <t>1.227681242</t>
-  </si>
-  <si>
-    <t>1.227855467</t>
-  </si>
-  <si>
-    <t>1.227658364</t>
-  </si>
-  <si>
-    <t>1.227884661</t>
-  </si>
-  <si>
-    <t>1.227302239</t>
-  </si>
-  <si>
-    <t>1.227653106</t>
-  </si>
-  <si>
-    <t>1.227652926</t>
-  </si>
-  <si>
-    <t>1.227731588</t>
-  </si>
-  <si>
-    <t>1.227914551</t>
-  </si>
-  <si>
-    <t>1.227676110</t>
-  </si>
-  <si>
-    <t>1.227593390</t>
-  </si>
-  <si>
-    <t>1.226953333</t>
-  </si>
-  <si>
-    <t>1.227659518</t>
-  </si>
-  <si>
-    <t>1.227679890</t>
-  </si>
-  <si>
-    <t>1.227865624</t>
-  </si>
-  <si>
     <t>1.227536113</t>
   </si>
   <si>
@@ -796,54 +640,6 @@
     <t>1.227826292</t>
   </si>
   <si>
-    <t>1.227683003</t>
-  </si>
-  <si>
-    <t>1.227681281</t>
-  </si>
-  <si>
-    <t>1.227855506</t>
-  </si>
-  <si>
-    <t>1.227658353</t>
-  </si>
-  <si>
-    <t>1.227884700</t>
-  </si>
-  <si>
-    <t>1.227302254</t>
-  </si>
-  <si>
-    <t>1.227653145</t>
-  </si>
-  <si>
-    <t>1.227652965</t>
-  </si>
-  <si>
-    <t>1.227731627</t>
-  </si>
-  <si>
-    <t>1.227914595</t>
-  </si>
-  <si>
-    <t>1.227676149</t>
-  </si>
-  <si>
-    <t>1.227593379</t>
-  </si>
-  <si>
-    <t>1.226953378</t>
-  </si>
-  <si>
-    <t>1.227659507</t>
-  </si>
-  <si>
-    <t>1.227679929</t>
-  </si>
-  <si>
-    <t>1.227865663</t>
-  </si>
-  <si>
     <t>1.227536153</t>
   </si>
   <si>
@@ -857,54 +653,6 @@
   </si>
   <si>
     <t>1.227826331</t>
-  </si>
-  <si>
-    <t>1.227682928</t>
-  </si>
-  <si>
-    <t>1.227681206</t>
-  </si>
-  <si>
-    <t>1.227855431</t>
-  </si>
-  <si>
-    <t>1.227658363</t>
-  </si>
-  <si>
-    <t>1.227884625</t>
-  </si>
-  <si>
-    <t>1.227302264</t>
-  </si>
-  <si>
-    <t>1.227653070</t>
-  </si>
-  <si>
-    <t>1.227652890</t>
-  </si>
-  <si>
-    <t>1.227731552</t>
-  </si>
-  <si>
-    <t>1.227914596</t>
-  </si>
-  <si>
-    <t>1.227676074</t>
-  </si>
-  <si>
-    <t>1.227593389</t>
-  </si>
-  <si>
-    <t>1.226953382</t>
-  </si>
-  <si>
-    <t>1.227659517</t>
-  </si>
-  <si>
-    <t>1.227679854</t>
-  </si>
-  <si>
-    <t>1.227865588</t>
   </si>
   <si>
     <t>1.227536077</t>
@@ -1277,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM42"/>
+  <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1485,16 +1233,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1682,16 +1430,16 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>2.12</v>
@@ -1879,16 +1627,16 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>1.06</v>
@@ -2076,16 +1824,16 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5">
         <v>2.16</v>
@@ -2273,16 +2021,16 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>1.84</v>
@@ -2470,16 +2218,16 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F7">
         <v>2.32</v>
@@ -2667,16 +2415,16 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <v>3.25</v>
@@ -2864,16 +2612,16 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F9">
         <v>1.24</v>
@@ -3061,16 +2809,16 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F10">
         <v>2.08</v>
@@ -3258,16 +3006,16 @@
         <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F11">
         <v>2.16</v>
@@ -3455,16 +3203,16 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F12">
         <v>2.46</v>
@@ -3652,1378 +3400,1378 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F13">
+        <v>1.79</v>
+      </c>
+      <c r="G13">
+        <v>1.95</v>
+      </c>
+      <c r="H13">
+        <v>3.85</v>
+      </c>
+      <c r="I13">
+        <v>5.9</v>
+      </c>
+      <c r="J13">
+        <v>3.05</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1.87</v>
+      </c>
+      <c r="M13">
+        <v>2.5</v>
+      </c>
+      <c r="N13">
+        <v>1.8</v>
+      </c>
+      <c r="O13">
+        <v>2.14</v>
+      </c>
+      <c r="P13">
         <v>1.64</v>
       </c>
-      <c r="G13">
-        <v>1.67</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>6.8</v>
-      </c>
-      <c r="J13">
+      <c r="Q13">
+        <v>1000</v>
+      </c>
+      <c r="R13">
+        <v>1.92</v>
+      </c>
+      <c r="S13">
+        <v>1000</v>
+      </c>
+      <c r="T13">
+        <v>3.6</v>
+      </c>
+      <c r="U13">
+        <v>20</v>
+      </c>
+      <c r="V13">
+        <v>3.65</v>
+      </c>
+      <c r="W13">
+        <v>22</v>
+      </c>
+      <c r="X13">
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="Y13">
+        <v>44</v>
+      </c>
+      <c r="Z13">
+        <v>4.2</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AB13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>12</v>
+      </c>
+      <c r="AD13">
+        <v>7.6</v>
+      </c>
+      <c r="AE13">
+        <v>11</v>
+      </c>
+      <c r="AF13">
+        <v>3.7</v>
+      </c>
+      <c r="AG13">
+        <v>23</v>
+      </c>
+      <c r="AH13">
+        <v>4.1</v>
+      </c>
+      <c r="AI13">
+        <v>70</v>
+      </c>
+      <c r="AJ13">
+        <v>9.4</v>
+      </c>
+      <c r="AK13">
+        <v>14</v>
+      </c>
+      <c r="AL13">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM13">
+        <v>12.5</v>
+      </c>
+      <c r="AN13">
+        <v>3.7</v>
+      </c>
+      <c r="AO13">
+        <v>24</v>
+      </c>
+      <c r="AP13">
+        <v>4.1</v>
+      </c>
+      <c r="AQ13">
+        <v>75</v>
+      </c>
+      <c r="AR13">
+        <v>3.7</v>
+      </c>
+      <c r="AS13">
+        <v>24</v>
+      </c>
+      <c r="AT13">
+        <v>3.7</v>
+      </c>
+      <c r="AU13">
+        <v>23</v>
+      </c>
+      <c r="AV13">
+        <v>3.95</v>
+      </c>
+      <c r="AW13">
+        <v>42</v>
+      </c>
+      <c r="AX13">
+        <v>4.2</v>
+      </c>
+      <c r="AY13">
+        <v>1000</v>
+      </c>
+      <c r="AZ13">
+        <v>3.25</v>
+      </c>
+      <c r="BA13">
+        <v>13</v>
+      </c>
+      <c r="BB13">
+        <v>4.1</v>
+      </c>
+      <c r="BC13">
+        <v>70</v>
+      </c>
+      <c r="BD13">
         <v>4.4</v>
       </c>
-      <c r="L13">
-        <v>1.89</v>
-      </c>
-      <c r="M13">
-        <v>2.02</v>
-      </c>
-      <c r="N13">
-        <v>1.98</v>
-      </c>
-      <c r="O13">
-        <v>2.12</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>2.14</v>
-      </c>
-      <c r="R13">
-        <v>1.87</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>10.5</v>
-      </c>
-      <c r="U13">
-        <v>17</v>
-      </c>
-      <c r="V13">
-        <v>5.5</v>
-      </c>
-      <c r="W13">
-        <v>24</v>
-      </c>
-      <c r="X13">
-        <v>6.4</v>
-      </c>
-      <c r="Y13">
-        <v>60</v>
-      </c>
-      <c r="Z13">
-        <v>6.8</v>
-      </c>
-      <c r="AA13">
-        <v>210</v>
-      </c>
-      <c r="AB13">
-        <v>7.2</v>
-      </c>
-      <c r="AC13">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13">
-        <v>8.4</v>
-      </c>
-      <c r="AE13">
-        <v>9.6</v>
-      </c>
-      <c r="AF13">
-        <v>18</v>
-      </c>
-      <c r="AG13">
-        <v>30</v>
-      </c>
-      <c r="AH13">
-        <v>6.6</v>
-      </c>
-      <c r="AI13">
-        <v>120</v>
-      </c>
-      <c r="AJ13">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK13">
-        <v>9.4</v>
-      </c>
-      <c r="AL13">
-        <v>9</v>
-      </c>
-      <c r="AM13">
-        <v>10.5</v>
-      </c>
-      <c r="AN13">
-        <v>21</v>
-      </c>
-      <c r="AO13">
-        <v>29</v>
-      </c>
-      <c r="AP13">
-        <v>6.6</v>
-      </c>
-      <c r="AQ13">
-        <v>120</v>
-      </c>
-      <c r="AR13">
-        <v>14</v>
-      </c>
-      <c r="AS13">
-        <v>19</v>
-      </c>
-      <c r="AT13">
-        <v>13.5</v>
-      </c>
-      <c r="AU13">
-        <v>22</v>
-      </c>
-      <c r="AV13">
-        <v>6.2</v>
-      </c>
-      <c r="AW13">
-        <v>48</v>
-      </c>
-      <c r="AX13">
-        <v>6.8</v>
-      </c>
-      <c r="AY13">
-        <v>180</v>
-      </c>
-      <c r="AZ13">
-        <v>4.2</v>
-      </c>
-      <c r="BA13">
-        <v>10.5</v>
-      </c>
-      <c r="BB13">
-        <v>6.8</v>
-      </c>
-      <c r="BC13">
-        <v>150</v>
-      </c>
-      <c r="BD13">
-        <v>7</v>
-      </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13">
-        <v>33193679</v>
+        <v>33196045</v>
       </c>
       <c r="BG13">
-        <v>466299</v>
+        <v>22012893</v>
       </c>
       <c r="BH13">
-        <v>28214</v>
+        <v>6563318</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13">
-        <v>1.227627686</v>
+        <v>1.227676948</v>
       </c>
       <c r="BK13">
-        <v>1.227627696</v>
+        <v>1.227676994</v>
       </c>
       <c r="BL13">
-        <v>1.227627685</v>
+        <v>1.227677035</v>
       </c>
       <c r="BM13">
-        <v>1.227627695</v>
+        <v>1.227676957</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F14">
-        <v>2.16</v>
+        <v>4.8</v>
       </c>
       <c r="G14">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="H14">
-        <v>4.1</v>
+        <v>1.95</v>
       </c>
       <c r="I14">
-        <v>4.6</v>
+        <v>2.14</v>
       </c>
       <c r="J14">
+        <v>2.92</v>
+      </c>
+      <c r="K14">
+        <v>3.6</v>
+      </c>
+      <c r="L14">
+        <v>1.44</v>
+      </c>
+      <c r="M14">
+        <v>1.6</v>
+      </c>
+      <c r="N14">
+        <v>2.66</v>
+      </c>
+      <c r="O14">
+        <v>3.55</v>
+      </c>
+      <c r="P14">
+        <v>2.1</v>
+      </c>
+      <c r="Q14">
+        <v>2.7</v>
+      </c>
+      <c r="R14">
+        <v>1.53</v>
+      </c>
+      <c r="S14">
+        <v>1.81</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="K14">
-        <v>3.2</v>
-      </c>
-      <c r="L14">
-        <v>1.49</v>
-      </c>
-      <c r="M14">
-        <v>1.56</v>
-      </c>
-      <c r="N14">
-        <v>2.78</v>
-      </c>
-      <c r="O14">
-        <v>3.05</v>
-      </c>
-      <c r="P14">
-        <v>2.26</v>
-      </c>
-      <c r="Q14">
-        <v>2.44</v>
-      </c>
-      <c r="R14">
-        <v>1.69</v>
-      </c>
-      <c r="S14">
-        <v>1.79</v>
-      </c>
-      <c r="T14">
-        <v>6.4</v>
-      </c>
       <c r="U14">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="V14">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="W14">
+        <v>7.6</v>
+      </c>
+      <c r="X14">
+        <v>3.25</v>
+      </c>
+      <c r="Y14">
         <v>12.5</v>
       </c>
-      <c r="X14">
-        <v>5.8</v>
-      </c>
-      <c r="Y14">
+      <c r="Z14">
+        <v>3.85</v>
+      </c>
+      <c r="AA14">
+        <v>30</v>
+      </c>
+      <c r="AB14">
+        <v>3.4</v>
+      </c>
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <v>2.98</v>
+      </c>
+      <c r="AE14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>3.35</v>
+      </c>
+      <c r="AG14">
+        <v>14.5</v>
+      </c>
+      <c r="AH14">
+        <v>3.95</v>
+      </c>
+      <c r="AI14">
+        <v>38</v>
+      </c>
+      <c r="AJ14">
+        <v>4</v>
+      </c>
+      <c r="AK14">
+        <v>46</v>
+      </c>
+      <c r="AL14">
+        <v>3.8</v>
+      </c>
+      <c r="AM14">
+        <v>29</v>
+      </c>
+      <c r="AN14">
+        <v>3.9</v>
+      </c>
+      <c r="AO14">
+        <v>36</v>
+      </c>
+      <c r="AP14">
+        <v>4.2</v>
+      </c>
+      <c r="AQ14">
+        <v>1000</v>
+      </c>
+      <c r="AR14">
+        <v>4.3</v>
+      </c>
+      <c r="AS14">
+        <v>1000</v>
+      </c>
+      <c r="AT14">
+        <v>4.2</v>
+      </c>
+      <c r="AU14">
+        <v>1000</v>
+      </c>
+      <c r="AV14">
+        <v>4.3</v>
+      </c>
+      <c r="AW14">
+        <v>1000</v>
+      </c>
+      <c r="AX14">
+        <v>4.3</v>
+      </c>
+      <c r="AY14">
+        <v>1000</v>
+      </c>
+      <c r="AZ14">
+        <v>4.3</v>
+      </c>
+      <c r="BA14">
+        <v>1000</v>
+      </c>
+      <c r="BB14">
+        <v>3.85</v>
+      </c>
+      <c r="BC14">
         <v>32</v>
       </c>
-      <c r="Z14">
-        <v>6.6</v>
-      </c>
-      <c r="AA14">
-        <v>120</v>
-      </c>
-      <c r="AB14">
-        <v>5.7</v>
-      </c>
-      <c r="AC14">
-        <v>7.4</v>
-      </c>
-      <c r="AD14">
-        <v>6</v>
-      </c>
-      <c r="AE14">
-        <v>8</v>
-      </c>
-      <c r="AF14">
-        <v>16</v>
-      </c>
-      <c r="AG14">
-        <v>22</v>
-      </c>
-      <c r="AH14">
-        <v>6.4</v>
-      </c>
-      <c r="AI14">
-        <v>90</v>
-      </c>
-      <c r="AJ14">
-        <v>9.6</v>
-      </c>
-      <c r="AK14">
-        <v>13</v>
-      </c>
-      <c r="AL14">
-        <v>10</v>
-      </c>
-      <c r="AM14">
-        <v>13.5</v>
-      </c>
-      <c r="AN14">
-        <v>21</v>
-      </c>
-      <c r="AO14">
-        <v>30</v>
-      </c>
-      <c r="AP14">
-        <v>6.6</v>
-      </c>
-      <c r="AQ14">
-        <v>130</v>
-      </c>
-      <c r="AR14">
-        <v>5.8</v>
-      </c>
-      <c r="AS14">
-        <v>32</v>
-      </c>
-      <c r="AT14">
-        <v>5.9</v>
-      </c>
-      <c r="AU14">
-        <v>36</v>
-      </c>
-      <c r="AV14">
-        <v>6.4</v>
-      </c>
-      <c r="AW14">
-        <v>80</v>
-      </c>
-      <c r="AX14">
-        <v>6.8</v>
-      </c>
-      <c r="AY14">
-        <v>260</v>
-      </c>
-      <c r="AZ14">
-        <v>5.8</v>
-      </c>
-      <c r="BA14">
-        <v>34</v>
-      </c>
-      <c r="BB14">
-        <v>6.6</v>
-      </c>
-      <c r="BC14">
-        <v>140</v>
-      </c>
       <c r="BD14">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="BE14">
         <v>1000</v>
       </c>
       <c r="BF14">
-        <v>33196028</v>
+        <v>33204273</v>
       </c>
       <c r="BG14">
-        <v>3348521</v>
+        <v>5907009</v>
       </c>
       <c r="BH14">
-        <v>10133739</v>
+        <v>41860831</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14">
-        <v>1.227675975</v>
+        <v>1.227809773</v>
       </c>
       <c r="BK14">
-        <v>1.22767602</v>
+        <v>1.227809818</v>
       </c>
       <c r="BL14">
-        <v>1.227676059</v>
+        <v>1.227809857</v>
       </c>
       <c r="BM14">
-        <v>1.227675984</v>
+        <v>1.227809782</v>
       </c>
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F15">
-        <v>1.6</v>
+        <v>2.56</v>
       </c>
       <c r="G15">
-        <v>1.65</v>
+        <v>2.86</v>
       </c>
       <c r="H15">
-        <v>5.9</v>
+        <v>2.92</v>
       </c>
       <c r="I15">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="J15">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="K15">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="M15">
-        <v>2.34</v>
+        <v>1.76</v>
       </c>
       <c r="N15">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="O15">
-        <v>1.93</v>
+        <v>2.62</v>
       </c>
       <c r="P15">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="Q15">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S15">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="T15">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="U15">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="V15">
-        <v>17.5</v>
+        <v>7.6</v>
       </c>
       <c r="W15">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="X15">
-        <v>5.2</v>
+        <v>14</v>
       </c>
       <c r="Y15">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="Z15">
+        <v>4.4</v>
+      </c>
+      <c r="AA15">
+        <v>65</v>
+      </c>
+      <c r="AB15">
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <v>11</v>
+      </c>
+      <c r="AD15">
         <v>5.6</v>
       </c>
-      <c r="AA15">
-        <v>190</v>
-      </c>
-      <c r="AB15">
-        <v>8</v>
-      </c>
-      <c r="AC15">
+      <c r="AE15">
+        <v>8.6</v>
+      </c>
+      <c r="AF15">
+        <v>10.5</v>
+      </c>
+      <c r="AG15">
+        <v>17</v>
+      </c>
+      <c r="AH15">
+        <v>4.3</v>
+      </c>
+      <c r="AI15">
+        <v>50</v>
+      </c>
+      <c r="AJ15">
+        <v>11.5</v>
+      </c>
+      <c r="AK15">
+        <v>19.5</v>
+      </c>
+      <c r="AL15">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD15">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE15">
-        <v>11</v>
-      </c>
-      <c r="AF15">
-        <v>18.5</v>
-      </c>
-      <c r="AG15">
-        <v>28</v>
-      </c>
-      <c r="AH15">
-        <v>5.4</v>
-      </c>
-      <c r="AI15">
-        <v>95</v>
-      </c>
-      <c r="AJ15">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK15">
-        <v>11</v>
-      </c>
-      <c r="AL15">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AM15">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AN15">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AO15">
         <v>26</v>
       </c>
       <c r="AP15">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="AQ15">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AR15">
-        <v>12.5</v>
+        <v>4.3</v>
       </c>
       <c r="AS15">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AT15">
-        <v>13.5</v>
+        <v>4.2</v>
       </c>
       <c r="AU15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AV15">
-        <v>26</v>
+        <v>4.4</v>
       </c>
       <c r="AW15">
+        <v>70</v>
+      </c>
+      <c r="AX15">
+        <v>4.6</v>
+      </c>
+      <c r="AY15">
+        <v>180</v>
+      </c>
+      <c r="AZ15">
+        <v>4.2</v>
+      </c>
+      <c r="BA15">
         <v>42</v>
       </c>
-      <c r="AX15">
-        <v>5.5</v>
-      </c>
-      <c r="AY15">
-        <v>140</v>
-      </c>
-      <c r="AZ15">
-        <v>3.5</v>
-      </c>
-      <c r="BA15">
-        <v>9.199999999999999</v>
-      </c>
       <c r="BB15">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="BC15">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="BD15">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="BE15">
         <v>1000</v>
       </c>
       <c r="BF15">
-        <v>33195431</v>
+        <v>33204272</v>
       </c>
       <c r="BG15">
-        <v>30684</v>
+        <v>7023879</v>
       </c>
       <c r="BH15">
-        <v>130433</v>
+        <v>5170870</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15">
-        <v>1.227658678</v>
+        <v>1.227809863</v>
       </c>
       <c r="BK15">
-        <v>1.227658688</v>
+        <v>1.227809908</v>
       </c>
       <c r="BL15">
-        <v>1.227658677</v>
+        <v>1.227809947</v>
       </c>
       <c r="BM15">
-        <v>1.227658687</v>
+        <v>1.227809872</v>
       </c>
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F16">
-        <v>2.56</v>
+        <v>7.8</v>
       </c>
       <c r="G16">
-        <v>2.76</v>
+        <v>8.6</v>
       </c>
       <c r="H16">
-        <v>2.8</v>
+        <v>1.43</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1.44</v>
       </c>
       <c r="J16">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="K16">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="L16">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="M16">
+        <v>2.62</v>
+      </c>
+      <c r="N16">
+        <v>1.61</v>
+      </c>
+      <c r="O16">
+        <v>1.75</v>
+      </c>
+      <c r="P16">
         <v>1.93</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
+        <v>2.06</v>
+      </c>
+      <c r="R16">
+        <v>1.96</v>
+      </c>
+      <c r="S16">
         <v>2.08</v>
       </c>
-      <c r="O16">
-        <v>2.28</v>
-      </c>
-      <c r="P16">
-        <v>1.82</v>
-      </c>
-      <c r="Q16">
-        <v>2.02</v>
-      </c>
-      <c r="R16">
-        <v>1.99</v>
-      </c>
-      <c r="S16">
-        <v>2.22</v>
-      </c>
       <c r="T16">
+        <v>18</v>
+      </c>
+      <c r="U16">
+        <v>21</v>
+      </c>
+      <c r="V16">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="W16">
         <v>9.800000000000001</v>
       </c>
-      <c r="U16">
+      <c r="X16">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y16">
+        <v>9</v>
+      </c>
+      <c r="Z16">
+        <v>11</v>
+      </c>
+      <c r="AA16">
+        <v>12.5</v>
+      </c>
+      <c r="AB16">
+        <v>26</v>
+      </c>
+      <c r="AC16">
+        <v>29</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16">
+        <v>11.5</v>
+      </c>
+      <c r="AF16">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG16">
+        <v>10.5</v>
+      </c>
+      <c r="AH16">
         <v>13</v>
       </c>
-      <c r="V16">
-        <v>8.6</v>
-      </c>
-      <c r="W16">
-        <v>11.5</v>
-      </c>
-      <c r="X16">
+      <c r="AI16">
+        <v>14</v>
+      </c>
+      <c r="AJ16">
+        <v>16</v>
+      </c>
+      <c r="AK16">
+        <v>80</v>
+      </c>
+      <c r="AL16">
+        <v>26</v>
+      </c>
+      <c r="AM16">
+        <v>30</v>
+      </c>
+      <c r="AN16">
+        <v>21</v>
+      </c>
+      <c r="AO16">
+        <v>25</v>
+      </c>
+      <c r="AP16">
+        <v>28</v>
+      </c>
+      <c r="AQ16">
+        <v>34</v>
+      </c>
+      <c r="AR16">
+        <v>15.5</v>
+      </c>
+      <c r="AS16">
+        <v>280</v>
+      </c>
+      <c r="AT16">
+        <v>14.5</v>
+      </c>
+      <c r="AU16">
+        <v>120</v>
+      </c>
+      <c r="AV16">
+        <v>14</v>
+      </c>
+      <c r="AW16">
+        <v>110</v>
+      </c>
+      <c r="AX16">
         <v>15</v>
       </c>
-      <c r="Y16">
-        <v>20</v>
-      </c>
-      <c r="Z16">
-        <v>6.8</v>
-      </c>
-      <c r="AA16">
-        <v>50</v>
-      </c>
-      <c r="AB16">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC16">
-        <v>11</v>
-      </c>
-      <c r="AD16">
-        <v>7</v>
-      </c>
-      <c r="AE16">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF16">
-        <v>10.5</v>
-      </c>
-      <c r="AG16">
-        <v>14.5</v>
-      </c>
-      <c r="AH16">
-        <v>6.6</v>
-      </c>
-      <c r="AI16">
-        <v>38</v>
-      </c>
-      <c r="AJ16">
-        <v>14.5</v>
-      </c>
-      <c r="AK16">
-        <v>18.5</v>
-      </c>
-      <c r="AL16">
-        <v>10.5</v>
-      </c>
-      <c r="AM16">
-        <v>13.5</v>
-      </c>
-      <c r="AN16">
-        <v>16</v>
-      </c>
-      <c r="AO16">
-        <v>21</v>
-      </c>
-      <c r="AP16">
-        <v>7</v>
-      </c>
-      <c r="AQ16">
-        <v>55</v>
-      </c>
-      <c r="AR16">
-        <v>6.8</v>
-      </c>
-      <c r="AS16">
-        <v>44</v>
-      </c>
-      <c r="AT16">
+      <c r="AY16">
+        <v>140</v>
+      </c>
+      <c r="AZ16">
+        <v>15</v>
+      </c>
+      <c r="BA16">
+        <v>140</v>
+      </c>
+      <c r="BB16">
+        <v>4.8</v>
+      </c>
+      <c r="BC16">
         <v>6.4</v>
       </c>
-      <c r="AU16">
-        <v>34</v>
-      </c>
-      <c r="AV16">
-        <v>7</v>
-      </c>
-      <c r="AW16">
-        <v>55</v>
-      </c>
-      <c r="AX16">
-        <v>7.6</v>
-      </c>
-      <c r="AY16">
-        <v>130</v>
-      </c>
-      <c r="AZ16">
-        <v>6.2</v>
-      </c>
-      <c r="BA16">
-        <v>30</v>
-      </c>
-      <c r="BB16">
-        <v>6.4</v>
-      </c>
-      <c r="BC16">
-        <v>34</v>
-      </c>
       <c r="BD16">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="BE16">
         <v>1000</v>
       </c>
       <c r="BF16">
-        <v>33200251</v>
+        <v>33196003</v>
       </c>
       <c r="BG16">
-        <v>42617</v>
+        <v>508773</v>
       </c>
       <c r="BH16">
-        <v>6225055</v>
+        <v>46726</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16">
-        <v>1.227738113</v>
+        <v>1.227676629</v>
       </c>
       <c r="BK16">
-        <v>1.227738158</v>
+        <v>1.227676639</v>
       </c>
       <c r="BL16">
-        <v>1.227738197</v>
+        <v>1.227676628</v>
       </c>
       <c r="BM16">
-        <v>1.227738122</v>
+        <v>1.227676638</v>
       </c>
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F17">
-        <v>7.8</v>
+        <v>2.88</v>
       </c>
       <c r="G17">
-        <v>8.6</v>
+        <v>3.65</v>
       </c>
       <c r="H17">
+        <v>2.22</v>
+      </c>
+      <c r="I17">
+        <v>2.7</v>
+      </c>
+      <c r="J17">
+        <v>2.8</v>
+      </c>
+      <c r="K17">
+        <v>330</v>
+      </c>
+      <c r="L17">
+        <v>1.8</v>
+      </c>
+      <c r="M17">
+        <v>2.74</v>
+      </c>
+      <c r="N17">
+        <v>1.58</v>
+      </c>
+      <c r="O17">
+        <v>2.86</v>
+      </c>
+      <c r="P17">
         <v>1.43</v>
       </c>
-      <c r="I17">
-        <v>1.44</v>
-      </c>
-      <c r="J17">
-        <v>5.5</v>
-      </c>
-      <c r="K17">
-        <v>5.8</v>
-      </c>
-      <c r="L17">
-        <v>2.34</v>
-      </c>
-      <c r="M17">
-        <v>2.62</v>
-      </c>
-      <c r="N17">
-        <v>1.61</v>
-      </c>
-      <c r="O17">
-        <v>1.75</v>
-      </c>
-      <c r="P17">
-        <v>1.93</v>
-      </c>
       <c r="Q17">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="R17">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="S17">
-        <v>2.08</v>
+        <v>110</v>
       </c>
       <c r="T17">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="U17">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="V17">
+        <v>1.02</v>
+      </c>
+      <c r="W17">
+        <v>11.5</v>
+      </c>
+      <c r="X17">
+        <v>1.01</v>
+      </c>
+      <c r="Y17">
+        <v>17</v>
+      </c>
+      <c r="Z17">
+        <v>1.01</v>
+      </c>
+      <c r="AA17">
+        <v>1000</v>
+      </c>
+      <c r="AB17">
+        <v>1.21</v>
+      </c>
+      <c r="AC17">
+        <v>14</v>
+      </c>
+      <c r="AD17">
+        <v>6.6</v>
+      </c>
+      <c r="AE17">
         <v>8.800000000000001</v>
       </c>
-      <c r="W17">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X17">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y17">
-        <v>9</v>
-      </c>
-      <c r="Z17">
-        <v>11</v>
-      </c>
-      <c r="AA17">
-        <v>12.5</v>
-      </c>
-      <c r="AB17">
-        <v>26</v>
-      </c>
-      <c r="AC17">
-        <v>29</v>
-      </c>
-      <c r="AD17">
-        <v>11</v>
-      </c>
-      <c r="AE17">
-        <v>11.5</v>
-      </c>
       <c r="AF17">
-        <v>9.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AG17">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH17">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="AI17">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AJ17">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="AK17">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL17">
-        <v>26</v>
+        <v>1.18</v>
       </c>
       <c r="AM17">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AN17">
-        <v>21</v>
+        <v>1.03</v>
       </c>
       <c r="AO17">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AP17">
-        <v>28</v>
+        <v>1.02</v>
       </c>
       <c r="AQ17">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AR17">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS17">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AT17">
-        <v>14.5</v>
+        <v>1.02</v>
       </c>
       <c r="AU17">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AV17">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AW17">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AX17">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AY17">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>15</v>
+        <v>1.02</v>
       </c>
       <c r="BA17">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="BB17">
-        <v>4.8</v>
+        <v>1.02</v>
       </c>
       <c r="BC17">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="BD17">
-        <v>5.7</v>
+        <v>1.02</v>
       </c>
       <c r="BE17">
         <v>1000</v>
       </c>
       <c r="BF17">
-        <v>33196003</v>
+        <v>33196042</v>
       </c>
       <c r="BG17">
-        <v>508773</v>
+        <v>6250160</v>
       </c>
       <c r="BH17">
-        <v>46726</v>
+        <v>113126</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17">
-        <v>1.227676629</v>
+        <v>1.227675885</v>
       </c>
       <c r="BK17">
-        <v>1.227676639</v>
+        <v>1.22767593</v>
       </c>
       <c r="BL17">
-        <v>1.227676628</v>
+        <v>1.227675969</v>
       </c>
       <c r="BM17">
-        <v>1.227676638</v>
+        <v>1.227675894</v>
       </c>
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F18">
-        <v>2.56</v>
+        <v>1.6</v>
       </c>
       <c r="G18">
-        <v>2.86</v>
+        <v>1.65</v>
       </c>
       <c r="H18">
-        <v>2.92</v>
+        <v>5.9</v>
       </c>
       <c r="I18">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="J18">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="L18">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="M18">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="N18">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="O18">
-        <v>2.62</v>
+        <v>1.93</v>
       </c>
       <c r="P18">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="Q18">
+        <v>2.06</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>2.26</v>
       </c>
-      <c r="R18">
-        <v>1.82</v>
-      </c>
-      <c r="S18">
-        <v>2.1</v>
-      </c>
       <c r="T18">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="U18">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="V18">
-        <v>7.6</v>
+        <v>17.5</v>
       </c>
       <c r="W18">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="X18">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="Y18">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Z18">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="AA18">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AB18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC18">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD18">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE18">
         <v>11</v>
       </c>
-      <c r="AD18">
-        <v>5.6</v>
-      </c>
-      <c r="AE18">
-        <v>8.6</v>
-      </c>
       <c r="AF18">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG18">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AH18">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI18">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AJ18">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK18">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AL18">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM18">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AN18">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AO18">
         <v>26</v>
       </c>
       <c r="AP18">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AQ18">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AR18">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="AS18">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AT18">
-        <v>4.2</v>
+        <v>13.5</v>
       </c>
       <c r="AU18">
+        <v>20</v>
+      </c>
+      <c r="AV18">
+        <v>26</v>
+      </c>
+      <c r="AW18">
         <v>42</v>
       </c>
-      <c r="AV18">
-        <v>4.4</v>
-      </c>
-      <c r="AW18">
-        <v>70</v>
-      </c>
       <c r="AX18">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AY18">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AZ18">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="BA18">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB18">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="BC18">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="BD18">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="BE18">
         <v>1000</v>
       </c>
       <c r="BF18">
-        <v>33204272</v>
+        <v>33195431</v>
       </c>
       <c r="BG18">
-        <v>7023879</v>
+        <v>30684</v>
       </c>
       <c r="BH18">
-        <v>5170870</v>
+        <v>130433</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18">
-        <v>1.227809863</v>
+        <v>1.227658678</v>
       </c>
       <c r="BK18">
-        <v>1.227809908</v>
+        <v>1.227658688</v>
       </c>
       <c r="BL18">
-        <v>1.227809947</v>
+        <v>1.227658677</v>
       </c>
       <c r="BM18">
-        <v>1.227809872</v>
+        <v>1.227658687</v>
       </c>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F19">
-        <v>4.8</v>
+        <v>2.16</v>
       </c>
       <c r="G19">
+        <v>2.28</v>
+      </c>
+      <c r="H19">
+        <v>4.1</v>
+      </c>
+      <c r="I19">
+        <v>4.6</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3.2</v>
+      </c>
+      <c r="L19">
+        <v>1.49</v>
+      </c>
+      <c r="M19">
+        <v>1.56</v>
+      </c>
+      <c r="N19">
+        <v>2.78</v>
+      </c>
+      <c r="O19">
+        <v>3.05</v>
+      </c>
+      <c r="P19">
+        <v>2.26</v>
+      </c>
+      <c r="Q19">
+        <v>2.44</v>
+      </c>
+      <c r="R19">
+        <v>1.69</v>
+      </c>
+      <c r="S19">
+        <v>1.79</v>
+      </c>
+      <c r="T19">
+        <v>6.4</v>
+      </c>
+      <c r="U19">
+        <v>8.4</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>12.5</v>
+      </c>
+      <c r="X19">
+        <v>5.8</v>
+      </c>
+      <c r="Y19">
+        <v>32</v>
+      </c>
+      <c r="Z19">
         <v>6.6</v>
       </c>
-      <c r="H19">
-        <v>1.95</v>
-      </c>
-      <c r="I19">
-        <v>2.14</v>
-      </c>
-      <c r="J19">
-        <v>2.92</v>
-      </c>
-      <c r="K19">
-        <v>3.6</v>
-      </c>
-      <c r="L19">
-        <v>1.44</v>
-      </c>
-      <c r="M19">
-        <v>1.6</v>
-      </c>
-      <c r="N19">
-        <v>2.66</v>
-      </c>
-      <c r="O19">
-        <v>3.55</v>
-      </c>
-      <c r="P19">
-        <v>2.1</v>
-      </c>
-      <c r="Q19">
-        <v>2.7</v>
-      </c>
-      <c r="R19">
-        <v>1.53</v>
-      </c>
-      <c r="S19">
-        <v>1.81</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>9.4</v>
-      </c>
-      <c r="V19">
-        <v>4.8</v>
-      </c>
-      <c r="W19">
-        <v>7.6</v>
-      </c>
-      <c r="X19">
-        <v>3.25</v>
-      </c>
-      <c r="Y19">
-        <v>12.5</v>
-      </c>
-      <c r="Z19">
-        <v>3.85</v>
-      </c>
       <c r="AA19">
+        <v>120</v>
+      </c>
+      <c r="AB19">
+        <v>5.7</v>
+      </c>
+      <c r="AC19">
+        <v>7.4</v>
+      </c>
+      <c r="AD19">
+        <v>6</v>
+      </c>
+      <c r="AE19">
+        <v>8</v>
+      </c>
+      <c r="AF19">
+        <v>16</v>
+      </c>
+      <c r="AG19">
+        <v>22</v>
+      </c>
+      <c r="AH19">
+        <v>6.4</v>
+      </c>
+      <c r="AI19">
+        <v>90</v>
+      </c>
+      <c r="AJ19">
+        <v>9.6</v>
+      </c>
+      <c r="AK19">
+        <v>13</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>13.5</v>
+      </c>
+      <c r="AN19">
+        <v>21</v>
+      </c>
+      <c r="AO19">
         <v>30</v>
       </c>
-      <c r="AB19">
-        <v>3.4</v>
-      </c>
-      <c r="AC19">
-        <v>15</v>
-      </c>
-      <c r="AD19">
-        <v>2.98</v>
-      </c>
-      <c r="AE19">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF19">
-        <v>3.35</v>
-      </c>
-      <c r="AG19">
-        <v>14.5</v>
-      </c>
-      <c r="AH19">
-        <v>3.95</v>
-      </c>
-      <c r="AI19">
-        <v>38</v>
-      </c>
-      <c r="AJ19">
-        <v>4</v>
-      </c>
-      <c r="AK19">
-        <v>46</v>
-      </c>
-      <c r="AL19">
-        <v>3.8</v>
-      </c>
-      <c r="AM19">
-        <v>29</v>
-      </c>
-      <c r="AN19">
-        <v>3.9</v>
-      </c>
-      <c r="AO19">
+      <c r="AP19">
+        <v>6.6</v>
+      </c>
+      <c r="AQ19">
+        <v>130</v>
+      </c>
+      <c r="AR19">
+        <v>5.8</v>
+      </c>
+      <c r="AS19">
+        <v>32</v>
+      </c>
+      <c r="AT19">
+        <v>5.9</v>
+      </c>
+      <c r="AU19">
         <v>36</v>
       </c>
-      <c r="AP19">
-        <v>4.2</v>
-      </c>
-      <c r="AQ19">
-        <v>1000</v>
-      </c>
-      <c r="AR19">
-        <v>4.3</v>
-      </c>
-      <c r="AS19">
-        <v>1000</v>
-      </c>
-      <c r="AT19">
-        <v>4.2</v>
-      </c>
-      <c r="AU19">
-        <v>1000</v>
-      </c>
       <c r="AV19">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="AW19">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AX19">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="AY19">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AZ19">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="BA19">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="BB19">
-        <v>3.85</v>
+        <v>6.6</v>
       </c>
       <c r="BC19">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="BD19">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="BE19">
         <v>1000</v>
       </c>
       <c r="BF19">
-        <v>33204273</v>
+        <v>33196028</v>
       </c>
       <c r="BG19">
-        <v>5907009</v>
+        <v>3348521</v>
       </c>
       <c r="BH19">
-        <v>41860831</v>
+        <v>10133739</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19">
-        <v>1.227809773</v>
+        <v>1.227675975</v>
       </c>
       <c r="BK19">
-        <v>1.227809818</v>
+        <v>1.22767602</v>
       </c>
       <c r="BL19">
-        <v>1.227809857</v>
+        <v>1.227676059</v>
       </c>
       <c r="BM19">
-        <v>1.227809782</v>
+        <v>1.227675984</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5031,196 +4779,196 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F20">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="G20">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H20">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="J20">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L20">
+        <v>1.89</v>
+      </c>
+      <c r="M20">
+        <v>2.02</v>
+      </c>
+      <c r="N20">
+        <v>1.98</v>
+      </c>
+      <c r="O20">
+        <v>2.12</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2.14</v>
+      </c>
+      <c r="R20">
         <v>1.87</v>
       </c>
-      <c r="M20">
-        <v>2.5</v>
-      </c>
-      <c r="N20">
-        <v>1.8</v>
-      </c>
-      <c r="O20">
-        <v>2.14</v>
-      </c>
-      <c r="P20">
-        <v>1.64</v>
-      </c>
-      <c r="Q20">
-        <v>1000</v>
-      </c>
-      <c r="R20">
-        <v>1.92</v>
-      </c>
       <c r="S20">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V20">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="W20">
+        <v>24</v>
+      </c>
+      <c r="X20">
+        <v>6.4</v>
+      </c>
+      <c r="Y20">
+        <v>60</v>
+      </c>
+      <c r="Z20">
+        <v>6.8</v>
+      </c>
+      <c r="AA20">
+        <v>210</v>
+      </c>
+      <c r="AB20">
+        <v>7.2</v>
+      </c>
+      <c r="AC20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD20">
+        <v>8.4</v>
+      </c>
+      <c r="AE20">
+        <v>9.6</v>
+      </c>
+      <c r="AF20">
+        <v>18</v>
+      </c>
+      <c r="AG20">
+        <v>30</v>
+      </c>
+      <c r="AH20">
+        <v>6.6</v>
+      </c>
+      <c r="AI20">
+        <v>120</v>
+      </c>
+      <c r="AJ20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK20">
+        <v>9.4</v>
+      </c>
+      <c r="AL20">
+        <v>9</v>
+      </c>
+      <c r="AM20">
+        <v>10.5</v>
+      </c>
+      <c r="AN20">
+        <v>21</v>
+      </c>
+      <c r="AO20">
+        <v>29</v>
+      </c>
+      <c r="AP20">
+        <v>6.6</v>
+      </c>
+      <c r="AQ20">
+        <v>120</v>
+      </c>
+      <c r="AR20">
+        <v>14</v>
+      </c>
+      <c r="AS20">
+        <v>19</v>
+      </c>
+      <c r="AT20">
+        <v>13.5</v>
+      </c>
+      <c r="AU20">
         <v>22</v>
       </c>
-      <c r="X20">
-        <v>4</v>
-      </c>
-      <c r="Y20">
-        <v>44</v>
-      </c>
-      <c r="Z20">
+      <c r="AV20">
+        <v>6.2</v>
+      </c>
+      <c r="AW20">
+        <v>48</v>
+      </c>
+      <c r="AX20">
+        <v>6.8</v>
+      </c>
+      <c r="AY20">
+        <v>180</v>
+      </c>
+      <c r="AZ20">
         <v>4.2</v>
       </c>
-      <c r="AA20">
-        <v>1000</v>
-      </c>
-      <c r="AB20">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC20">
-        <v>12</v>
-      </c>
-      <c r="AD20">
-        <v>7.6</v>
-      </c>
-      <c r="AE20">
-        <v>11</v>
-      </c>
-      <c r="AF20">
-        <v>3.7</v>
-      </c>
-      <c r="AG20">
-        <v>23</v>
-      </c>
-      <c r="AH20">
-        <v>4.1</v>
-      </c>
-      <c r="AI20">
-        <v>70</v>
-      </c>
-      <c r="AJ20">
-        <v>9.4</v>
-      </c>
-      <c r="AK20">
-        <v>14</v>
-      </c>
-      <c r="AL20">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM20">
-        <v>12.5</v>
-      </c>
-      <c r="AN20">
-        <v>3.7</v>
-      </c>
-      <c r="AO20">
-        <v>24</v>
-      </c>
-      <c r="AP20">
-        <v>4.1</v>
-      </c>
-      <c r="AQ20">
-        <v>75</v>
-      </c>
-      <c r="AR20">
-        <v>3.7</v>
-      </c>
-      <c r="AS20">
-        <v>24</v>
-      </c>
-      <c r="AT20">
-        <v>3.7</v>
-      </c>
-      <c r="AU20">
-        <v>23</v>
-      </c>
-      <c r="AV20">
-        <v>3.95</v>
-      </c>
-      <c r="AW20">
-        <v>42</v>
-      </c>
-      <c r="AX20">
-        <v>4.2</v>
-      </c>
-      <c r="AY20">
-        <v>1000</v>
-      </c>
-      <c r="AZ20">
-        <v>3.25</v>
-      </c>
       <c r="BA20">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="BB20">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="BC20">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="BD20">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="BE20">
         <v>1000</v>
       </c>
       <c r="BF20">
-        <v>33196045</v>
+        <v>33193679</v>
       </c>
       <c r="BG20">
-        <v>22012893</v>
+        <v>466299</v>
       </c>
       <c r="BH20">
-        <v>6563318</v>
+        <v>28214</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20">
-        <v>1.227676948</v>
+        <v>1.227627686</v>
       </c>
       <c r="BK20">
-        <v>1.227676994</v>
+        <v>1.227627696</v>
       </c>
       <c r="BL20">
-        <v>1.227677035</v>
+        <v>1.227627685</v>
       </c>
       <c r="BM20">
-        <v>1.227676957</v>
+        <v>1.227627695</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5228,196 +4976,196 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F21">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="G21">
+        <v>2.76</v>
+      </c>
+      <c r="H21">
+        <v>2.8</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3.35</v>
+      </c>
+      <c r="K21">
         <v>3.65</v>
       </c>
-      <c r="H21">
+      <c r="L21">
+        <v>1.79</v>
+      </c>
+      <c r="M21">
+        <v>1.93</v>
+      </c>
+      <c r="N21">
+        <v>2.08</v>
+      </c>
+      <c r="O21">
+        <v>2.28</v>
+      </c>
+      <c r="P21">
+        <v>1.82</v>
+      </c>
+      <c r="Q21">
+        <v>2.02</v>
+      </c>
+      <c r="R21">
+        <v>1.99</v>
+      </c>
+      <c r="S21">
         <v>2.22</v>
       </c>
-      <c r="I21">
-        <v>2.7</v>
-      </c>
-      <c r="J21">
-        <v>2.8</v>
-      </c>
-      <c r="K21">
-        <v>330</v>
-      </c>
-      <c r="L21">
-        <v>1.8</v>
-      </c>
-      <c r="M21">
-        <v>2.74</v>
-      </c>
-      <c r="N21">
-        <v>1.58</v>
-      </c>
-      <c r="O21">
-        <v>2.86</v>
-      </c>
-      <c r="P21">
-        <v>1.43</v>
-      </c>
-      <c r="Q21">
-        <v>2.5</v>
-      </c>
-      <c r="R21">
-        <v>1.67</v>
-      </c>
-      <c r="S21">
-        <v>110</v>
-      </c>
       <c r="T21">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U21">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V21">
-        <v>1.02</v>
+        <v>8.6</v>
       </c>
       <c r="W21">
         <v>11.5</v>
       </c>
       <c r="X21">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="Y21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z21">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AA21">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB21">
-        <v>1.21</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD21">
+        <v>7</v>
+      </c>
+      <c r="AE21">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF21">
+        <v>10.5</v>
+      </c>
+      <c r="AG21">
+        <v>14.5</v>
+      </c>
+      <c r="AH21">
         <v>6.6</v>
       </c>
-      <c r="AE21">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF21">
-        <v>1.4</v>
-      </c>
-      <c r="AG21">
-        <v>13</v>
-      </c>
-      <c r="AH21">
-        <v>1.03</v>
-      </c>
       <c r="AI21">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ21">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AK21">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL21">
-        <v>1.18</v>
+        <v>10.5</v>
       </c>
       <c r="AM21">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN21">
-        <v>1.03</v>
+        <v>16</v>
       </c>
       <c r="AO21">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AP21">
-        <v>1.02</v>
+        <v>7</v>
       </c>
       <c r="AQ21">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR21">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AS21">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AT21">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="AU21">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AV21">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AW21">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX21">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AY21">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AZ21">
-        <v>1.02</v>
+        <v>6.2</v>
       </c>
       <c r="BA21">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="BB21">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="BC21">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="BD21">
-        <v>1.02</v>
+        <v>8</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
       <c r="BF21">
-        <v>33196042</v>
+        <v>33200251</v>
       </c>
       <c r="BG21">
-        <v>6250160</v>
+        <v>42617</v>
       </c>
       <c r="BH21">
-        <v>113126</v>
+        <v>6225055</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21">
-        <v>1.227675885</v>
+        <v>1.227738113</v>
       </c>
       <c r="BK21">
-        <v>1.22767593</v>
+        <v>1.227738158</v>
       </c>
       <c r="BL21">
-        <v>1.227675969</v>
+        <v>1.227738197</v>
       </c>
       <c r="BM21">
-        <v>1.227675894</v>
+        <v>1.227738122</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5425,196 +5173,196 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F22">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="G22">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="H22">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="I22">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="J22">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="K22">
+        <v>4.1</v>
+      </c>
+      <c r="L22">
+        <v>2.42</v>
+      </c>
+      <c r="M22">
+        <v>2.48</v>
+      </c>
+      <c r="N22">
+        <v>1.68</v>
+      </c>
+      <c r="O22">
+        <v>1.71</v>
+      </c>
+      <c r="P22">
+        <v>1.6</v>
+      </c>
+      <c r="Q22">
+        <v>1.67</v>
+      </c>
+      <c r="R22">
+        <v>2.5</v>
+      </c>
+      <c r="S22">
+        <v>2.68</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>22</v>
+      </c>
+      <c r="V22">
+        <v>16</v>
+      </c>
+      <c r="W22">
+        <v>19.5</v>
+      </c>
+      <c r="X22">
+        <v>23</v>
+      </c>
+      <c r="Y22">
+        <v>28</v>
+      </c>
+      <c r="Z22">
+        <v>7.6</v>
+      </c>
+      <c r="AA22">
+        <v>65</v>
+      </c>
+      <c r="AB22">
+        <v>12</v>
+      </c>
+      <c r="AC22">
+        <v>14.5</v>
+      </c>
+      <c r="AD22">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE22">
+        <v>10</v>
+      </c>
+      <c r="AF22">
+        <v>13</v>
+      </c>
+      <c r="AG22">
+        <v>16</v>
+      </c>
+      <c r="AH22">
+        <v>7.6</v>
+      </c>
+      <c r="AI22">
+        <v>36</v>
+      </c>
+      <c r="AJ22">
+        <v>13</v>
+      </c>
+      <c r="AK22">
+        <v>17.5</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>11.5</v>
+      </c>
+      <c r="AN22">
+        <v>14</v>
+      </c>
+      <c r="AO22">
+        <v>17</v>
+      </c>
+      <c r="AP22">
+        <v>7.6</v>
+      </c>
+      <c r="AQ22">
+        <v>40</v>
+      </c>
+      <c r="AR22">
+        <v>7.2</v>
+      </c>
+      <c r="AS22">
+        <v>29</v>
+      </c>
+      <c r="AT22">
+        <v>17.5</v>
+      </c>
+      <c r="AU22">
+        <v>22</v>
+      </c>
+      <c r="AV22">
+        <v>7.6</v>
+      </c>
+      <c r="AW22">
+        <v>32</v>
+      </c>
+      <c r="AX22">
+        <v>28</v>
+      </c>
+      <c r="AY22">
+        <v>200</v>
+      </c>
+      <c r="AZ22">
         <v>4.9</v>
       </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
-        <v>3.15</v>
-      </c>
-      <c r="N22">
-        <v>1.47</v>
-      </c>
-      <c r="O22">
-        <v>1.5</v>
-      </c>
-      <c r="P22">
-        <v>1.51</v>
-      </c>
-      <c r="Q22">
-        <v>1.56</v>
-      </c>
-      <c r="R22">
-        <v>2.78</v>
-      </c>
-      <c r="S22">
-        <v>2.98</v>
-      </c>
-      <c r="T22">
+      <c r="BA22">
+        <v>11.5</v>
+      </c>
+      <c r="BB22">
+        <v>6.6</v>
+      </c>
+      <c r="BC22">
         <v>27</v>
       </c>
-      <c r="U22">
-        <v>36</v>
-      </c>
-      <c r="V22">
-        <v>21</v>
-      </c>
-      <c r="W22">
-        <v>32</v>
-      </c>
-      <c r="X22">
-        <v>4.8</v>
-      </c>
-      <c r="Y22">
-        <v>46</v>
-      </c>
-      <c r="Z22">
-        <v>5</v>
-      </c>
-      <c r="AA22">
-        <v>90</v>
-      </c>
-      <c r="AB22">
-        <v>14</v>
-      </c>
-      <c r="AC22">
-        <v>19.5</v>
-      </c>
-      <c r="AD22">
-        <v>10</v>
-      </c>
-      <c r="AE22">
-        <v>14</v>
-      </c>
-      <c r="AF22">
-        <v>12.5</v>
-      </c>
-      <c r="AG22">
-        <v>21</v>
-      </c>
-      <c r="AH22">
-        <v>4.7</v>
-      </c>
-      <c r="AI22">
-        <v>44</v>
-      </c>
-      <c r="AJ22">
-        <v>14</v>
-      </c>
-      <c r="AK22">
-        <v>19.5</v>
-      </c>
-      <c r="AL22">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM22">
-        <v>13.5</v>
-      </c>
-      <c r="AN22">
-        <v>13.5</v>
-      </c>
-      <c r="AO22">
-        <v>19</v>
-      </c>
-      <c r="AP22">
-        <v>4.7</v>
-      </c>
-      <c r="AQ22">
-        <v>44</v>
-      </c>
-      <c r="AR22">
-        <v>16.5</v>
-      </c>
-      <c r="AS22">
-        <v>27</v>
-      </c>
-      <c r="AT22">
-        <v>12</v>
-      </c>
-      <c r="AU22">
-        <v>19.5</v>
-      </c>
-      <c r="AV22">
-        <v>20</v>
-      </c>
-      <c r="AW22">
-        <v>28</v>
-      </c>
-      <c r="AX22">
-        <v>38</v>
-      </c>
-      <c r="AY22">
-        <v>65</v>
-      </c>
-      <c r="AZ22">
-        <v>2.98</v>
-      </c>
-      <c r="BA22">
-        <v>6.8</v>
-      </c>
-      <c r="BB22">
-        <v>4.4</v>
-      </c>
-      <c r="BC22">
-        <v>26</v>
-      </c>
       <c r="BD22">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE22">
-        <v>600</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>197</v>
+        <v>850</v>
+      </c>
+      <c r="BF22">
+        <v>33196216</v>
       </c>
       <c r="BG22">
-        <v>7976153</v>
+        <v>5320893</v>
       </c>
       <c r="BH22">
-        <v>11378686</v>
+        <v>13441259</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>281</v>
+      <c r="BJ22">
+        <v>1.227681197</v>
+      </c>
+      <c r="BK22">
+        <v>1.227681242</v>
+      </c>
+      <c r="BL22">
+        <v>1.227681281</v>
+      </c>
+      <c r="BM22">
+        <v>1.227681206</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5622,196 +5370,196 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F23">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="G23">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="H23">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="I23">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="J23">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K23">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L23">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="N23">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="O23">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="P23">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="Q23">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="R23">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="S23">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="T23">
+        <v>27</v>
+      </c>
+      <c r="U23">
+        <v>36</v>
+      </c>
+      <c r="V23">
+        <v>21</v>
+      </c>
+      <c r="W23">
+        <v>32</v>
+      </c>
+      <c r="X23">
+        <v>4.8</v>
+      </c>
+      <c r="Y23">
+        <v>46</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+      <c r="AA23">
+        <v>90</v>
+      </c>
+      <c r="AB23">
+        <v>14</v>
+      </c>
+      <c r="AC23">
+        <v>19.5</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>14</v>
+      </c>
+      <c r="AF23">
+        <v>12.5</v>
+      </c>
+      <c r="AG23">
+        <v>21</v>
+      </c>
+      <c r="AH23">
+        <v>4.7</v>
+      </c>
+      <c r="AI23">
+        <v>44</v>
+      </c>
+      <c r="AJ23">
+        <v>14</v>
+      </c>
+      <c r="AK23">
+        <v>19.5</v>
+      </c>
+      <c r="AL23">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM23">
+        <v>13.5</v>
+      </c>
+      <c r="AN23">
+        <v>13.5</v>
+      </c>
+      <c r="AO23">
+        <v>19</v>
+      </c>
+      <c r="AP23">
+        <v>4.7</v>
+      </c>
+      <c r="AQ23">
+        <v>44</v>
+      </c>
+      <c r="AR23">
+        <v>16.5</v>
+      </c>
+      <c r="AS23">
+        <v>27</v>
+      </c>
+      <c r="AT23">
+        <v>12</v>
+      </c>
+      <c r="AU23">
+        <v>19.5</v>
+      </c>
+      <c r="AV23">
         <v>20</v>
       </c>
-      <c r="U23">
-        <v>22</v>
-      </c>
-      <c r="V23">
-        <v>16</v>
-      </c>
-      <c r="W23">
-        <v>19.5</v>
-      </c>
-      <c r="X23">
-        <v>23</v>
-      </c>
-      <c r="Y23">
+      <c r="AW23">
         <v>28</v>
       </c>
-      <c r="Z23">
-        <v>7.6</v>
-      </c>
-      <c r="AA23">
+      <c r="AX23">
+        <v>38</v>
+      </c>
+      <c r="AY23">
         <v>65</v>
       </c>
-      <c r="AB23">
-        <v>12</v>
-      </c>
-      <c r="AC23">
-        <v>14.5</v>
-      </c>
-      <c r="AD23">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE23">
-        <v>10</v>
-      </c>
-      <c r="AF23">
-        <v>13</v>
-      </c>
-      <c r="AG23">
-        <v>16</v>
-      </c>
-      <c r="AH23">
-        <v>7.6</v>
-      </c>
-      <c r="AI23">
-        <v>36</v>
-      </c>
-      <c r="AJ23">
-        <v>13</v>
-      </c>
-      <c r="AK23">
-        <v>17.5</v>
-      </c>
-      <c r="AL23">
-        <v>10</v>
-      </c>
-      <c r="AM23">
-        <v>11.5</v>
-      </c>
-      <c r="AN23">
-        <v>14</v>
-      </c>
-      <c r="AO23">
-        <v>17</v>
-      </c>
-      <c r="AP23">
-        <v>7.6</v>
-      </c>
-      <c r="AQ23">
-        <v>40</v>
-      </c>
-      <c r="AR23">
-        <v>7.2</v>
-      </c>
-      <c r="AS23">
-        <v>29</v>
-      </c>
-      <c r="AT23">
-        <v>17.5</v>
-      </c>
-      <c r="AU23">
-        <v>22</v>
-      </c>
-      <c r="AV23">
-        <v>7.6</v>
-      </c>
-      <c r="AW23">
-        <v>32</v>
-      </c>
-      <c r="AX23">
-        <v>28</v>
-      </c>
-      <c r="AY23">
-        <v>200</v>
-      </c>
       <c r="AZ23">
-        <v>4.9</v>
+        <v>2.98</v>
       </c>
       <c r="BA23">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="BB23">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="BC23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD23">
-        <v>8.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="BE23">
-        <v>850</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>198</v>
+        <v>600</v>
+      </c>
+      <c r="BF23">
+        <v>33196397</v>
       </c>
       <c r="BG23">
-        <v>5320893</v>
+        <v>7976153</v>
       </c>
       <c r="BH23">
-        <v>13441259</v>
+        <v>11378686</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>219</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>282</v>
+      <c r="BJ23">
+        <v>1.227682919</v>
+      </c>
+      <c r="BK23">
+        <v>1.227682964</v>
+      </c>
+      <c r="BL23">
+        <v>1.227683003</v>
+      </c>
+      <c r="BM23">
+        <v>1.227682928</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5819,16 +5567,16 @@
         <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24">
         <v>2.88</v>
@@ -5986,8 +5734,8 @@
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>199</v>
+      <c r="BF24">
+        <v>33207664</v>
       </c>
       <c r="BG24">
         <v>176184</v>
@@ -5998,17 +5746,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>220</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>241</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>262</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>283</v>
+      <c r="BJ24">
+        <v>1.227855422</v>
+      </c>
+      <c r="BK24">
+        <v>1.227855467</v>
+      </c>
+      <c r="BL24">
+        <v>1.227855506</v>
+      </c>
+      <c r="BM24">
+        <v>1.227855431</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6016,16 +5764,16 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25">
         <v>3.45</v>
@@ -6183,8 +5931,8 @@
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>200</v>
+      <c r="BF25">
+        <v>33195284</v>
       </c>
       <c r="BG25">
         <v>5740008</v>
@@ -6195,17 +5943,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>221</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>263</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>284</v>
+      <c r="BJ25">
+        <v>1.227658354</v>
+      </c>
+      <c r="BK25">
+        <v>1.227658364</v>
+      </c>
+      <c r="BL25">
+        <v>1.227658353</v>
+      </c>
+      <c r="BM25">
+        <v>1.227658363</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6213,984 +5961,984 @@
         <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26">
+        <v>2.42</v>
+      </c>
+      <c r="G26">
+        <v>2.52</v>
+      </c>
+      <c r="H26">
         <v>3.15</v>
       </c>
-      <c r="G26">
-        <v>3.25</v>
-      </c>
-      <c r="H26">
-        <v>2.7</v>
-      </c>
       <c r="I26">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="J26">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="M26">
-        <v>1.6</v>
+        <v>1.99</v>
       </c>
       <c r="N26">
-        <v>2.66</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="P26">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="Q26">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="R26">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="S26">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="T26">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="U26">
+        <v>14.5</v>
+      </c>
+      <c r="V26">
+        <v>11</v>
+      </c>
+      <c r="W26">
+        <v>14</v>
+      </c>
+      <c r="X26">
+        <v>6.2</v>
+      </c>
+      <c r="Y26">
+        <v>25</v>
+      </c>
+      <c r="Z26">
+        <v>7.2</v>
+      </c>
+      <c r="AA26">
+        <v>65</v>
+      </c>
+      <c r="AB26">
         <v>8.199999999999999</v>
       </c>
-      <c r="V26">
-        <v>7.6</v>
-      </c>
-      <c r="W26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X26">
-        <v>14</v>
-      </c>
-      <c r="Y26">
-        <v>15.5</v>
-      </c>
-      <c r="Z26">
-        <v>36</v>
-      </c>
-      <c r="AA26">
-        <v>46</v>
-      </c>
-      <c r="AB26">
-        <v>8.4</v>
-      </c>
       <c r="AC26">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD26">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE26">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AF26">
         <v>12</v>
       </c>
       <c r="AG26">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH26">
+        <v>6.8</v>
+      </c>
+      <c r="AI26">
+        <v>42</v>
+      </c>
+      <c r="AJ26">
+        <v>12.5</v>
+      </c>
+      <c r="AK26">
+        <v>15.5</v>
+      </c>
+      <c r="AL26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM26">
+        <v>12.5</v>
+      </c>
+      <c r="AN26">
+        <v>15</v>
+      </c>
+      <c r="AO26">
+        <v>20</v>
+      </c>
+      <c r="AP26">
+        <v>7</v>
+      </c>
+      <c r="AQ26">
+        <v>55</v>
+      </c>
+      <c r="AR26">
+        <v>6.6</v>
+      </c>
+      <c r="AS26">
         <v>32</v>
       </c>
-      <c r="AI26">
+      <c r="AT26">
+        <v>20</v>
+      </c>
+      <c r="AU26">
+        <v>26</v>
+      </c>
+      <c r="AV26">
+        <v>7</v>
+      </c>
+      <c r="AW26">
+        <v>44</v>
+      </c>
+      <c r="AX26">
+        <v>7.6</v>
+      </c>
+      <c r="AY26">
+        <v>240</v>
+      </c>
+      <c r="AZ26">
+        <v>5.9</v>
+      </c>
+      <c r="BA26">
+        <v>55</v>
+      </c>
+      <c r="BB26">
+        <v>6.8</v>
+      </c>
+      <c r="BC26">
         <v>40</v>
       </c>
-      <c r="AJ26">
-        <v>17.5</v>
-      </c>
-      <c r="AK26">
-        <v>19.5</v>
-      </c>
-      <c r="AL26">
-        <v>13</v>
-      </c>
-      <c r="AM26">
-        <v>14.5</v>
-      </c>
-      <c r="AN26">
-        <v>21</v>
-      </c>
-      <c r="AO26">
-        <v>24</v>
-      </c>
-      <c r="AP26">
-        <v>50</v>
-      </c>
-      <c r="AQ26">
-        <v>70</v>
-      </c>
-      <c r="AR26">
-        <v>42</v>
-      </c>
-      <c r="AS26">
-        <v>60</v>
-      </c>
-      <c r="AT26">
-        <v>38</v>
-      </c>
-      <c r="AU26">
-        <v>48</v>
-      </c>
-      <c r="AV26">
-        <v>60</v>
-      </c>
-      <c r="AW26">
-        <v>90</v>
-      </c>
-      <c r="AX26">
-        <v>100</v>
-      </c>
-      <c r="AY26">
-        <v>180</v>
-      </c>
-      <c r="AZ26">
-        <v>40</v>
-      </c>
-      <c r="BA26">
-        <v>60</v>
-      </c>
-      <c r="BB26">
-        <v>27</v>
-      </c>
-      <c r="BC26">
-        <v>65</v>
-      </c>
       <c r="BD26">
-        <v>17.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>201</v>
+      <c r="BF26">
+        <v>33199379</v>
       </c>
       <c r="BG26">
-        <v>387040</v>
+        <v>44330</v>
       </c>
       <c r="BH26">
-        <v>318841</v>
+        <v>539984</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>222</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>285</v>
+      <c r="BJ26">
+        <v>1.227731543</v>
+      </c>
+      <c r="BK26">
+        <v>1.227731588</v>
+      </c>
+      <c r="BL26">
+        <v>1.227731627</v>
+      </c>
+      <c r="BM26">
+        <v>1.227731552</v>
       </c>
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F27">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G27">
         <v>3.95</v>
       </c>
       <c r="H27">
+        <v>2.2</v>
+      </c>
+      <c r="I27">
+        <v>2.24</v>
+      </c>
+      <c r="J27">
+        <v>3.4</v>
+      </c>
+      <c r="K27">
+        <v>3.45</v>
+      </c>
+      <c r="L27">
+        <v>1.7</v>
+      </c>
+      <c r="M27">
+        <v>1.73</v>
+      </c>
+      <c r="N27">
+        <v>2.36</v>
+      </c>
+      <c r="O27">
+        <v>2.44</v>
+      </c>
+      <c r="P27">
+        <v>2.02</v>
+      </c>
+      <c r="Q27">
         <v>2.14</v>
       </c>
-      <c r="I27">
-        <v>2.16</v>
-      </c>
-      <c r="J27">
-        <v>3.6</v>
-      </c>
-      <c r="K27">
-        <v>3.65</v>
-      </c>
-      <c r="L27">
-        <v>2.1</v>
-      </c>
-      <c r="M27">
-        <v>2.12</v>
-      </c>
-      <c r="N27">
-        <v>1.89</v>
-      </c>
-      <c r="O27">
-        <v>1.9</v>
-      </c>
-      <c r="P27">
-        <v>1.73</v>
-      </c>
-      <c r="Q27">
-        <v>1.75</v>
-      </c>
       <c r="R27">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="S27">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="T27">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U27">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="V27">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="W27">
+        <v>8.4</v>
+      </c>
+      <c r="X27">
+        <v>11</v>
+      </c>
+      <c r="Y27">
+        <v>12.5</v>
+      </c>
+      <c r="Z27">
+        <v>25</v>
+      </c>
+      <c r="AA27">
+        <v>28</v>
+      </c>
+      <c r="AB27">
+        <v>11</v>
+      </c>
+      <c r="AC27">
+        <v>12</v>
+      </c>
+      <c r="AD27">
+        <v>7</v>
+      </c>
+      <c r="AE27">
+        <v>7.8</v>
+      </c>
+      <c r="AF27">
         <v>10.5</v>
       </c>
-      <c r="X27">
-        <v>13</v>
-      </c>
-      <c r="Y27">
-        <v>13.5</v>
-      </c>
-      <c r="Z27">
+      <c r="AG27">
+        <v>11.5</v>
+      </c>
+      <c r="AH27">
         <v>24</v>
       </c>
-      <c r="AA27">
-        <v>26</v>
-      </c>
-      <c r="AB27">
-        <v>15</v>
-      </c>
-      <c r="AC27">
-        <v>15.5</v>
-      </c>
-      <c r="AD27">
-        <v>7.4</v>
-      </c>
-      <c r="AE27">
-        <v>7.6</v>
-      </c>
-      <c r="AF27">
-        <v>10</v>
-      </c>
-      <c r="AG27">
-        <v>10.5</v>
-      </c>
-      <c r="AH27">
-        <v>19.5</v>
-      </c>
       <c r="AI27">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AJ27">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK27">
         <v>29</v>
       </c>
       <c r="AL27">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM27">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN27">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AO27">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AP27">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AQ27">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AR27">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AS27">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AT27">
         <v>42</v>
       </c>
       <c r="AU27">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AV27">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AW27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AX27">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AY27">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AZ27">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="BA27">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="BB27">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="BC27">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="BD27">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="BE27">
-        <v>600</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>202</v>
+        <v>1000</v>
+      </c>
+      <c r="BF27">
+        <v>33195181</v>
       </c>
       <c r="BG27">
-        <v>127991</v>
+        <v>46928</v>
       </c>
       <c r="BH27">
-        <v>63347</v>
+        <v>184325</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>223</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>244</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>265</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>286</v>
+      <c r="BJ27">
+        <v>1.227653061</v>
+      </c>
+      <c r="BK27">
+        <v>1.227653106</v>
+      </c>
+      <c r="BL27">
+        <v>1.227653145</v>
+      </c>
+      <c r="BM27">
+        <v>1.22765307</v>
       </c>
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F28">
+        <v>1.79</v>
+      </c>
+      <c r="G28">
+        <v>1.81</v>
+      </c>
+      <c r="H28">
+        <v>5.6</v>
+      </c>
+      <c r="I28">
+        <v>5.9</v>
+      </c>
+      <c r="J28">
+        <v>3.7</v>
+      </c>
+      <c r="K28">
         <v>3.85</v>
       </c>
-      <c r="G28">
-        <v>3.95</v>
-      </c>
-      <c r="H28">
-        <v>2.2</v>
-      </c>
-      <c r="I28">
-        <v>2.24</v>
-      </c>
-      <c r="J28">
-        <v>3.4</v>
-      </c>
-      <c r="K28">
-        <v>3.45</v>
-      </c>
       <c r="L28">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M28">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N28">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="P28">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q28">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R28">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="S28">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U28">
+        <v>11</v>
+      </c>
+      <c r="V28">
+        <v>15</v>
+      </c>
+      <c r="W28">
+        <v>16</v>
+      </c>
+      <c r="X28">
+        <v>38</v>
+      </c>
+      <c r="Y28">
+        <v>44</v>
+      </c>
+      <c r="Z28">
+        <v>17.5</v>
+      </c>
+      <c r="AA28">
+        <v>170</v>
+      </c>
+      <c r="AB28">
+        <v>6.6</v>
+      </c>
+      <c r="AC28">
+        <v>7</v>
+      </c>
+      <c r="AD28">
+        <v>7.8</v>
+      </c>
+      <c r="AE28">
+        <v>8.4</v>
+      </c>
+      <c r="AF28">
+        <v>21</v>
+      </c>
+      <c r="AG28">
+        <v>24</v>
+      </c>
+      <c r="AH28">
+        <v>16.5</v>
+      </c>
+      <c r="AI28">
+        <v>100</v>
+      </c>
+      <c r="AJ28">
+        <v>8.4</v>
+      </c>
+      <c r="AK28">
         <v>9.199999999999999</v>
       </c>
-      <c r="U28">
+      <c r="AL28">
+        <v>9.6</v>
+      </c>
+      <c r="AM28">
         <v>10.5</v>
       </c>
-      <c r="V28">
-        <v>7.4</v>
-      </c>
-      <c r="W28">
-        <v>8.4</v>
-      </c>
-      <c r="X28">
-        <v>11</v>
-      </c>
-      <c r="Y28">
-        <v>12.5</v>
-      </c>
-      <c r="Z28">
-        <v>25</v>
-      </c>
-      <c r="AA28">
-        <v>28</v>
-      </c>
-      <c r="AB28">
-        <v>11</v>
-      </c>
-      <c r="AC28">
-        <v>12</v>
-      </c>
-      <c r="AD28">
-        <v>7</v>
-      </c>
-      <c r="AE28">
-        <v>7.8</v>
-      </c>
-      <c r="AF28">
-        <v>10.5</v>
-      </c>
-      <c r="AG28">
-        <v>11.5</v>
-      </c>
-      <c r="AH28">
-        <v>24</v>
-      </c>
-      <c r="AI28">
-        <v>38</v>
-      </c>
-      <c r="AJ28">
+      <c r="AN28">
         <v>23</v>
       </c>
-      <c r="AK28">
-        <v>29</v>
-      </c>
-      <c r="AL28">
+      <c r="AO28">
+        <v>26</v>
+      </c>
+      <c r="AP28">
+        <v>16.5</v>
+      </c>
+      <c r="AQ28">
+        <v>110</v>
+      </c>
+      <c r="AR28">
+        <v>15.5</v>
+      </c>
+      <c r="AS28">
+        <v>18</v>
+      </c>
+      <c r="AT28">
+        <v>19</v>
+      </c>
+      <c r="AU28">
+        <v>22</v>
+      </c>
+      <c r="AV28">
+        <v>34</v>
+      </c>
+      <c r="AW28">
+        <v>48</v>
+      </c>
+      <c r="AX28">
+        <v>17.5</v>
+      </c>
+      <c r="AY28">
+        <v>190</v>
+      </c>
+      <c r="AZ28">
+        <v>13</v>
+      </c>
+      <c r="BA28">
         <v>15</v>
-      </c>
-      <c r="AM28">
-        <v>16.5</v>
-      </c>
-      <c r="AN28">
-        <v>20</v>
-      </c>
-      <c r="AO28">
-        <v>22</v>
-      </c>
-      <c r="AP28">
-        <v>44</v>
-      </c>
-      <c r="AQ28">
-        <v>50</v>
-      </c>
-      <c r="AR28">
-        <v>50</v>
-      </c>
-      <c r="AS28">
-        <v>80</v>
-      </c>
-      <c r="AT28">
-        <v>42</v>
-      </c>
-      <c r="AU28">
-        <v>55</v>
-      </c>
-      <c r="AV28">
-        <v>50</v>
-      </c>
-      <c r="AW28">
-        <v>100</v>
-      </c>
-      <c r="AX28">
-        <v>15</v>
-      </c>
-      <c r="AY28">
-        <v>150</v>
-      </c>
-      <c r="AZ28">
-        <v>12.5</v>
-      </c>
-      <c r="BA28">
-        <v>70</v>
       </c>
       <c r="BB28">
         <v>17.5</v>
       </c>
       <c r="BC28">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="BD28">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
-      <c r="BF28" t="s">
-        <v>203</v>
+      <c r="BF28">
+        <v>33195187</v>
       </c>
       <c r="BG28">
-        <v>46928</v>
+        <v>298592</v>
       </c>
       <c r="BH28">
-        <v>184325</v>
+        <v>364471</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>266</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>287</v>
+      <c r="BJ28">
+        <v>1.227652881</v>
+      </c>
+      <c r="BK28">
+        <v>1.227652926</v>
+      </c>
+      <c r="BL28">
+        <v>1.227652965</v>
+      </c>
+      <c r="BM28">
+        <v>1.22765289</v>
       </c>
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F29">
-        <v>1.79</v>
+        <v>3.15</v>
       </c>
       <c r="G29">
-        <v>1.81</v>
+        <v>3.25</v>
       </c>
       <c r="H29">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="I29">
-        <v>5.9</v>
+        <v>2.78</v>
       </c>
       <c r="J29">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K29">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="M29">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.66</v>
       </c>
       <c r="O29">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="P29">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="Q29">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R29">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="T29">
+        <v>7.6</v>
+      </c>
+      <c r="U29">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="V29">
+        <v>7.6</v>
+      </c>
+      <c r="W29">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X29">
+        <v>14</v>
+      </c>
+      <c r="Y29">
+        <v>15.5</v>
+      </c>
+      <c r="Z29">
+        <v>36</v>
+      </c>
+      <c r="AA29">
+        <v>46</v>
+      </c>
+      <c r="AB29">
+        <v>8.4</v>
+      </c>
+      <c r="AC29">
         <v>9.800000000000001</v>
       </c>
-      <c r="U29">
-        <v>11</v>
-      </c>
-      <c r="V29">
-        <v>15</v>
-      </c>
-      <c r="W29">
-        <v>16</v>
-      </c>
-      <c r="X29">
+      <c r="AD29">
+        <v>6.6</v>
+      </c>
+      <c r="AE29">
+        <v>7.2</v>
+      </c>
+      <c r="AF29">
+        <v>12</v>
+      </c>
+      <c r="AG29">
+        <v>13</v>
+      </c>
+      <c r="AH29">
+        <v>32</v>
+      </c>
+      <c r="AI29">
+        <v>40</v>
+      </c>
+      <c r="AJ29">
+        <v>17.5</v>
+      </c>
+      <c r="AK29">
+        <v>19.5</v>
+      </c>
+      <c r="AL29">
+        <v>13</v>
+      </c>
+      <c r="AM29">
+        <v>14.5</v>
+      </c>
+      <c r="AN29">
+        <v>21</v>
+      </c>
+      <c r="AO29">
+        <v>24</v>
+      </c>
+      <c r="AP29">
+        <v>50</v>
+      </c>
+      <c r="AQ29">
+        <v>70</v>
+      </c>
+      <c r="AR29">
+        <v>42</v>
+      </c>
+      <c r="AS29">
+        <v>60</v>
+      </c>
+      <c r="AT29">
         <v>38</v>
       </c>
-      <c r="Y29">
-        <v>44</v>
-      </c>
-      <c r="Z29">
+      <c r="AU29">
+        <v>48</v>
+      </c>
+      <c r="AV29">
+        <v>60</v>
+      </c>
+      <c r="AW29">
+        <v>90</v>
+      </c>
+      <c r="AX29">
+        <v>100</v>
+      </c>
+      <c r="AY29">
+        <v>180</v>
+      </c>
+      <c r="AZ29">
+        <v>40</v>
+      </c>
+      <c r="BA29">
+        <v>60</v>
+      </c>
+      <c r="BB29">
+        <v>27</v>
+      </c>
+      <c r="BC29">
+        <v>65</v>
+      </c>
+      <c r="BD29">
         <v>17.5</v>
       </c>
-      <c r="AA29">
-        <v>170</v>
-      </c>
-      <c r="AB29">
-        <v>6.6</v>
-      </c>
-      <c r="AC29">
-        <v>7</v>
-      </c>
-      <c r="AD29">
-        <v>7.8</v>
-      </c>
-      <c r="AE29">
-        <v>8.4</v>
-      </c>
-      <c r="AF29">
-        <v>21</v>
-      </c>
-      <c r="AG29">
-        <v>24</v>
-      </c>
-      <c r="AH29">
-        <v>16.5</v>
-      </c>
-      <c r="AI29">
-        <v>100</v>
-      </c>
-      <c r="AJ29">
-        <v>8.4</v>
-      </c>
-      <c r="AK29">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AL29">
-        <v>9.6</v>
-      </c>
-      <c r="AM29">
-        <v>10.5</v>
-      </c>
-      <c r="AN29">
-        <v>23</v>
-      </c>
-      <c r="AO29">
-        <v>26</v>
-      </c>
-      <c r="AP29">
-        <v>16.5</v>
-      </c>
-      <c r="AQ29">
-        <v>110</v>
-      </c>
-      <c r="AR29">
-        <v>15.5</v>
-      </c>
-      <c r="AS29">
-        <v>18</v>
-      </c>
-      <c r="AT29">
-        <v>19</v>
-      </c>
-      <c r="AU29">
-        <v>22</v>
-      </c>
-      <c r="AV29">
-        <v>34</v>
-      </c>
-      <c r="AW29">
-        <v>48</v>
-      </c>
-      <c r="AX29">
-        <v>17.5</v>
-      </c>
-      <c r="AY29">
-        <v>190</v>
-      </c>
-      <c r="AZ29">
-        <v>13</v>
-      </c>
-      <c r="BA29">
-        <v>15</v>
-      </c>
-      <c r="BB29">
-        <v>17.5</v>
-      </c>
-      <c r="BC29">
-        <v>150</v>
-      </c>
-      <c r="BD29">
-        <v>18.5</v>
-      </c>
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>204</v>
+      <c r="BF29">
+        <v>33209548</v>
       </c>
       <c r="BG29">
-        <v>298592</v>
+        <v>387040</v>
       </c>
       <c r="BH29">
-        <v>364471</v>
+        <v>318841</v>
       </c>
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>246</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>288</v>
+      <c r="BJ29">
+        <v>1.227884616</v>
+      </c>
+      <c r="BK29">
+        <v>1.227884661</v>
+      </c>
+      <c r="BL29">
+        <v>1.2278847</v>
+      </c>
+      <c r="BM29">
+        <v>1.227884625</v>
       </c>
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F30">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="G30">
-        <v>2.52</v>
+        <v>3.95</v>
       </c>
       <c r="H30">
-        <v>3.15</v>
+        <v>2.14</v>
       </c>
       <c r="I30">
-        <v>3.3</v>
+        <v>2.16</v>
       </c>
       <c r="J30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L30">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="M30">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="O30">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="P30">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="Q30">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="R30">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="S30">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="T30">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="U30">
+        <v>16</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>10.5</v>
+      </c>
+      <c r="X30">
+        <v>13</v>
+      </c>
+      <c r="Y30">
+        <v>13.5</v>
+      </c>
+      <c r="Z30">
+        <v>24</v>
+      </c>
+      <c r="AA30">
+        <v>26</v>
+      </c>
+      <c r="AB30">
+        <v>15</v>
+      </c>
+      <c r="AC30">
+        <v>15.5</v>
+      </c>
+      <c r="AD30">
+        <v>7.4</v>
+      </c>
+      <c r="AE30">
+        <v>7.6</v>
+      </c>
+      <c r="AF30">
+        <v>10</v>
+      </c>
+      <c r="AG30">
+        <v>10.5</v>
+      </c>
+      <c r="AH30">
+        <v>19.5</v>
+      </c>
+      <c r="AI30">
+        <v>21</v>
+      </c>
+      <c r="AJ30">
+        <v>28</v>
+      </c>
+      <c r="AK30">
+        <v>29</v>
+      </c>
+      <c r="AL30">
         <v>14.5</v>
       </c>
-      <c r="V30">
-        <v>11</v>
-      </c>
-      <c r="W30">
-        <v>14</v>
-      </c>
-      <c r="X30">
-        <v>6.2</v>
-      </c>
-      <c r="Y30">
-        <v>25</v>
-      </c>
-      <c r="Z30">
-        <v>7.2</v>
-      </c>
-      <c r="AA30">
+      <c r="AM30">
+        <v>15.5</v>
+      </c>
+      <c r="AN30">
+        <v>15.5</v>
+      </c>
+      <c r="AO30">
+        <v>16.5</v>
+      </c>
+      <c r="AP30">
+        <v>30</v>
+      </c>
+      <c r="AQ30">
+        <v>34</v>
+      </c>
+      <c r="AR30">
+        <v>70</v>
+      </c>
+      <c r="AS30">
+        <v>85</v>
+      </c>
+      <c r="AT30">
+        <v>42</v>
+      </c>
+      <c r="AU30">
+        <v>46</v>
+      </c>
+      <c r="AV30">
+        <v>44</v>
+      </c>
+      <c r="AW30">
+        <v>50</v>
+      </c>
+      <c r="AX30">
         <v>65</v>
       </c>
-      <c r="AB30">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC30">
-        <v>11</v>
-      </c>
-      <c r="AD30">
-        <v>7.2</v>
-      </c>
-      <c r="AE30">
-        <v>8.6</v>
-      </c>
-      <c r="AF30">
-        <v>12</v>
-      </c>
-      <c r="AG30">
-        <v>15.5</v>
-      </c>
-      <c r="AH30">
-        <v>6.8</v>
-      </c>
-      <c r="AI30">
-        <v>42</v>
-      </c>
-      <c r="AJ30">
-        <v>12.5</v>
-      </c>
-      <c r="AK30">
-        <v>15.5</v>
-      </c>
-      <c r="AL30">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM30">
-        <v>12.5</v>
-      </c>
-      <c r="AN30">
-        <v>15</v>
-      </c>
-      <c r="AO30">
-        <v>20</v>
-      </c>
-      <c r="AP30">
-        <v>7</v>
-      </c>
-      <c r="AQ30">
-        <v>55</v>
-      </c>
-      <c r="AR30">
-        <v>6.6</v>
-      </c>
-      <c r="AS30">
-        <v>32</v>
-      </c>
-      <c r="AT30">
-        <v>20</v>
-      </c>
-      <c r="AU30">
-        <v>26</v>
-      </c>
-      <c r="AV30">
-        <v>7</v>
-      </c>
-      <c r="AW30">
+      <c r="AY30">
+        <v>80</v>
+      </c>
+      <c r="AZ30">
+        <v>40</v>
+      </c>
+      <c r="BA30">
         <v>44</v>
       </c>
-      <c r="AX30">
-        <v>7.6</v>
-      </c>
-      <c r="AY30">
-        <v>240</v>
-      </c>
-      <c r="AZ30">
-        <v>5.9</v>
-      </c>
-      <c r="BA30">
-        <v>55</v>
-      </c>
       <c r="BB30">
-        <v>6.8</v>
+        <v>13.5</v>
       </c>
       <c r="BC30">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="BD30">
-        <v>8.199999999999999</v>
+        <v>200</v>
       </c>
       <c r="BE30">
-        <v>1000</v>
-      </c>
-      <c r="BF30" t="s">
-        <v>205</v>
+        <v>600</v>
+      </c>
+      <c r="BF30">
+        <v>33174539</v>
       </c>
       <c r="BG30">
-        <v>44330</v>
+        <v>127991</v>
       </c>
       <c r="BH30">
-        <v>539984</v>
+        <v>63347</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>226</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>247</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>268</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>289</v>
+      <c r="BJ30">
+        <v>1.227302255</v>
+      </c>
+      <c r="BK30">
+        <v>1.227302239</v>
+      </c>
+      <c r="BL30">
+        <v>1.227302254</v>
+      </c>
+      <c r="BM30">
+        <v>1.227302264</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7198,196 +6946,196 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F31">
+        <v>4.9</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
         <v>1.75</v>
       </c>
-      <c r="G31">
-        <v>1.84</v>
-      </c>
-      <c r="H31">
-        <v>4.8</v>
-      </c>
       <c r="I31">
-        <v>5.5</v>
+        <v>1.76</v>
       </c>
       <c r="J31">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K31">
         <v>4.4</v>
       </c>
       <c r="L31">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="M31">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="N31">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="P31">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="Q31">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="R31">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="S31">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T31">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>10.5</v>
+      </c>
+      <c r="W31">
+        <v>11</v>
+      </c>
+      <c r="X31">
+        <v>11</v>
+      </c>
+      <c r="Y31">
+        <v>11.5</v>
+      </c>
+      <c r="Z31">
+        <v>16.5</v>
+      </c>
+      <c r="AA31">
         <v>17</v>
       </c>
-      <c r="V31">
-        <v>15</v>
-      </c>
-      <c r="W31">
-        <v>20</v>
-      </c>
-      <c r="X31">
-        <v>6.2</v>
-      </c>
-      <c r="Y31">
-        <v>44</v>
-      </c>
-      <c r="Z31">
-        <v>7</v>
-      </c>
-      <c r="AA31">
-        <v>130</v>
-      </c>
       <c r="AB31">
-        <v>8.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="AC31">
+        <v>21</v>
+      </c>
+      <c r="AD31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE31">
         <v>9.6</v>
       </c>
-      <c r="AD31">
-        <v>8</v>
-      </c>
-      <c r="AE31">
-        <v>10</v>
-      </c>
       <c r="AF31">
+        <v>9.6</v>
+      </c>
+      <c r="AG31">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH31">
+        <v>15.5</v>
+      </c>
+      <c r="AI31">
         <v>16</v>
       </c>
-      <c r="AG31">
-        <v>22</v>
-      </c>
-      <c r="AH31">
-        <v>6.6</v>
-      </c>
-      <c r="AI31">
-        <v>70</v>
-      </c>
       <c r="AJ31">
-        <v>9.4</v>
+        <v>34</v>
       </c>
       <c r="AK31">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AL31">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="AM31">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AN31">
         <v>16.5</v>
       </c>
       <c r="AO31">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AP31">
-        <v>6.8</v>
+        <v>29</v>
       </c>
       <c r="AQ31">
+        <v>30</v>
+      </c>
+      <c r="AR31">
+        <v>95</v>
+      </c>
+      <c r="AS31">
+        <v>110</v>
+      </c>
+      <c r="AT31">
+        <v>50</v>
+      </c>
+      <c r="AU31">
+        <v>55</v>
+      </c>
+      <c r="AV31">
+        <v>50</v>
+      </c>
+      <c r="AW31">
+        <v>55</v>
+      </c>
+      <c r="AX31">
         <v>75</v>
       </c>
-      <c r="AR31">
-        <v>16</v>
-      </c>
-      <c r="AS31">
-        <v>21</v>
-      </c>
-      <c r="AT31">
-        <v>5.6</v>
-      </c>
-      <c r="AU31">
-        <v>20</v>
-      </c>
-      <c r="AV31">
-        <v>6.2</v>
-      </c>
-      <c r="AW31">
-        <v>40</v>
-      </c>
-      <c r="AX31">
-        <v>7</v>
-      </c>
       <c r="AY31">
+        <v>80</v>
+      </c>
+      <c r="AZ31">
+        <v>50</v>
+      </c>
+      <c r="BA31">
+        <v>55</v>
+      </c>
+      <c r="BB31">
+        <v>7.8</v>
+      </c>
+      <c r="BC31">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BD31">
         <v>240</v>
       </c>
-      <c r="AZ31">
-        <v>4.4</v>
-      </c>
-      <c r="BA31">
-        <v>11</v>
-      </c>
-      <c r="BB31">
-        <v>6.8</v>
-      </c>
-      <c r="BC31">
-        <v>75</v>
-      </c>
-      <c r="BD31">
-        <v>7.4</v>
-      </c>
       <c r="BE31">
-        <v>1000</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>206</v>
+        <v>410</v>
+      </c>
+      <c r="BF31">
+        <v>33192139</v>
       </c>
       <c r="BG31">
-        <v>10992747</v>
+        <v>74303</v>
       </c>
       <c r="BH31">
-        <v>40210745</v>
+        <v>48317</v>
       </c>
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>227</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>290</v>
+      <c r="BJ31">
+        <v>1.22759338</v>
+      </c>
+      <c r="BK31">
+        <v>1.22759339</v>
+      </c>
+      <c r="BL31">
+        <v>1.227593379</v>
+      </c>
+      <c r="BM31">
+        <v>1.227593389</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7395,196 +7143,196 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F32">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="G32">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="H32">
-        <v>2.92</v>
+        <v>4.4</v>
       </c>
       <c r="I32">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="J32">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K32">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L32">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M32">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="N32">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="O32">
-        <v>2.14</v>
+        <v>2.74</v>
       </c>
       <c r="P32">
+        <v>2.22</v>
+      </c>
+      <c r="Q32">
+        <v>2.26</v>
+      </c>
+      <c r="R32">
         <v>1.79</v>
       </c>
-      <c r="Q32">
-        <v>1.91</v>
-      </c>
-      <c r="R32">
-        <v>2.1</v>
-      </c>
       <c r="S32">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="T32">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U32">
+        <v>8.6</v>
+      </c>
+      <c r="V32">
         <v>11</v>
       </c>
-      <c r="U32">
-        <v>13.5</v>
-      </c>
-      <c r="V32">
-        <v>10</v>
-      </c>
       <c r="W32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X32">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Y32">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z32">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="AA32">
+        <v>110</v>
+      </c>
+      <c r="AB32">
+        <v>6.8</v>
+      </c>
+      <c r="AC32">
+        <v>7.2</v>
+      </c>
+      <c r="AD32">
+        <v>6.8</v>
+      </c>
+      <c r="AE32">
+        <v>7.2</v>
+      </c>
+      <c r="AF32">
+        <v>17.5</v>
+      </c>
+      <c r="AG32">
+        <v>18.5</v>
+      </c>
+      <c r="AH32">
+        <v>65</v>
+      </c>
+      <c r="AI32">
+        <v>75</v>
+      </c>
+      <c r="AJ32">
+        <v>10.5</v>
+      </c>
+      <c r="AK32">
+        <v>11.5</v>
+      </c>
+      <c r="AL32">
+        <v>11</v>
+      </c>
+      <c r="AM32">
+        <v>11.5</v>
+      </c>
+      <c r="AN32">
+        <v>22</v>
+      </c>
+      <c r="AO32">
+        <v>25</v>
+      </c>
+      <c r="AP32">
+        <v>80</v>
+      </c>
+      <c r="AQ32">
+        <v>95</v>
+      </c>
+      <c r="AR32">
+        <v>25</v>
+      </c>
+      <c r="AS32">
+        <v>27</v>
+      </c>
+      <c r="AT32">
+        <v>26</v>
+      </c>
+      <c r="AU32">
+        <v>29</v>
+      </c>
+      <c r="AV32">
         <v>55</v>
       </c>
-      <c r="AB32">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC32">
-        <v>12</v>
-      </c>
-      <c r="AD32">
-        <v>6.6</v>
-      </c>
-      <c r="AE32">
-        <v>7.8</v>
-      </c>
-      <c r="AF32">
-        <v>11.5</v>
-      </c>
-      <c r="AG32">
-        <v>14.5</v>
-      </c>
-      <c r="AH32">
-        <v>6.6</v>
-      </c>
-      <c r="AI32">
-        <v>38</v>
-      </c>
-      <c r="AJ32">
-        <v>13.5</v>
-      </c>
-      <c r="AK32">
-        <v>17</v>
-      </c>
-      <c r="AL32">
-        <v>10</v>
-      </c>
-      <c r="AM32">
-        <v>980</v>
-      </c>
-      <c r="AN32">
-        <v>15.5</v>
-      </c>
-      <c r="AO32">
-        <v>980</v>
-      </c>
-      <c r="AP32">
-        <v>7</v>
-      </c>
-      <c r="AQ32">
-        <v>55</v>
-      </c>
-      <c r="AR32">
-        <v>6.8</v>
-      </c>
-      <c r="AS32">
-        <v>42</v>
-      </c>
-      <c r="AT32">
-        <v>23</v>
-      </c>
-      <c r="AU32">
-        <v>34</v>
-      </c>
-      <c r="AV32">
-        <v>6.8</v>
-      </c>
       <c r="AW32">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AX32">
-        <v>7.6</v>
+        <v>120</v>
       </c>
       <c r="AY32">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AZ32">
-        <v>6.2</v>
+        <v>25</v>
       </c>
       <c r="BA32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB32">
-        <v>6.4</v>
+        <v>80</v>
       </c>
       <c r="BC32">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="BD32">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="BE32">
         <v>1000</v>
       </c>
-      <c r="BF32" t="s">
-        <v>207</v>
+      <c r="BF32">
+        <v>33155834</v>
       </c>
       <c r="BG32">
-        <v>44796</v>
+        <v>52480974</v>
       </c>
       <c r="BH32">
-        <v>309687</v>
+        <v>10542</v>
       </c>
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>291</v>
+      <c r="BJ32">
+        <v>1.22695333</v>
+      </c>
+      <c r="BK32">
+        <v>1.226953333</v>
+      </c>
+      <c r="BL32">
+        <v>1.226953378</v>
+      </c>
+      <c r="BM32">
+        <v>1.226953382</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7592,196 +7340,196 @@
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F33">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H33">
-        <v>1.75</v>
+        <v>2.92</v>
       </c>
       <c r="I33">
-        <v>1.76</v>
+        <v>3.15</v>
       </c>
       <c r="J33">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="K33">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L33">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="M33">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="O33">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="P33">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q33">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="R33">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T33">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="U33">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="V33">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X33">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y33">
+        <v>21</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <v>55</v>
+      </c>
+      <c r="AB33">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC33">
+        <v>12</v>
+      </c>
+      <c r="AD33">
+        <v>6.6</v>
+      </c>
+      <c r="AE33">
+        <v>7.8</v>
+      </c>
+      <c r="AF33">
         <v>11.5</v>
       </c>
-      <c r="Z33">
-        <v>16.5</v>
-      </c>
-      <c r="AA33">
+      <c r="AG33">
+        <v>14.5</v>
+      </c>
+      <c r="AH33">
+        <v>6.6</v>
+      </c>
+      <c r="AI33">
+        <v>38</v>
+      </c>
+      <c r="AJ33">
+        <v>13.5</v>
+      </c>
+      <c r="AK33">
         <v>17</v>
       </c>
-      <c r="AB33">
-        <v>19.5</v>
-      </c>
-      <c r="AC33">
-        <v>21</v>
-      </c>
-      <c r="AD33">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE33">
-        <v>9.6</v>
-      </c>
-      <c r="AF33">
-        <v>9.6</v>
-      </c>
-      <c r="AG33">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH33">
+      <c r="AL33">
+        <v>10</v>
+      </c>
+      <c r="AM33">
+        <v>980</v>
+      </c>
+      <c r="AN33">
         <v>15.5</v>
       </c>
-      <c r="AI33">
-        <v>16</v>
-      </c>
-      <c r="AJ33">
+      <c r="AO33">
+        <v>980</v>
+      </c>
+      <c r="AP33">
+        <v>7</v>
+      </c>
+      <c r="AQ33">
+        <v>55</v>
+      </c>
+      <c r="AR33">
+        <v>6.8</v>
+      </c>
+      <c r="AS33">
+        <v>42</v>
+      </c>
+      <c r="AT33">
+        <v>23</v>
+      </c>
+      <c r="AU33">
         <v>34</v>
       </c>
-      <c r="AK33">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>17.5</v>
-      </c>
-      <c r="AM33">
-        <v>18</v>
-      </c>
-      <c r="AN33">
-        <v>16.5</v>
-      </c>
-      <c r="AO33">
-        <v>17</v>
-      </c>
-      <c r="AP33">
-        <v>29</v>
-      </c>
-      <c r="AQ33">
-        <v>30</v>
-      </c>
-      <c r="AR33">
-        <v>95</v>
-      </c>
-      <c r="AS33">
-        <v>110</v>
-      </c>
-      <c r="AT33">
-        <v>50</v>
-      </c>
-      <c r="AU33">
-        <v>55</v>
-      </c>
       <c r="AV33">
-        <v>50</v>
+        <v>6.8</v>
       </c>
       <c r="AW33">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AX33">
-        <v>75</v>
+        <v>7.6</v>
       </c>
       <c r="AY33">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AZ33">
-        <v>50</v>
+        <v>6.2</v>
       </c>
       <c r="BA33">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="BB33">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="BC33">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="BD33">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="BE33">
-        <v>410</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>208</v>
+        <v>1000</v>
+      </c>
+      <c r="BF33">
+        <v>33196059</v>
       </c>
       <c r="BG33">
-        <v>74303</v>
+        <v>44796</v>
       </c>
       <c r="BH33">
-        <v>48317</v>
+        <v>309687</v>
       </c>
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>229</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>292</v>
+      <c r="BJ33">
+        <v>1.227676065</v>
+      </c>
+      <c r="BK33">
+        <v>1.22767611</v>
+      </c>
+      <c r="BL33">
+        <v>1.227676149</v>
+      </c>
+      <c r="BM33">
+        <v>1.227676074</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7789,196 +7537,196 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F34">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="G34">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="H34">
+        <v>4.8</v>
+      </c>
+      <c r="I34">
+        <v>5.5</v>
+      </c>
+      <c r="J34">
+        <v>3.8</v>
+      </c>
+      <c r="K34">
         <v>4.4</v>
       </c>
-      <c r="I34">
-        <v>4.5</v>
-      </c>
-      <c r="J34">
-        <v>3.2</v>
-      </c>
-      <c r="K34">
-        <v>3.25</v>
-      </c>
       <c r="L34">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="M34">
-        <v>1.59</v>
+        <v>2.12</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="O34">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="P34">
+        <v>1.82</v>
+      </c>
+      <c r="Q34">
+        <v>1.97</v>
+      </c>
+      <c r="R34">
+        <v>2.04</v>
+      </c>
+      <c r="S34">
         <v>2.22</v>
       </c>
-      <c r="Q34">
-        <v>2.26</v>
-      </c>
-      <c r="R34">
-        <v>1.79</v>
-      </c>
-      <c r="S34">
-        <v>1.82</v>
-      </c>
       <c r="T34">
+        <v>13.5</v>
+      </c>
+      <c r="U34">
+        <v>17</v>
+      </c>
+      <c r="V34">
+        <v>15</v>
+      </c>
+      <c r="W34">
+        <v>20</v>
+      </c>
+      <c r="X34">
+        <v>6.2</v>
+      </c>
+      <c r="Y34">
+        <v>44</v>
+      </c>
+      <c r="Z34">
+        <v>7</v>
+      </c>
+      <c r="AA34">
+        <v>130</v>
+      </c>
+      <c r="AB34">
         <v>8.199999999999999</v>
       </c>
-      <c r="U34">
-        <v>8.6</v>
-      </c>
-      <c r="V34">
-        <v>11</v>
-      </c>
-      <c r="W34">
+      <c r="AC34">
+        <v>9.6</v>
+      </c>
+      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <v>10</v>
+      </c>
+      <c r="AF34">
+        <v>16</v>
+      </c>
+      <c r="AG34">
+        <v>22</v>
+      </c>
+      <c r="AH34">
+        <v>6.6</v>
+      </c>
+      <c r="AI34">
+        <v>70</v>
+      </c>
+      <c r="AJ34">
+        <v>9.4</v>
+      </c>
+      <c r="AK34">
         <v>12</v>
       </c>
-      <c r="X34">
-        <v>26</v>
-      </c>
-      <c r="Y34">
-        <v>28</v>
-      </c>
-      <c r="Z34">
-        <v>95</v>
-      </c>
-      <c r="AA34">
-        <v>110</v>
-      </c>
-      <c r="AB34">
-        <v>6.8</v>
-      </c>
-      <c r="AC34">
-        <v>7.2</v>
-      </c>
-      <c r="AD34">
-        <v>6.8</v>
-      </c>
-      <c r="AE34">
-        <v>7.2</v>
-      </c>
-      <c r="AF34">
-        <v>17.5</v>
-      </c>
-      <c r="AG34">
-        <v>18.5</v>
-      </c>
-      <c r="AH34">
-        <v>65</v>
-      </c>
-      <c r="AI34">
-        <v>75</v>
-      </c>
-      <c r="AJ34">
-        <v>10.5</v>
-      </c>
-      <c r="AK34">
-        <v>11.5</v>
-      </c>
       <c r="AL34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM34">
         <v>11.5</v>
       </c>
       <c r="AN34">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AO34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP34">
-        <v>80</v>
+        <v>6.8</v>
       </c>
       <c r="AQ34">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AR34">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AS34">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AT34">
-        <v>26</v>
+        <v>5.6</v>
       </c>
       <c r="AU34">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AV34">
-        <v>55</v>
+        <v>6.2</v>
       </c>
       <c r="AW34">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AX34">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="AY34">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AZ34">
-        <v>25</v>
+        <v>4.4</v>
       </c>
       <c r="BA34">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="BB34">
-        <v>80</v>
+        <v>6.8</v>
       </c>
       <c r="BC34">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="BD34">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="BE34">
         <v>1000</v>
       </c>
-      <c r="BF34" t="s">
-        <v>209</v>
+      <c r="BF34">
+        <v>33211130</v>
       </c>
       <c r="BG34">
-        <v>52480974</v>
+        <v>10992747</v>
       </c>
       <c r="BH34">
-        <v>10542</v>
+        <v>40210745</v>
       </c>
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>272</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>293</v>
+      <c r="BJ34">
+        <v>1.227914548</v>
+      </c>
+      <c r="BK34">
+        <v>1.227914551</v>
+      </c>
+      <c r="BL34">
+        <v>1.227914595</v>
+      </c>
+      <c r="BM34">
+        <v>1.227914596</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -7986,16 +7734,16 @@
         <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F35">
         <v>9.199999999999999</v>
@@ -8153,8 +7901,8 @@
       <c r="BE35">
         <v>840</v>
       </c>
-      <c r="BF35" t="s">
-        <v>210</v>
+      <c r="BF35">
+        <v>33195250</v>
       </c>
       <c r="BG35">
         <v>48788</v>
@@ -8165,17 +7913,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>294</v>
+      <c r="BJ35">
+        <v>1.227659508</v>
+      </c>
+      <c r="BK35">
+        <v>1.227659518</v>
+      </c>
+      <c r="BL35">
+        <v>1.227659507</v>
+      </c>
+      <c r="BM35">
+        <v>1.227659517</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8183,196 +7931,196 @@
         <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F36">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G36">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="H36">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="J36">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="M36">
+        <v>1.66</v>
+      </c>
+      <c r="N36">
+        <v>2.5</v>
+      </c>
+      <c r="O36">
+        <v>2.68</v>
+      </c>
+      <c r="P36">
+        <v>2.2</v>
+      </c>
+      <c r="Q36">
+        <v>2.22</v>
+      </c>
+      <c r="R36">
+        <v>1.81</v>
+      </c>
+      <c r="S36">
         <v>1.84</v>
       </c>
-      <c r="N36">
-        <v>2.2</v>
-      </c>
-      <c r="O36">
-        <v>2.3</v>
-      </c>
-      <c r="P36">
-        <v>1.95</v>
-      </c>
-      <c r="Q36">
-        <v>2.02</v>
-      </c>
-      <c r="R36">
-        <v>1.98</v>
-      </c>
-      <c r="S36">
-        <v>2.06</v>
-      </c>
       <c r="T36">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U36">
         <v>14</v>
       </c>
       <c r="V36">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W36">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="X36">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="Y36">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z36">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA36">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB36">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AC36">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD36">
         <v>7.2</v>
       </c>
       <c r="AE36">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF36">
+        <v>18</v>
+      </c>
+      <c r="AG36">
+        <v>22</v>
+      </c>
+      <c r="AH36">
+        <v>48</v>
+      </c>
+      <c r="AI36">
+        <v>95</v>
+      </c>
+      <c r="AJ36">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK36">
+        <v>10.5</v>
+      </c>
+      <c r="AL36">
+        <v>10</v>
+      </c>
+      <c r="AM36">
+        <v>11</v>
+      </c>
+      <c r="AN36">
+        <v>19.5</v>
+      </c>
+      <c r="AO36">
+        <v>980</v>
+      </c>
+      <c r="AP36">
+        <v>6.2</v>
+      </c>
+      <c r="AQ36">
+        <v>120</v>
+      </c>
+      <c r="AR36">
+        <v>19</v>
+      </c>
+      <c r="AS36">
+        <v>22</v>
+      </c>
+      <c r="AT36">
+        <v>22</v>
+      </c>
+      <c r="AU36">
+        <v>26</v>
+      </c>
+      <c r="AV36">
+        <v>12</v>
+      </c>
+      <c r="AW36">
+        <v>60</v>
+      </c>
+      <c r="AX36">
+        <v>26</v>
+      </c>
+      <c r="AY36">
+        <v>210</v>
+      </c>
+      <c r="AZ36">
         <v>15.5</v>
       </c>
-      <c r="AG36">
-        <v>23</v>
-      </c>
-      <c r="AH36">
-        <v>5.2</v>
-      </c>
-      <c r="AI36">
-        <v>80</v>
-      </c>
-      <c r="AJ36">
-        <v>10</v>
-      </c>
-      <c r="AK36">
-        <v>14</v>
-      </c>
-      <c r="AL36">
-        <v>9.4</v>
-      </c>
-      <c r="AM36">
-        <v>13</v>
-      </c>
-      <c r="AN36">
-        <v>5</v>
-      </c>
-      <c r="AO36">
-        <v>26</v>
-      </c>
-      <c r="AP36">
-        <v>5.2</v>
-      </c>
-      <c r="AQ36">
-        <v>95</v>
-      </c>
-      <c r="AR36">
-        <v>5.2</v>
-      </c>
-      <c r="AS36">
-        <v>28</v>
-      </c>
-      <c r="AT36">
-        <v>18.5</v>
-      </c>
-      <c r="AU36">
-        <v>28</v>
-      </c>
-      <c r="AV36">
-        <v>5</v>
-      </c>
-      <c r="AW36">
-        <v>55</v>
-      </c>
-      <c r="AX36">
-        <v>5.4</v>
-      </c>
-      <c r="AY36">
-        <v>170</v>
-      </c>
-      <c r="AZ36">
-        <v>4.2</v>
-      </c>
       <c r="BA36">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="BB36">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="BC36">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="BD36">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="BE36">
         <v>1000</v>
       </c>
-      <c r="BF36" t="s">
-        <v>211</v>
+      <c r="BF36">
+        <v>33208255</v>
       </c>
       <c r="BG36">
-        <v>10778457</v>
+        <v>8220578</v>
       </c>
       <c r="BH36">
-        <v>898396</v>
+        <v>7227021</v>
       </c>
       <c r="BI36">
         <v>58805</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>232</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>253</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>295</v>
+      <c r="BJ36">
+        <v>1.227865579</v>
+      </c>
+      <c r="BK36">
+        <v>1.227865624</v>
+      </c>
+      <c r="BL36">
+        <v>1.227865663</v>
+      </c>
+      <c r="BM36">
+        <v>1.227865588</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8380,1181 +8128,984 @@
         <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F37">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G37">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I37">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J37">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L37">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="M37">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="N37">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="O37">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q37">
-        <v>2.22</v>
+        <v>2.64</v>
       </c>
       <c r="R37">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="S37">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>8.199999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="U37">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="V37">
-        <v>12</v>
+        <v>1.1</v>
       </c>
       <c r="W37">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="X37">
-        <v>10.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z37">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="AA37">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB37">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC37">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AD37">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="AE37">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AF37">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AG37">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AH37">
-        <v>48</v>
+        <v>1.1</v>
       </c>
       <c r="AI37">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ37">
-        <v>9.199999999999999</v>
+        <v>2.96</v>
       </c>
       <c r="AK37">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AL37">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="AM37">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AN37">
-        <v>19.5</v>
+        <v>7.4</v>
       </c>
       <c r="AO37">
         <v>980</v>
       </c>
       <c r="AP37">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="AQ37">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AR37">
-        <v>19</v>
+        <v>1.1</v>
       </c>
       <c r="AS37">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AT37">
-        <v>22</v>
+        <v>5.4</v>
       </c>
       <c r="AU37">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AV37">
         <v>12</v>
       </c>
       <c r="AW37">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AX37">
-        <v>26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY37">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AZ37">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA37">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="BB37">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC37">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="BD37">
-        <v>15</v>
+        <v>1.1</v>
       </c>
       <c r="BE37">
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="BG37">
-        <v>8220578</v>
+        <v>6987860</v>
       </c>
       <c r="BH37">
-        <v>7227021</v>
+        <v>5330507</v>
       </c>
       <c r="BI37">
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="BK37" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="BL37" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="BM37" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:65">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F38">
+        <v>2.5</v>
+      </c>
+      <c r="G38">
+        <v>2.72</v>
+      </c>
+      <c r="H38">
+        <v>2.84</v>
+      </c>
+      <c r="I38">
+        <v>3.15</v>
+      </c>
+      <c r="J38">
+        <v>3.3</v>
+      </c>
+      <c r="K38">
+        <v>3.75</v>
+      </c>
+      <c r="L38">
+        <v>1.88</v>
+      </c>
+      <c r="M38">
+        <v>2.04</v>
+      </c>
+      <c r="N38">
+        <v>1.97</v>
+      </c>
+      <c r="O38">
+        <v>2.14</v>
+      </c>
+      <c r="P38">
+        <v>1.81</v>
+      </c>
+      <c r="Q38">
         <v>1.91</v>
       </c>
-      <c r="G38">
-        <v>2.06</v>
-      </c>
-      <c r="H38">
-        <v>4.6</v>
-      </c>
-      <c r="I38">
-        <v>5.2</v>
-      </c>
-      <c r="J38">
-        <v>3.25</v>
-      </c>
-      <c r="K38">
-        <v>3.65</v>
-      </c>
-      <c r="L38">
-        <v>1.62</v>
-      </c>
-      <c r="M38">
-        <v>1.73</v>
-      </c>
-      <c r="N38">
-        <v>2.34</v>
-      </c>
-      <c r="O38">
-        <v>2.62</v>
-      </c>
-      <c r="P38">
+      <c r="R38">
         <v>2.1</v>
       </c>
-      <c r="Q38">
-        <v>2.3</v>
-      </c>
-      <c r="R38">
-        <v>1.77</v>
-      </c>
       <c r="S38">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="T38">
-        <v>4.7</v>
+        <v>11</v>
       </c>
       <c r="U38">
+        <v>15.5</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+      <c r="W38">
+        <v>14.5</v>
+      </c>
+      <c r="X38">
+        <v>3.9</v>
+      </c>
+      <c r="Y38">
+        <v>24</v>
+      </c>
+      <c r="Z38">
+        <v>4.2</v>
+      </c>
+      <c r="AA38">
+        <v>60</v>
+      </c>
+      <c r="AB38">
+        <v>9.4</v>
+      </c>
+      <c r="AC38">
+        <v>11.5</v>
+      </c>
+      <c r="AD38">
+        <v>7</v>
+      </c>
+      <c r="AE38">
+        <v>9.6</v>
+      </c>
+      <c r="AF38">
+        <v>11.5</v>
+      </c>
+      <c r="AG38">
+        <v>16</v>
+      </c>
+      <c r="AH38">
+        <v>4.1</v>
+      </c>
+      <c r="AI38">
+        <v>42</v>
+      </c>
+      <c r="AJ38">
+        <v>12</v>
+      </c>
+      <c r="AK38">
+        <v>20</v>
+      </c>
+      <c r="AL38">
         <v>10.5</v>
       </c>
-      <c r="V38">
-        <v>10.5</v>
-      </c>
-      <c r="W38">
+      <c r="AM38">
         <v>15</v>
       </c>
-      <c r="X38">
-        <v>6.6</v>
-      </c>
-      <c r="Y38">
+      <c r="AN38">
+        <v>4</v>
+      </c>
+      <c r="AO38">
+        <v>23</v>
+      </c>
+      <c r="AP38">
+        <v>4.3</v>
+      </c>
+      <c r="AQ38">
+        <v>60</v>
+      </c>
+      <c r="AR38">
+        <v>4.2</v>
+      </c>
+      <c r="AS38">
+        <v>46</v>
+      </c>
+      <c r="AT38">
+        <v>4.1</v>
+      </c>
+      <c r="AU38">
         <v>36</v>
       </c>
-      <c r="Z38">
-        <v>7.8</v>
-      </c>
-      <c r="AA38">
+      <c r="AV38">
+        <v>4.3</v>
+      </c>
+      <c r="AW38">
+        <v>55</v>
+      </c>
+      <c r="AX38">
+        <v>4.5</v>
+      </c>
+      <c r="AY38">
         <v>130</v>
       </c>
-      <c r="AB38">
-        <v>6.2</v>
-      </c>
-      <c r="AC38">
-        <v>7.8</v>
-      </c>
-      <c r="AD38">
-        <v>6.8</v>
-      </c>
-      <c r="AE38">
-        <v>980</v>
-      </c>
-      <c r="AF38">
-        <v>5.9</v>
-      </c>
-      <c r="AG38">
-        <v>980</v>
-      </c>
-      <c r="AH38">
-        <v>7.6</v>
-      </c>
-      <c r="AI38">
-        <v>85</v>
-      </c>
-      <c r="AJ38">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK38">
-        <v>11.5</v>
-      </c>
-      <c r="AL38">
-        <v>4.9</v>
-      </c>
-      <c r="AM38">
-        <v>12</v>
-      </c>
-      <c r="AN38">
-        <v>6.2</v>
-      </c>
-      <c r="AO38">
-        <v>980</v>
-      </c>
-      <c r="AP38">
-        <v>7.6</v>
-      </c>
-      <c r="AQ38">
-        <v>100</v>
-      </c>
-      <c r="AR38">
-        <v>6.2</v>
-      </c>
-      <c r="AS38">
-        <v>24</v>
-      </c>
-      <c r="AT38">
-        <v>6.4</v>
-      </c>
-      <c r="AU38">
-        <v>28</v>
-      </c>
-      <c r="AV38">
-        <v>7.2</v>
-      </c>
-      <c r="AW38">
-        <v>60</v>
-      </c>
-      <c r="AX38">
-        <v>8</v>
-      </c>
-      <c r="AY38">
-        <v>190</v>
-      </c>
       <c r="AZ38">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="BA38">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="BB38">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="BC38">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="BD38">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BE38">
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="BG38">
-        <v>6987860</v>
+        <v>3806543</v>
       </c>
       <c r="BH38">
-        <v>5330507</v>
+        <v>4525642</v>
       </c>
       <c r="BI38">
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="BK38" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="BL38" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="BM38" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:65">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F39">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="G39">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="H39">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I39">
+        <v>3.1</v>
+      </c>
+      <c r="J39">
+        <v>3.05</v>
+      </c>
+      <c r="K39">
         <v>3.2</v>
       </c>
-      <c r="J39">
-        <v>3.3</v>
-      </c>
-      <c r="K39">
-        <v>3.75</v>
-      </c>
       <c r="L39">
+        <v>1.6</v>
+      </c>
+      <c r="M39">
+        <v>1.66</v>
+      </c>
+      <c r="N39">
+        <v>2.5</v>
+      </c>
+      <c r="O39">
+        <v>2.68</v>
+      </c>
+      <c r="P39">
+        <v>2.02</v>
+      </c>
+      <c r="Q39">
+        <v>2.2</v>
+      </c>
+      <c r="R39">
         <v>1.83</v>
       </c>
-      <c r="M39">
-        <v>2.04</v>
-      </c>
-      <c r="N39">
-        <v>1.96</v>
-      </c>
-      <c r="O39">
-        <v>2.2</v>
-      </c>
-      <c r="P39">
-        <v>1.81</v>
-      </c>
-      <c r="Q39">
-        <v>1.92</v>
-      </c>
-      <c r="R39">
-        <v>2.08</v>
-      </c>
       <c r="S39">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="T39">
-        <v>3.95</v>
+        <v>7.8</v>
       </c>
       <c r="U39">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V39">
-        <v>3.85</v>
+        <v>7.6</v>
       </c>
       <c r="W39">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="X39">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="Y39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z39">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AA39">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB39">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC39">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD39">
+        <v>6</v>
+      </c>
+      <c r="AE39">
+        <v>7.8</v>
+      </c>
+      <c r="AF39">
+        <v>11.5</v>
+      </c>
+      <c r="AG39">
+        <v>15.5</v>
+      </c>
+      <c r="AH39">
+        <v>6</v>
+      </c>
+      <c r="AI39">
+        <v>46</v>
+      </c>
+      <c r="AJ39">
+        <v>14</v>
+      </c>
+      <c r="AK39">
+        <v>19</v>
+      </c>
+      <c r="AL39">
+        <v>11</v>
+      </c>
+      <c r="AM39">
+        <v>15</v>
+      </c>
+      <c r="AN39">
+        <v>6.2</v>
+      </c>
+      <c r="AO39">
+        <v>25</v>
+      </c>
+      <c r="AP39">
+        <v>6.2</v>
+      </c>
+      <c r="AQ39">
+        <v>75</v>
+      </c>
+      <c r="AR39">
+        <v>6.2</v>
+      </c>
+      <c r="AS39">
+        <v>55</v>
+      </c>
+      <c r="AT39">
         <v>6.4</v>
       </c>
-      <c r="AE39">
-        <v>980</v>
-      </c>
-      <c r="AF39">
-        <v>3.95</v>
-      </c>
-      <c r="AG39">
-        <v>16</v>
-      </c>
-      <c r="AH39">
-        <v>4.5</v>
-      </c>
-      <c r="AI39">
-        <v>40</v>
-      </c>
-      <c r="AJ39">
-        <v>4.1</v>
-      </c>
-      <c r="AK39">
-        <v>20</v>
-      </c>
-      <c r="AL39">
-        <v>3.85</v>
-      </c>
-      <c r="AM39">
-        <v>14.5</v>
-      </c>
-      <c r="AN39">
-        <v>4.2</v>
-      </c>
-      <c r="AO39">
-        <v>22</v>
-      </c>
-      <c r="AP39">
-        <v>4.7</v>
-      </c>
-      <c r="AQ39">
-        <v>55</v>
-      </c>
-      <c r="AR39">
-        <v>4.5</v>
-      </c>
-      <c r="AS39">
+      <c r="AU39">
+        <v>44</v>
+      </c>
+      <c r="AV39">
+        <v>6.2</v>
+      </c>
+      <c r="AW39">
+        <v>70</v>
+      </c>
+      <c r="AX39">
+        <v>6.6</v>
+      </c>
+      <c r="AY39">
+        <v>180</v>
+      </c>
+      <c r="AZ39">
+        <v>6</v>
+      </c>
+      <c r="BA39">
         <v>46</v>
       </c>
-      <c r="AT39">
-        <v>4.4</v>
-      </c>
-      <c r="AU39">
-        <v>34</v>
-      </c>
-      <c r="AV39">
-        <v>4.6</v>
-      </c>
-      <c r="AW39">
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
         <v>50</v>
       </c>
-      <c r="AX39">
-        <v>4.8</v>
-      </c>
-      <c r="AY39">
-        <v>120</v>
-      </c>
-      <c r="AZ39">
-        <v>4.2</v>
-      </c>
-      <c r="BA39">
-        <v>26</v>
-      </c>
-      <c r="BB39">
-        <v>4.4</v>
-      </c>
-      <c r="BC39">
-        <v>34</v>
-      </c>
       <c r="BD39">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="BE39">
         <v>1000</v>
       </c>
       <c r="BF39" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="BG39">
-        <v>3806543</v>
+        <v>3636902</v>
       </c>
       <c r="BH39">
-        <v>4525642</v>
+        <v>8717595</v>
       </c>
       <c r="BI39">
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="BK39" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="BL39" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="BM39" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:65">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F40">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="G40">
-        <v>2.86</v>
+        <v>2.2</v>
       </c>
       <c r="H40">
-        <v>2.98</v>
+        <v>4.2</v>
       </c>
       <c r="I40">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="J40">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K40">
         <v>3.25</v>
       </c>
       <c r="L40">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="M40">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="N40">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O40">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="P40">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="Q40">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R40">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="S40">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="T40">
         <v>7.6</v>
       </c>
       <c r="U40">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V40">
-        <v>2.64</v>
+        <v>10.5</v>
       </c>
       <c r="W40">
+        <v>12</v>
+      </c>
+      <c r="X40">
+        <v>18.5</v>
+      </c>
+      <c r="Y40">
+        <v>30</v>
+      </c>
+      <c r="Z40">
+        <v>15.5</v>
+      </c>
+      <c r="AA40">
+        <v>110</v>
+      </c>
+      <c r="AB40">
+        <v>6.2</v>
+      </c>
+      <c r="AC40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
+        <v>6.6</v>
+      </c>
+      <c r="AE40">
+        <v>7.6</v>
+      </c>
+      <c r="AF40">
+        <v>17</v>
+      </c>
+      <c r="AG40">
+        <v>19.5</v>
+      </c>
+      <c r="AH40">
+        <v>14.5</v>
+      </c>
+      <c r="AI40">
+        <v>980</v>
+      </c>
+      <c r="AJ40">
+        <v>10</v>
+      </c>
+      <c r="AK40">
+        <v>11.5</v>
+      </c>
+      <c r="AL40">
         <v>10.5</v>
       </c>
-      <c r="X40">
-        <v>6.4</v>
-      </c>
-      <c r="Y40">
-        <v>21</v>
-      </c>
-      <c r="Z40">
-        <v>2.44</v>
-      </c>
-      <c r="AA40">
-        <v>60</v>
-      </c>
-      <c r="AB40">
-        <v>7.4</v>
-      </c>
-      <c r="AC40">
-        <v>9</v>
-      </c>
-      <c r="AD40">
-        <v>6.2</v>
-      </c>
-      <c r="AE40">
-        <v>7.4</v>
-      </c>
-      <c r="AF40">
-        <v>6</v>
-      </c>
-      <c r="AG40">
+      <c r="AM40">
+        <v>11.5</v>
+      </c>
+      <c r="AN40">
+        <v>23</v>
+      </c>
+      <c r="AO40">
+        <v>26</v>
+      </c>
+      <c r="AP40">
+        <v>15.5</v>
+      </c>
+      <c r="AQ40">
+        <v>110</v>
+      </c>
+      <c r="AR40">
+        <v>23</v>
+      </c>
+      <c r="AS40">
+        <v>28</v>
+      </c>
+      <c r="AT40">
+        <v>26</v>
+      </c>
+      <c r="AU40">
+        <v>29</v>
+      </c>
+      <c r="AV40">
+        <v>36</v>
+      </c>
+      <c r="AW40">
+        <v>65</v>
+      </c>
+      <c r="AX40">
+        <v>16.5</v>
+      </c>
+      <c r="AY40">
+        <v>980</v>
+      </c>
+      <c r="AZ40">
+        <v>23</v>
+      </c>
+      <c r="BA40">
+        <v>27</v>
+      </c>
+      <c r="BB40">
         <v>16</v>
       </c>
-      <c r="AH40">
-        <v>2.42</v>
-      </c>
-      <c r="AI40">
-        <v>48</v>
-      </c>
-      <c r="AJ40">
-        <v>11.5</v>
-      </c>
-      <c r="AK40">
-        <v>17.5</v>
-      </c>
-      <c r="AL40">
-        <v>10</v>
-      </c>
-      <c r="AM40">
-        <v>14.5</v>
-      </c>
-      <c r="AN40">
-        <v>6.6</v>
-      </c>
-      <c r="AO40">
-        <v>25</v>
-      </c>
-      <c r="AP40">
-        <v>2.46</v>
-      </c>
-      <c r="AQ40">
-        <v>75</v>
-      </c>
-      <c r="AR40">
-        <v>3.5</v>
-      </c>
-      <c r="AS40">
-        <v>1000</v>
-      </c>
-      <c r="AT40">
-        <v>3.5</v>
-      </c>
-      <c r="AU40">
-        <v>1000</v>
-      </c>
-      <c r="AV40">
-        <v>6.2</v>
-      </c>
-      <c r="AW40">
-        <v>1000</v>
-      </c>
-      <c r="AX40">
-        <v>2.5</v>
-      </c>
-      <c r="AY40">
-        <v>1000</v>
-      </c>
-      <c r="AZ40">
-        <v>1.91</v>
-      </c>
-      <c r="BA40">
-        <v>1000</v>
-      </c>
-      <c r="BB40">
-        <v>1.84</v>
-      </c>
       <c r="BC40">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="BD40">
-        <v>1.91</v>
+        <v>13</v>
       </c>
       <c r="BE40">
         <v>1000</v>
       </c>
       <c r="BF40" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="BG40">
-        <v>3636902</v>
+        <v>376829</v>
       </c>
       <c r="BH40">
-        <v>8717595</v>
+        <v>200603</v>
       </c>
       <c r="BI40">
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="BK40" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="BL40" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="BM40" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:65">
       <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F41">
-        <v>2.12</v>
+        <v>3.15</v>
       </c>
       <c r="G41">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H41">
-        <v>4.2</v>
+        <v>2.54</v>
       </c>
       <c r="I41">
-        <v>4.6</v>
+        <v>2.68</v>
       </c>
       <c r="J41">
         <v>3.05</v>
       </c>
       <c r="K41">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L41">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="M41">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="N41">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="O41">
-        <v>2.88</v>
+        <v>2.46</v>
       </c>
       <c r="P41">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="Q41">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="R41">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="S41">
-        <v>1.82</v>
+        <v>2.16</v>
       </c>
       <c r="T41">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U41">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="V41">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X41">
+        <v>12.5</v>
+      </c>
+      <c r="Y41">
+        <v>16.5</v>
+      </c>
+      <c r="Z41">
+        <v>7.8</v>
+      </c>
+      <c r="AA41">
+        <v>38</v>
+      </c>
+      <c r="AB41">
         <v>10</v>
       </c>
-      <c r="Y41">
-        <v>32</v>
-      </c>
-      <c r="Z41">
-        <v>8.6</v>
-      </c>
-      <c r="AA41">
-        <v>120</v>
-      </c>
-      <c r="AB41">
+      <c r="AC41">
+        <v>13</v>
+      </c>
+      <c r="AD41">
         <v>6.2</v>
-      </c>
-      <c r="AC41">
-        <v>10</v>
-      </c>
-      <c r="AD41">
-        <v>6.6</v>
       </c>
       <c r="AE41">
         <v>7.6</v>
       </c>
       <c r="AF41">
+        <v>10.5</v>
+      </c>
+      <c r="AG41">
+        <v>13</v>
+      </c>
+      <c r="AH41">
+        <v>7.6</v>
+      </c>
+      <c r="AI41">
+        <v>34</v>
+      </c>
+      <c r="AJ41">
+        <v>16</v>
+      </c>
+      <c r="AK41">
+        <v>23</v>
+      </c>
+      <c r="AL41">
+        <v>12.5</v>
+      </c>
+      <c r="AM41">
+        <v>15.5</v>
+      </c>
+      <c r="AN41">
         <v>17</v>
       </c>
-      <c r="AG41">
-        <v>19.5</v>
-      </c>
-      <c r="AH41">
-        <v>13</v>
-      </c>
-      <c r="AI41">
-        <v>90</v>
-      </c>
-      <c r="AJ41">
-        <v>10</v>
-      </c>
-      <c r="AK41">
-        <v>11.5</v>
-      </c>
-      <c r="AL41">
-        <v>10.5</v>
-      </c>
-      <c r="AM41">
-        <v>12</v>
-      </c>
-      <c r="AN41">
-        <v>23</v>
-      </c>
       <c r="AO41">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AP41">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AQ41">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AR41">
-        <v>24</v>
+        <v>6.6</v>
       </c>
       <c r="AS41">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AT41">
-        <v>26</v>
+        <v>6.4</v>
       </c>
       <c r="AU41">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AV41">
-        <v>44</v>
+        <v>6.8</v>
       </c>
       <c r="AW41">
         <v>65</v>
       </c>
       <c r="AX41">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="AY41">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="AZ41">
-        <v>20</v>
+        <v>6.6</v>
       </c>
       <c r="BA41">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BB41">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="BC41">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="BD41">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="BE41">
         <v>1000</v>
       </c>
       <c r="BF41" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="BG41">
-        <v>376829</v>
+        <v>478919</v>
       </c>
       <c r="BH41">
-        <v>200603</v>
+        <v>4082025</v>
       </c>
       <c r="BI41">
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="BK41" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="BL41" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="BM41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65">
-      <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42">
-        <v>3.3</v>
-      </c>
-      <c r="G42">
-        <v>3.7</v>
-      </c>
-      <c r="H42">
-        <v>2.52</v>
-      </c>
-      <c r="I42">
-        <v>2.76</v>
-      </c>
-      <c r="J42">
-        <v>2.9</v>
-      </c>
-      <c r="K42">
-        <v>3.2</v>
-      </c>
-      <c r="L42">
-        <v>1.55</v>
-      </c>
-      <c r="M42">
-        <v>1.62</v>
-      </c>
-      <c r="N42">
-        <v>2.6</v>
-      </c>
-      <c r="O42">
-        <v>2.8</v>
-      </c>
-      <c r="P42">
-        <v>2.12</v>
-      </c>
-      <c r="Q42">
-        <v>2.2</v>
-      </c>
-      <c r="R42">
-        <v>1.83</v>
-      </c>
-      <c r="S42">
-        <v>1.89</v>
-      </c>
-      <c r="T42">
-        <v>4.2</v>
-      </c>
-      <c r="U42">
-        <v>8.6</v>
-      </c>
-      <c r="V42">
-        <v>4.1</v>
-      </c>
-      <c r="W42">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X42">
-        <v>5.4</v>
-      </c>
-      <c r="Y42">
-        <v>16.5</v>
-      </c>
-      <c r="Z42">
-        <v>6.8</v>
-      </c>
-      <c r="AA42">
-        <v>44</v>
-      </c>
-      <c r="AB42">
-        <v>4.5</v>
-      </c>
-      <c r="AC42">
-        <v>10</v>
-      </c>
-      <c r="AD42">
-        <v>3.95</v>
-      </c>
-      <c r="AE42">
-        <v>7.6</v>
-      </c>
-      <c r="AF42">
-        <v>5.2</v>
-      </c>
-      <c r="AG42">
-        <v>14.5</v>
-      </c>
-      <c r="AH42">
-        <v>6.8</v>
-      </c>
-      <c r="AI42">
-        <v>42</v>
-      </c>
-      <c r="AJ42">
-        <v>6</v>
-      </c>
-      <c r="AK42">
-        <v>24</v>
-      </c>
-      <c r="AL42">
-        <v>5.5</v>
-      </c>
-      <c r="AM42">
-        <v>17.5</v>
-      </c>
-      <c r="AN42">
-        <v>6.2</v>
-      </c>
-      <c r="AO42">
-        <v>26</v>
-      </c>
-      <c r="AP42">
-        <v>4.2</v>
-      </c>
-      <c r="AQ42">
-        <v>75</v>
-      </c>
-      <c r="AR42">
-        <v>4.2</v>
-      </c>
-      <c r="AS42">
-        <v>75</v>
-      </c>
-      <c r="AT42">
-        <v>7.2</v>
-      </c>
-      <c r="AU42">
-        <v>60</v>
-      </c>
-      <c r="AV42">
-        <v>4.2</v>
-      </c>
-      <c r="AW42">
-        <v>90</v>
-      </c>
-      <c r="AX42">
-        <v>7.8</v>
-      </c>
-      <c r="AY42">
-        <v>1000</v>
-      </c>
-      <c r="AZ42">
-        <v>4.2</v>
-      </c>
-      <c r="BA42">
-        <v>75</v>
-      </c>
-      <c r="BB42">
-        <v>6.8</v>
-      </c>
-      <c r="BC42">
-        <v>44</v>
-      </c>
-      <c r="BD42">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BE42">
-        <v>1000</v>
-      </c>
-      <c r="BF42" t="s">
         <v>217</v>
-      </c>
-      <c r="BG42">
-        <v>478919</v>
-      </c>
-      <c r="BH42">
-        <v>4082025</v>
-      </c>
-      <c r="BI42">
-        <v>58805</v>
-      </c>
-      <c r="BJ42" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>280</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="193">
   <si>
     <t>League</t>
   </si>
@@ -593,81 +593,6 @@
   </si>
   <si>
     <t>La Equidad</t>
-  </si>
-  <si>
-    <t>33188684</t>
-  </si>
-  <si>
-    <t>33188683</t>
-  </si>
-  <si>
-    <t>33208262</t>
-  </si>
-  <si>
-    <t>33140143</t>
-  </si>
-  <si>
-    <t>33205260</t>
-  </si>
-  <si>
-    <t>1.227536067</t>
-  </si>
-  <si>
-    <t>1.227536170</t>
-  </si>
-  <si>
-    <t>1.227865489</t>
-  </si>
-  <si>
-    <t>1.226696314</t>
-  </si>
-  <si>
-    <t>1.227826247</t>
-  </si>
-  <si>
-    <t>1.227536113</t>
-  </si>
-  <si>
-    <t>1.227536215</t>
-  </si>
-  <si>
-    <t>1.227865534</t>
-  </si>
-  <si>
-    <t>1.226696324</t>
-  </si>
-  <si>
-    <t>1.227826292</t>
-  </si>
-  <si>
-    <t>1.227536153</t>
-  </si>
-  <si>
-    <t>1.227536254</t>
-  </si>
-  <si>
-    <t>1.227865573</t>
-  </si>
-  <si>
-    <t>1.226696313</t>
-  </si>
-  <si>
-    <t>1.227826331</t>
-  </si>
-  <si>
-    <t>1.227536077</t>
-  </si>
-  <si>
-    <t>1.227536179</t>
-  </si>
-  <si>
-    <t>1.227865498</t>
-  </si>
-  <si>
-    <t>1.226696323</t>
-  </si>
-  <si>
-    <t>1.227826256</t>
   </si>
 </sst>
 </file>
@@ -8295,8 +8220,8 @@
       <c r="BE37">
         <v>1000</v>
       </c>
-      <c r="BF37" t="s">
-        <v>193</v>
+      <c r="BF37">
+        <v>33188684</v>
       </c>
       <c r="BG37">
         <v>6987860</v>
@@ -8307,17 +8232,17 @@
       <c r="BI37">
         <v>58805</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>208</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>213</v>
+      <c r="BJ37">
+        <v>1.227536067</v>
+      </c>
+      <c r="BK37">
+        <v>1.227536113</v>
+      </c>
+      <c r="BL37">
+        <v>1.227536153</v>
+      </c>
+      <c r="BM37">
+        <v>1.227536077</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8492,8 +8417,8 @@
       <c r="BE38">
         <v>1000</v>
       </c>
-      <c r="BF38" t="s">
-        <v>194</v>
+      <c r="BF38">
+        <v>33188683</v>
       </c>
       <c r="BG38">
         <v>3806543</v>
@@ -8504,17 +8429,17 @@
       <c r="BI38">
         <v>58805</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>214</v>
+      <c r="BJ38">
+        <v>1.22753617</v>
+      </c>
+      <c r="BK38">
+        <v>1.227536215</v>
+      </c>
+      <c r="BL38">
+        <v>1.227536254</v>
+      </c>
+      <c r="BM38">
+        <v>1.227536179</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -8689,8 +8614,8 @@
       <c r="BE39">
         <v>1000</v>
       </c>
-      <c r="BF39" t="s">
-        <v>195</v>
+      <c r="BF39">
+        <v>33208262</v>
       </c>
       <c r="BG39">
         <v>3636902</v>
@@ -8701,17 +8626,17 @@
       <c r="BI39">
         <v>58805</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>200</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>210</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>215</v>
+      <c r="BJ39">
+        <v>1.227865489</v>
+      </c>
+      <c r="BK39">
+        <v>1.227865534</v>
+      </c>
+      <c r="BL39">
+        <v>1.227865573</v>
+      </c>
+      <c r="BM39">
+        <v>1.227865498</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -8886,8 +8811,8 @@
       <c r="BE40">
         <v>1000</v>
       </c>
-      <c r="BF40" t="s">
-        <v>196</v>
+      <c r="BF40">
+        <v>33140143</v>
       </c>
       <c r="BG40">
         <v>376829</v>
@@ -8898,17 +8823,17 @@
       <c r="BI40">
         <v>58805</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>216</v>
+      <c r="BJ40">
+        <v>1.226696314</v>
+      </c>
+      <c r="BK40">
+        <v>1.226696324</v>
+      </c>
+      <c r="BL40">
+        <v>1.226696313</v>
+      </c>
+      <c r="BM40">
+        <v>1.226696323</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9083,8 +9008,8 @@
       <c r="BE41">
         <v>1000</v>
       </c>
-      <c r="BF41" t="s">
-        <v>197</v>
+      <c r="BF41">
+        <v>33205260</v>
       </c>
       <c r="BG41">
         <v>478919</v>
@@ -9095,17 +9020,17 @@
       <c r="BI41">
         <v>58805</v>
       </c>
-      <c r="BJ41" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>207</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>217</v>
+      <c r="BJ41">
+        <v>1.227826247</v>
+      </c>
+      <c r="BK41">
+        <v>1.227826292</v>
+      </c>
+      <c r="BL41">
+        <v>1.227826331</v>
+      </c>
+      <c r="BM41">
+        <v>1.227826256</v>
       </c>
     </row>
   </sheetData>
